--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45384</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>45175</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,14 +1064,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 38916-2023</t>
+          <t>A 47975-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45163</v>
+        <v>45932</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1083,23 +1083,18 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>4.3</v>
+        <v>11.8</v>
       </c>
       <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1113,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1122,6 +1117,103 @@
         <v>4</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Kråka
+Spillkråka
+Tretåig hackspett
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47975-2025 artfynd.xlsx", "A 47975-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47975-2025 karta.png", "A 47975-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47975-2025 FSC-klagomål.docx", "A 47975-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47975-2025 FSC-klagomål mail.docx", "A 47975-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47975-2025 tillsynsbegäran.docx", "A 47975-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47975-2025 tillsynsbegäran mail.docx", "A 47975-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47975-2025 prioriterade fågelarter.docx", "A 47975-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 38916-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tretåig hackspett
@@ -1129,96 +1221,96 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38916-2023 artfynd.xlsx", "A 38916-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38916-2023 karta.png", "A 38916-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38916-2023 FSC-klagomål.docx", "A 38916-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38916-2023 FSC-klagomål mail.docx", "A 38916-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38916-2023 tillsynsbegäran.docx", "A 38916-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38916-2023 tillsynsbegäran mail.docx", "A 38916-2023")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38916-2023 prioriterade fågelarter.docx", "A 38916-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 48284-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45205</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>6.7</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>4</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>4</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tretåig hackspett
@@ -1226,124 +1318,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 48284-2023 artfynd.xlsx", "A 48284-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 48284-2023 karta.png", "A 48284-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 48284-2023 FSC-klagomål.docx", "A 48284-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 48284-2023 FSC-klagomål mail.docx", "A 48284-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 48284-2023 tillsynsbegäran.docx", "A 48284-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 48284-2023 tillsynsbegäran mail.docx", "A 48284-2023")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 48284-2023 prioriterade fågelarter.docx", "A 48284-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 47975-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45932</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Kråka
-Spillkråka
-Tretåig hackspett
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47975-2025 artfynd.xlsx", "A 47975-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47975-2025 karta.png", "A 47975-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47975-2025 FSC-klagomål.docx", "A 47975-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47975-2025 FSC-klagomål mail.docx", "A 47975-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47975-2025 tillsynsbegäran.docx", "A 47975-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47975-2025 tillsynsbegäran mail.docx", "A 47975-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47975-2025 prioriterade fågelarter.docx", "A 47975-2025")</f>
         <v/>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
         <v>45089.56824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,14 +1446,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 73321-2021</t>
+          <t>A 47782-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44550</v>
+        <v>45931</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,19 +1466,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>13.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1493,249 +1493,249 @@
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47782-2025 artfynd.xlsx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47782-2025 karta.png", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47782-2025 FSC-klagomål.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47782-2025 FSC-klagomål mail.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47782-2025 tillsynsbegäran.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47782-2025 tillsynsbegäran mail.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47782-2025 prioriterade fågelarter.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 38915-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tretåig hackspett
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38915-2023 artfynd.xlsx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38915-2023 karta.png", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38915-2023 FSC-klagomål.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38915-2023 FSC-klagomål mail.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38915-2023 tillsynsbegäran.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38915-2023 tillsynsbegäran mail.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38915-2023 prioriterade fågelarter.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 73321-2021</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44550</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>17</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Grynig filtlav
 Gulsparv</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 73321-2021 artfynd.xlsx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 73321-2021 karta.png", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/knärot/A 73321-2021 karta knärot.png", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 73321-2021 FSC-klagomål.docx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 73321-2021 FSC-klagomål mail.docx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 73321-2021 tillsynsbegäran.docx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 73321-2021 tillsynsbegäran mail.docx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 73321-2021 prioriterade fågelarter.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 38915-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45163</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tretåig hackspett
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38915-2023 artfynd.xlsx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38915-2023 karta.png", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38915-2023 FSC-klagomål.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38915-2023 FSC-klagomål mail.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38915-2023 tillsynsbegäran.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38915-2023 tillsynsbegäran mail.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38915-2023 prioriterade fågelarter.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 47782-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47782-2025 artfynd.xlsx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47782-2025 karta.png", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47782-2025 FSC-klagomål.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47782-2025 FSC-klagomål mail.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47782-2025 tillsynsbegäran.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47782-2025 tillsynsbegäran mail.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47782-2025 prioriterade fågelarter.docx", "A 47782-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 47785-2025</t>
+          <t>A 36081-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45931</v>
+        <v>45866</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1747,32 +1747,37 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1782,218 +1787,213 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Skogsklocka
+Svinrot</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 36081-2025 artfynd.xlsx", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 36081-2025 karta.png", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 36081-2025 FSC-klagomål.docx", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 36081-2025 FSC-klagomål mail.docx", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 36081-2025 tillsynsbegäran.docx", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 36081-2025 tillsynsbegäran mail.docx", "A 36081-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 47785-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47785-2025 artfynd.xlsx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47785-2025 karta.png", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47785-2025 FSC-klagomål.docx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47785-2025 FSC-klagomål mail.docx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47785-2025 tillsynsbegäran.docx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47785-2025 tillsynsbegäran mail.docx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47785-2025 prioriterade fågelarter.docx", "A 47785-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 8063-2024</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45351</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>1.5</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>2</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>2</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka
 Svinrot</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 8063-2024 artfynd.xlsx", "A 8063-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 8063-2024 karta.png", "A 8063-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 8063-2024 FSC-klagomål.docx", "A 8063-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 8063-2024 FSC-klagomål mail.docx", "A 8063-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 8063-2024 tillsynsbegäran.docx", "A 8063-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 8063-2024 tillsynsbegäran mail.docx", "A 8063-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 36081-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45866</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka
-Svinrot</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 36081-2025 artfynd.xlsx", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 36081-2025 karta.png", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 36081-2025 FSC-klagomål.docx", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 36081-2025 FSC-klagomål mail.docx", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 36081-2025 tillsynsbegäran.docx", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 36081-2025 tillsynsbegäran mail.docx", "A 36081-2025")</f>
         <v/>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>44853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,14 +2265,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 27093-2023</t>
+          <t>A 33297-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45096</v>
+        <v>45116</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,23 +2284,18 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2314,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2324,49 +2319,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 49306-2025</t>
+          <t>A 27093-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45938</v>
+        <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2378,14 +2369,19 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2413,45 +2409,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 40870-2024</t>
+          <t>A 49306-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45558.59421296296</v>
+        <v>45938</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,22 +2463,17 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2493,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2503,49 +2498,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 38912-2023</t>
+          <t>A 38914-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>45163</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2601,45 +2592,45 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 12720-2024</t>
+          <t>A 47787-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45384</v>
+        <v>45931</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2651,13 +2642,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2695,45 +2681,45 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 47915-2024</t>
+          <t>A 40870-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45589.34315972222</v>
+        <v>45558.59421296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2751,7 +2737,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2760,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2775,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2785,45 +2771,49 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47787-2025</t>
+          <t>A 38912-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45931</v>
+        <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,8 +2825,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2874,45 +2869,45 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33297-2023</t>
+          <t>A 12720-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45116</v>
+        <v>45384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,11 +2919,16 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2959,45 +2959,49 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 38914-2023</t>
+          <t>A 47915-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45163</v>
+        <v>45589.34315972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3015,7 +3019,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -3024,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3039,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3049,49 +3053,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 2357-2022</t>
+          <t>A 53838-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44578</v>
+        <v>45614</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3142,45 +3142,45 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 53838-2024</t>
+          <t>A 2357-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45614</v>
+        <v>44578</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3231,31 +3231,31 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
         <v/>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
         <v>44805</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44396.35755787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44607.48398148148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44651</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44692</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44470</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44497.42795138889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44375</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44466.38188657408</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44643</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44470</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44529.52201388889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44525.76128472222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44509.65762731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4608,14 +4608,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 14633-2025</t>
+          <t>A 63008-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45742</v>
+        <v>44505.41567129629</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 14634-2025</t>
+          <t>A 14679-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45742</v>
+        <v>45742.56643518519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 23683-2025</t>
+          <t>A 7975-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45793.34197916667</v>
+        <v>45707.46203703704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4751,8 +4751,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4789,14 +4794,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36768-2025</t>
+          <t>A 18675-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45873.58413194444</v>
+        <v>45763.59862268518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4808,13 +4813,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4851,14 +4851,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 36769-2025</t>
+          <t>A 37672-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45873.58680555555</v>
+        <v>45541.57966435186</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>9.6</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4913,14 +4913,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20577-2023</t>
+          <t>A 29607-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45057</v>
+        <v>44754.50530092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4975,14 +4975,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 37333-2025</t>
+          <t>A 56478-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45876.66482638889</v>
+        <v>45624</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5032,14 +5032,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 37265-2025</t>
+          <t>A 8062-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45876.46099537037</v>
+        <v>45351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5051,8 +5051,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5089,14 +5094,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10797-2023</t>
+          <t>A 53406-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44989</v>
+        <v>45614.49704861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5108,8 +5113,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5146,14 +5156,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 63008-2021</t>
+          <t>A 59206-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44505.41567129629</v>
+        <v>45636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5165,13 +5175,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5208,14 +5213,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 16480-2025</t>
+          <t>A 10321-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45751.57702546296</v>
+        <v>44986.99549768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5228,7 +5233,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5265,14 +5270,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38874-2025</t>
+          <t>A 36437-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45887</v>
+        <v>45535</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5284,13 +5289,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>8.300000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5327,14 +5327,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38875-2025</t>
+          <t>A 38904-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45887</v>
+        <v>45163</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5389,14 +5389,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38872-2025</t>
+          <t>A 38921-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45887.5749074074</v>
+        <v>45163</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5451,14 +5451,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38782-2025</t>
+          <t>A 24707-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45887</v>
+        <v>45798.81579861111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5508,14 +5508,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44806-2023</t>
+          <t>A 5218-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45190.49174768518</v>
+        <v>45330.64273148148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5570,14 +5570,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 44457-2022</t>
+          <t>A 38874-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44839</v>
+        <v>45887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5589,8 +5589,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5627,14 +5632,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 9525-2025</t>
+          <t>A 38782-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45715.56616898148</v>
+        <v>45887</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5646,13 +5651,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5689,14 +5689,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9510-2025</t>
+          <t>A 25744-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45715.53829861111</v>
+        <v>45804.18709490741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5751,14 +5751,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29482-2023</t>
+          <t>A 26301-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45106.57938657407</v>
+        <v>45805.63861111111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5770,8 +5770,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5808,14 +5813,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15594-2025</t>
+          <t>A 21562-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45747.88466435186</v>
+        <v>45441.65392361111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5827,8 +5832,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5865,14 +5875,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58197-2024</t>
+          <t>A 26147-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45632.48092592593</v>
+        <v>45805.4308912037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5890,7 +5900,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5927,14 +5937,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 13236-2025</t>
+          <t>A 26170-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45735.47133101852</v>
+        <v>45805.46351851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5952,7 +5962,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>18.5</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5989,14 +5999,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45861-2023</t>
+          <t>A 16480-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45195</v>
+        <v>45751.57702546296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6008,13 +6018,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6051,14 +6056,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 6394-2024</t>
+          <t>A 26153-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45338.57230324074</v>
+        <v>45805.43332175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6076,7 +6081,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6113,14 +6118,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 11084-2023</t>
+          <t>A 25923-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44986</v>
+        <v>45804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6130,6 +6135,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -6170,14 +6180,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 56478-2024</t>
+          <t>A 26820-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45624</v>
+        <v>45810.63664351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6190,7 +6200,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6227,14 +6237,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 18675-2025</t>
+          <t>A 10672-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45763.59862268518</v>
+        <v>45369.35207175926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6246,8 +6256,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6284,14 +6299,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46147-2024</t>
+          <t>A 2565-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45581.45158564814</v>
+        <v>44579</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6303,13 +6318,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6346,14 +6356,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 38743-2022</t>
+          <t>A 26783-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44816.34265046296</v>
+        <v>45810.5834375</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6365,13 +6375,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6408,14 +6413,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 57086-2025</t>
+          <t>A 28367-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45979.42208333333</v>
+        <v>45819</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6425,6 +6430,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -6465,14 +6475,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 41766-2025</t>
+          <t>A 28368-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45902.54806712963</v>
+        <v>45819.21581018518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6490,7 +6500,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.2</v>
+        <v>8.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6527,14 +6537,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 41767-2025</t>
+          <t>A 28370-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45902.54892361111</v>
+        <v>45819.22013888889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6552,7 +6562,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6596,7 +6606,7 @@
         <v>45900.56857638889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6663,7 @@
         <v>45901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6703,14 +6713,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 26182-2024</t>
+          <t>A 28369-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45468</v>
+        <v>45819.21905092592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6728,7 +6738,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6765,14 +6775,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13405-2024</t>
+          <t>A 41767-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45387.44760416666</v>
+        <v>45902.54892361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6784,8 +6794,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6822,14 +6837,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26176-2024</t>
+          <t>A 41766-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45468.55660879629</v>
+        <v>45902.54806712963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6847,7 +6862,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6884,14 +6899,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 770-2026</t>
+          <t>A 60907-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46027</v>
+        <v>45261</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6903,8 +6918,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6941,14 +6961,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25177-2024</t>
+          <t>A 25175-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45462.546875</v>
+        <v>45462.545625</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6966,7 +6986,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7003,14 +7023,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43691-2025</t>
+          <t>A 43690-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45912.39130787037</v>
+        <v>45912.38975694445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7028,7 +7048,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7065,14 +7085,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43689-2025</t>
+          <t>A 26176-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45912.38899305555</v>
+        <v>45468.55660879629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7090,7 +7110,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7127,14 +7147,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43692-2025</t>
+          <t>A 43694-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45912.39221064815</v>
+        <v>45912.39295138889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7152,7 +7172,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.8</v>
+        <v>6.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7189,14 +7209,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 43694-2025</t>
+          <t>A 3177-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45912.39295138889</v>
+        <v>44582.61244212963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7208,13 +7228,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7251,14 +7266,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 43690-2025</t>
+          <t>A 43691-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45912.38975694445</v>
+        <v>45912.39130787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7276,7 +7291,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7313,14 +7328,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 43752-2025</t>
+          <t>A 23066-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45912</v>
+        <v>44719.45199074074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7333,7 +7348,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7370,14 +7385,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3177-2022</t>
+          <t>A 43752-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44582.61244212963</v>
+        <v>45912</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7390,7 +7405,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7427,14 +7442,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 50378-2024</t>
+          <t>A 43692-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45601.2984375</v>
+        <v>45912.39221064815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7452,7 +7467,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7489,14 +7504,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 60933-2024</t>
+          <t>A 43689-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45645.36615740741</v>
+        <v>45912.38899305555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7514,7 +7529,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7551,14 +7566,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44642-2025</t>
+          <t>A 50766-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45917.52719907407</v>
+        <v>45602.43986111111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7570,8 +7585,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7608,14 +7628,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 10321-2023</t>
+          <t>A 8184-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44986.99549768519</v>
+        <v>44609</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7628,7 +7648,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7665,14 +7685,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 60524-2025</t>
+          <t>A 46290-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45995.64032407408</v>
+        <v>45581.66018518519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7684,8 +7704,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>2.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7722,14 +7747,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 57234-2024</t>
+          <t>A 44642-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45629.54484953704</v>
+        <v>45917.52719907407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7741,13 +7766,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7784,14 +7804,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47941-2024</t>
+          <t>A 52506-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45589.34931712963</v>
+        <v>45609</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7809,7 +7829,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7846,14 +7866,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 61750-2021</t>
+          <t>A 52523-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44501.64055555555</v>
+        <v>45609</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7871,7 +7891,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7908,14 +7928,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 60708-2025</t>
+          <t>A 58197-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45996.6211574074</v>
+        <v>45632.48092592593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7927,8 +7947,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7965,14 +7990,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 25175-2024</t>
+          <t>A 31603-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45462.545625</v>
+        <v>45833.73876157407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7984,13 +8009,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8027,14 +8047,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 6387-2024</t>
+          <t>A 32300-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45338.56366898148</v>
+        <v>45835.71607638889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8046,13 +8066,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8089,14 +8104,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 60736-2025</t>
+          <t>A 54515-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45996.78688657407</v>
+        <v>45233.57033564815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8124,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8146,14 +8161,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 53406-2024</t>
+          <t>A 54994-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45614.49704861111</v>
+        <v>45621.27174768518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8171,7 +8186,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8208,14 +8223,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 59158-2022</t>
+          <t>A 32717-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44904</v>
+        <v>45839.37686342592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8227,13 +8242,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8270,14 +8280,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48625-2025</t>
+          <t>A 56464-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45936.50938657407</v>
+        <v>45624</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8290,7 +8300,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8327,14 +8337,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 38907-2023</t>
+          <t>A 13236-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45163</v>
+        <v>45735.47133101852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8352,7 +8362,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.9</v>
+        <v>18.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8389,14 +8399,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 38910-2023</t>
+          <t>A 25177-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45163</v>
+        <v>45462.546875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8414,7 +8424,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8451,14 +8461,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 29607-2022</t>
+          <t>A 48625-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44754.50530092593</v>
+        <v>45936.50938657407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8470,13 +8480,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8513,14 +8518,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 6240-2024</t>
+          <t>A 13412-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45337</v>
+        <v>45736.27773148148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8532,8 +8537,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8570,14 +8580,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 48118-2023</t>
+          <t>A 33404-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45205</v>
+        <v>45841</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8589,13 +8599,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8632,14 +8637,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 5277-2024</t>
+          <t>A 38233-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45330</v>
+        <v>45160</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8652,7 +8657,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8689,14 +8694,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 38917-2023</t>
+          <t>A 10674-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45163</v>
+        <v>45369.35297453704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8714,7 +8719,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8751,14 +8756,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4256-2026</t>
+          <t>A 60933-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46045.33489583333</v>
+        <v>45645.36615740741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8770,8 +8775,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8808,14 +8818,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 43768-2024</t>
+          <t>A 73693-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45569</v>
+        <v>44552.48893518518</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8828,7 +8838,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8865,14 +8875,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 51040-2025</t>
+          <t>A 58120-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45947.41420138889</v>
+        <v>45632.39280092593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8890,7 +8900,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8927,14 +8937,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 46222-2024</t>
+          <t>A 58125-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45581.56938657408</v>
+        <v>45632.39546296297</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8952,7 +8962,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>8.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8989,14 +8999,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 52099-2025</t>
+          <t>A 58164-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45952</v>
+        <v>45632.45396990741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9008,8 +9018,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9046,14 +9061,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 46220-2024</t>
+          <t>A 51040-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45581.56866898148</v>
+        <v>45947.41420138889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9071,7 +9086,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9108,14 +9123,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47935-2024</t>
+          <t>A 59863-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45589.34674768519</v>
+        <v>45639</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9127,13 +9142,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9170,14 +9180,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 46219-2024</t>
+          <t>A 60937-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45581.56686342593</v>
+        <v>45645.3683912037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9195,7 +9205,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9232,14 +9242,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 21952-2024</t>
+          <t>A 60940-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45443.48370370371</v>
+        <v>45645.37079861111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9257,7 +9267,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9294,14 +9304,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 52566-2023</t>
+          <t>A 14678-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45219</v>
+        <v>45742.56563657407</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9313,8 +9323,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9351,14 +9366,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 62972-2023</t>
+          <t>A 14681-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45272</v>
+        <v>45742.56857638889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9370,8 +9385,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9408,14 +9428,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54235-2025</t>
+          <t>A 9511-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45964.62569444445</v>
+        <v>45715.53921296296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9433,7 +9453,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.6</v>
+        <v>7.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9470,14 +9490,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 54232-2025</t>
+          <t>A 35706-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45964.62188657407</v>
+        <v>45860.37125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9489,13 +9509,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9532,14 +9547,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 54233-2025</t>
+          <t>A 52566-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45964.62453703704</v>
+        <v>45219</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9551,13 +9566,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9594,14 +9604,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 50377-2024</t>
+          <t>A 52099-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45601.29576388889</v>
+        <v>45952</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9613,13 +9623,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9656,14 +9661,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33658-2024</t>
+          <t>A 36768-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45520.46899305555</v>
+        <v>45873.58413194444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9675,8 +9680,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9713,14 +9723,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 52490-2024</t>
+          <t>A 36769-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45609.55875</v>
+        <v>45873.58680555555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9738,7 +9748,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9775,14 +9785,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58120-2024</t>
+          <t>A 23683-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45632.39280092593</v>
+        <v>45793.34197916667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9794,13 +9804,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9837,14 +9842,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58125-2024</t>
+          <t>A 57234-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45632.39546296297</v>
+        <v>45629.54484953704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9862,7 +9867,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>8.9</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9899,14 +9904,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52508-2024</t>
+          <t>A 48285-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45609</v>
+        <v>45205.55755787037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9924,7 +9929,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9961,14 +9966,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52528-2024</t>
+          <t>A 37333-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45609</v>
+        <v>45876.66482638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9980,13 +9985,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10023,14 +10023,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 38233-2023</t>
+          <t>A 37265-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45160</v>
+        <v>45876.46099537037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10080,14 +10080,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 26185-2024</t>
+          <t>A 12148-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45468.56267361111</v>
+        <v>45729</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10142,14 +10142,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 59206-2024</t>
+          <t>A 54235-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45636</v>
+        <v>45964.62569444445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10161,8 +10161,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10199,14 +10204,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 11085-2023</t>
+          <t>A 54232-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44986</v>
+        <v>45964.62188657407</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10218,8 +10223,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10256,14 +10266,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 14452-2025</t>
+          <t>A 54233-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45741.56143518518</v>
+        <v>45964.62453703704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10281,7 +10291,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10318,14 +10328,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 55341-2025</t>
+          <t>A 13413-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45971.34751157407</v>
+        <v>45736.27847222222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10343,7 +10353,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10380,14 +10390,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 50764-2024</t>
+          <t>A 15594-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45602.43876157407</v>
+        <v>45747.88466435186</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10399,13 +10409,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10442,14 +10447,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 50766-2024</t>
+          <t>A 8074-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45602.43986111111</v>
+        <v>45351.42106481481</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10467,7 +10472,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10504,14 +10509,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 54082-2024</t>
+          <t>A 55341-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45616.4956712963</v>
+        <v>45971.34751157407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10523,8 +10528,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10561,14 +10571,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 38904-2023</t>
+          <t>A 38875-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45163</v>
+        <v>45887</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10586,7 +10596,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10623,14 +10633,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 38921-2023</t>
+          <t>A 9525-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45163</v>
+        <v>45715.56616898148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10648,7 +10658,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10685,14 +10695,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 58479-2024</t>
+          <t>A 38872-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45635.38675925926</v>
+        <v>45887.5749074074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10710,7 +10720,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10747,14 +10757,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 58164-2024</t>
+          <t>A 21952-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45632.45396990741</v>
+        <v>45443.48370370371</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10772,7 +10782,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10809,14 +10819,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 50207-2024</t>
+          <t>A 57086-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45600.49782407407</v>
+        <v>45979.42208333333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10829,7 +10839,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10866,14 +10876,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 50208-2024</t>
+          <t>A 62972-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45600.49924768518</v>
+        <v>45272</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10886,7 +10896,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10923,14 +10933,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 48285-2023</t>
+          <t>A 52528-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45205.55755787037</v>
+        <v>45609</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10948,7 +10958,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10985,14 +10995,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 63905-2021</t>
+          <t>A 12143-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44509.65712962963</v>
+        <v>45729</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11010,7 +11020,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11047,14 +11057,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 14677-2025</t>
+          <t>A 14634-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45742.56465277778</v>
+        <v>45742</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11072,7 +11082,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11109,14 +11119,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 12143-2025</t>
+          <t>A 51653-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45729</v>
+        <v>45222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11134,7 +11144,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11171,14 +11181,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 12148-2025</t>
+          <t>A 770-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45729</v>
+        <v>46027</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11190,13 +11200,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11233,14 +11238,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 52523-2024</t>
+          <t>A 12678-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45609</v>
+        <v>45733.44137731481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11258,7 +11263,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11295,14 +11300,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 8184-2022</t>
+          <t>A 20577-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44609</v>
+        <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11314,8 +11319,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11352,14 +11362,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 60937-2024</t>
+          <t>A 45365-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45645.3683912037</v>
+        <v>45192.69640046296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11371,13 +11381,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11414,14 +11419,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 60940-2024</t>
+          <t>A 6387-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45645.37079861111</v>
+        <v>45338.56366898148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11439,7 +11444,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11476,14 +11481,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 56886-2024</t>
+          <t>A 46147-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45628.57332175926</v>
+        <v>45581.45158564814</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11501,7 +11506,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11538,14 +11543,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 44807-2023</t>
+          <t>A 54082-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45190.49269675926</v>
+        <v>45616.4956712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11557,13 +11562,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11600,14 +11600,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 51652-2023</t>
+          <t>A 6240-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45222</v>
+        <v>45337</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11619,13 +11619,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11662,14 +11657,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 21649-2024</t>
+          <t>A 60524-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45442.3671412037</v>
+        <v>45995.64032407408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11681,13 +11676,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11724,14 +11714,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 33293-2023</t>
+          <t>A 6394-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45116</v>
+        <v>45338.57230324074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11743,8 +11733,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>17.2</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11781,14 +11776,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 32154-2023</t>
+          <t>A 11085-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45119</v>
+        <v>44986</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11801,7 +11796,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11838,14 +11833,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 8062-2024</t>
+          <t>A 60736-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45351</v>
+        <v>45996.78688657407</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11857,13 +11852,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11900,14 +11890,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 8074-2024</t>
+          <t>A 60708-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45351.42106481481</v>
+        <v>45996.6211574074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11919,13 +11909,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11962,14 +11947,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 10672-2024</t>
+          <t>A 56886-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45369.35207175926</v>
+        <v>45628.57332175926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11987,7 +11972,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12024,14 +12009,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 60907-2023</t>
+          <t>A 38917-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45261</v>
+        <v>45163</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12049,7 +12034,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12086,14 +12071,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 9511-2025</t>
+          <t>A 38910-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45715.53921296296</v>
+        <v>45163</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12111,7 +12096,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12148,14 +12133,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 14679-2025</t>
+          <t>A 4256-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45742.56643518519</v>
+        <v>46045.33489583333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12167,13 +12152,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12210,14 +12190,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 32211-2022</t>
+          <t>A 38907-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44781.43078703704</v>
+        <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12229,8 +12209,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12267,14 +12252,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 36963-2021</t>
+          <t>A 48118-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44393</v>
+        <v>45205</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12292,7 +12277,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12329,14 +12314,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 13412-2025</t>
+          <t>A 44806-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45736.27773148148</v>
+        <v>45190.49174768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12354,7 +12339,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12391,14 +12376,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 13414-2025</t>
+          <t>A 5277-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45736.2803125</v>
+        <v>45330</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12410,13 +12395,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12453,14 +12433,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 46290-2024</t>
+          <t>A 50378-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45581.66018518519</v>
+        <v>45601.2984375</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12478,7 +12458,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12515,14 +12495,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 73693-2021</t>
+          <t>A 33293-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44552.48893518518</v>
+        <v>45116</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12535,7 +12515,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.6</v>
+        <v>17.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12572,14 +12552,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 13415-2025</t>
+          <t>A 47941-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45736.28094907408</v>
+        <v>45589.34931712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12597,7 +12577,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12634,14 +12614,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 36437-2024</t>
+          <t>A 44807-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45535</v>
+        <v>45190.49269675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,8 +12633,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12691,14 +12676,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 45365-2023</t>
+          <t>A 51652-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45192.69640046296</v>
+        <v>45222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,8 +12695,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12748,14 +12738,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 52131-2021</t>
+          <t>A 36963-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44463</v>
+        <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,8 +12757,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12805,14 +12800,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 37672-2024</t>
+          <t>A 46220-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45541.57966435186</v>
+        <v>45581.56866898148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12830,7 +12825,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12867,14 +12862,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 44735-2021</t>
+          <t>A 46222-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44438</v>
+        <v>45581.56938657408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12886,8 +12881,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12924,14 +12924,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 56464-2024</t>
+          <t>A 44457-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45624</v>
+        <v>44839</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12981,14 +12981,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 2565-2022</t>
+          <t>A 32211-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44579</v>
+        <v>44781.43078703704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13038,14 +13038,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 12678-2025</t>
+          <t>A 13405-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45733.44137731481</v>
+        <v>45387.44760416666</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,13 +13057,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>9.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13100,14 +13095,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 44841-2023</t>
+          <t>A 12729-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45190.55920138889</v>
+        <v>45384.49421296296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13125,7 +13120,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13162,14 +13157,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 10674-2024</t>
+          <t>A 26185-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45369.35297453704</v>
+        <v>45468.56267361111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13187,7 +13182,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.3</v>
+        <v>4.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13224,14 +13219,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 14680-2025</t>
+          <t>A 21649-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45742.56774305556</v>
+        <v>45442.3671412037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13249,7 +13244,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13286,14 +13281,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 18773-2025</t>
+          <t>A 58479-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45763</v>
+        <v>45635.38675925926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13305,8 +13300,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>13</v>
+        <v>1.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13343,14 +13343,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 51653-2023</t>
+          <t>A 63905-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45222</v>
+        <v>44509.65712962963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13405,14 +13405,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 12108-2024</t>
+          <t>A 38743-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45376</v>
+        <v>44816.34265046296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13424,8 +13424,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>7.7</v>
+        <v>1.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13462,14 +13467,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 54994-2024</t>
+          <t>A 13415-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45621.27174768518</v>
+        <v>45736.28094907408</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13487,7 +13492,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13524,14 +13529,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 22659-2024</t>
+          <t>A 47935-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45447</v>
+        <v>45589.34674768519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13543,8 +13548,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13581,14 +13591,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 52506-2024</t>
+          <t>A 52508-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
         <v>45609</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13606,7 +13616,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13643,14 +13653,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 21562-2024</t>
+          <t>A 46219-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45441.65392361111</v>
+        <v>45581.56686342593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13668,7 +13678,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13705,14 +13715,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 8059-2024</t>
+          <t>A 50377-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45351</v>
+        <v>45601.29576388889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13730,7 +13740,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13767,14 +13777,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 54515-2023</t>
+          <t>A 8059-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45233.57033564815</v>
+        <v>45351</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13786,8 +13796,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13824,14 +13839,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 13413-2025</t>
+          <t>A 44735-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45736.27847222222</v>
+        <v>44438</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13843,13 +13858,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13886,14 +13896,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 38738-2022</t>
+          <t>A 29482-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44816.34217592593</v>
+        <v>45106.57938657407</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13905,13 +13915,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13948,14 +13953,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 12729-2024</t>
+          <t>A 59158-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45384.49421296296</v>
+        <v>44904</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13973,7 +13978,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14010,14 +14015,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 10320-2023</t>
+          <t>A 18773-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44986</v>
+        <v>45763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14030,7 +14035,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14067,14 +14072,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 7472-2025</t>
+          <t>A 10320-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45705.46409722222</v>
+        <v>44986</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14084,11 +14089,6 @@
       <c r="E211" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G211" t="n">
@@ -14129,14 +14129,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 58477-2024</t>
+          <t>A 10797-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45635.38418981482</v>
+        <v>44989</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14148,13 +14148,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14191,14 +14186,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 7975-2025</t>
+          <t>A 11084-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45707.46203703704</v>
+        <v>44986</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14210,13 +14205,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14253,14 +14243,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 18831-2025</t>
+          <t>A 50764-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45764.39109953704</v>
+        <v>45602.43876157407</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14278,7 +14268,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14315,14 +14305,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 58629-2024</t>
+          <t>A 33658-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45635.57008101852</v>
+        <v>45520.46899305555</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14334,13 +14324,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14377,14 +14362,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 27438-2024</t>
+          <t>A 14452-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45474.40971064815</v>
+        <v>45741.56143518518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14396,8 +14381,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14434,14 +14424,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 50102-2023</t>
+          <t>A 45861-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45215</v>
+        <v>45195</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14459,7 +14449,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14496,14 +14486,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 51996-2023</t>
+          <t>A 44841-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45223</v>
+        <v>45190.55920138889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14521,7 +14511,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14558,14 +14548,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 62982-2023</t>
+          <t>A 13414-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45272</v>
+        <v>45736.2803125</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14577,8 +14567,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14615,14 +14610,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 46288-2024</t>
+          <t>A 43768-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45581.65881944444</v>
+        <v>45569</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14634,13 +14629,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14677,14 +14667,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 21935-2024</t>
+          <t>A 38738-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45443.47237268519</v>
+        <v>44816.34217592593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14702,7 +14692,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14739,14 +14729,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 23460-2024</t>
+          <t>A 14677-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45453.65363425926</v>
+        <v>45742.56465277778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14758,8 +14748,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14796,14 +14791,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 5218-2024</t>
+          <t>A 9510-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45330.64273148148</v>
+        <v>45715.53829861111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14821,7 +14816,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.3</v>
+        <v>5.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14858,14 +14853,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 24707-2025</t>
+          <t>A 14680-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45798.81579861111</v>
+        <v>45742.56774305556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14877,8 +14872,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14915,14 +14915,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 25744-2025</t>
+          <t>A 52131-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45804.18709490741</v>
+        <v>44463</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14934,13 +14934,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14977,14 +14972,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 25923-2025</t>
+          <t>A 52490-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45804</v>
+        <v>45609.55875</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14998,11 +14993,11 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15039,14 +15034,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 26301-2025</t>
+          <t>A 58477-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45805.63861111111</v>
+        <v>45635.38418981482</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15064,7 +15059,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15101,14 +15096,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 26170-2025</t>
+          <t>A 26182-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45805.46351851852</v>
+        <v>45468</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15126,7 +15121,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15163,14 +15158,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 26153-2025</t>
+          <t>A 61750-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45805.43332175926</v>
+        <v>44501.64055555555</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15188,7 +15183,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15225,14 +15220,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 26147-2025</t>
+          <t>A 7472-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45805.4308912037</v>
+        <v>45705.46409722222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15250,7 +15245,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15287,14 +15282,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 26783-2025</t>
+          <t>A 14633-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45810.5834375</v>
+        <v>45742</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15306,8 +15301,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15344,14 +15344,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 26820-2025</t>
+          <t>A 50207-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45810.63664351852</v>
+        <v>45600.49782407407</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15401,14 +15401,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 28369-2025</t>
+          <t>A 50208-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45819.21905092592</v>
+        <v>45600.49924768518</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15420,13 +15420,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15463,14 +15458,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 28367-2025</t>
+          <t>A 22659-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45819</v>
+        <v>45447</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15482,13 +15477,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15525,14 +15515,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 28368-2025</t>
+          <t>A 12108-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45819.21581018518</v>
+        <v>45376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15544,13 +15534,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15587,14 +15572,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 28370-2025</t>
+          <t>A 18831-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45819.22013888889</v>
+        <v>45764.39109953704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15612,7 +15597,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>8.199999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15649,14 +15634,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 23066-2022</t>
+          <t>A 32154-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44719.45199074074</v>
+        <v>45119</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15669,7 +15654,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15706,14 +15691,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 31603-2025</t>
+          <t>A 27438-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45833.73876157407</v>
+        <v>45474.40971064815</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15726,7 +15711,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15763,14 +15748,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 32300-2025</t>
+          <t>A 46288-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45835.71607638889</v>
+        <v>45581.65881944444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15782,8 +15767,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15820,14 +15810,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 32717-2025</t>
+          <t>A 51996-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45839.37686342592</v>
+        <v>45223</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15839,8 +15829,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15877,14 +15872,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 33404-2025</t>
+          <t>A 58629-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45841</v>
+        <v>45635.57008101852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15896,8 +15891,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15934,14 +15934,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 14678-2025</t>
+          <t>A 50102-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45742.56563657407</v>
+        <v>45215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15996,14 +15996,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 14681-2025</t>
+          <t>A 62982-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45742.56857638889</v>
+        <v>45272</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16015,13 +16015,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16058,14 +16053,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 59863-2024</t>
+          <t>A 21935-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45639</v>
+        <v>45443.47237268519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16077,8 +16072,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16115,14 +16115,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 35706-2025</t>
+          <t>A 23460-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45860.37125</v>
+        <v>45453.65363425926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45384</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>45175</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>45932</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45163</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>45205</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45089.56824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45931</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45163</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44550</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>45866</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45931</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45351</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>44853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>45116</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>45938</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>45163</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45931</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>45558.59421296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>45384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45589.34315972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45614</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44578</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44805</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44396.35755787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44607.48398148148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44651</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44692</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44470</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44497.42795138889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44375</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44466.38188657408</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44643</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44470</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44529.52201388889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44525.76128472222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44509.65762731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44505.41567129629</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45742.56643518519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45707.46203703704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>45763.59862268518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>45541.57966435186</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44754.50530092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45624</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45614.49704861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>45636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44986.99549768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>45535</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45163</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>45163</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>45798.81579861111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>45330.64273148148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>45887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>45887</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>45804.18709490741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>45805.63861111111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>45441.65392361111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>45805.4308912037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45805.46351851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45751.57702546296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45805.43332175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>45804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45810.63664351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>45369.35207175926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44579</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>45810.5834375</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>45819</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45819.21581018518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>45819.22013888889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>45900.56857638889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>45901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>45819.21905092592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>45902.54892361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45902.54806712963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45261</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>45462.545625</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45912.38975694445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>45468.55660879629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>45912.39295138889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44582.61244212963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45912.39130787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44719.45199074074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45912</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45912.39221064815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45912.38899305555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>45602.43986111111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>44609</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>45581.66018518519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>45917.52719907407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>45609</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>45609</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>45632.48092592593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45833.73876157407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45835.71607638889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45233.57033564815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45621.27174768518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>45839.37686342592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>45624</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>45735.47133101852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>45462.546875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45936.50938657407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>45736.27773148148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45841</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45160</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45369.35297453704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45645.36615740741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44552.48893518518</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>45632.39280092593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>45632.39546296297</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>45632.45396990741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45947.41420138889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45639</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45645.3683912037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45645.37079861111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>45742.56563657407</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>45742.56857638889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>45715.53921296296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45860.37125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45219</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>45952</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45873.58413194444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>45873.58680555555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>45793.34197916667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>45629.54484953704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>45205.55755787037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45876.66482638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45876.46099537037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45729</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>45964.62569444445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>45964.62188657407</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>45964.62453703704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>45736.27847222222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>45747.88466435186</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>45351.42106481481</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>45971.34751157407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45887</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>45715.56616898148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>45887.5749074074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>45443.48370370371</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45979.42208333333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45272</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45609</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>45729</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45742</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>46027</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>45733.44137731481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>45192.69640046296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>45338.56366898148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>45581.45158564814</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45616.4956712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45337</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45995.64032407408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45338.57230324074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44986</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>45996.78688657407</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>45996.6211574074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>45628.57332175926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>45163</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>45163</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>46045.33489583333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>45205</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>45190.49174768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>45330</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>45601.2984375</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>45116</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>45589.34931712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>45190.49269675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>45581.56866898148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>45581.56938657408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44839</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44781.43078703704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>45387.44760416666</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>45384.49421296296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>45468.56267361111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>45442.3671412037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>45635.38675925926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44509.65712962963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44816.34265046296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45736.28094907408</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>45589.34674768519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>45609</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>45581.56686342593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45601.29576388889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>45351</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44438</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45106.57938657407</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44904</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>45763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>44986</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>44989</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>44986</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>45602.43876157407</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>45520.46899305555</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>45741.56143518518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45195</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45190.55920138889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45736.2803125</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>45569</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44816.34217592593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45742.56465277778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>45715.53829861111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>45742.56774305556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44463</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45609.55875</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45635.38418981482</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45468</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44501.64055555555</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45705.46409722222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>45742</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>45600.49782407407</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45600.49924768518</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>45447</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>45376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>45764.39109953704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>45119</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>45474.40971064815</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>45581.65881944444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45223</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>45635.57008101852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>45215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>45272</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>45443.47237268519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>45453.65363425926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45384</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>45175</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>45932</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45163</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>45205</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45089.56824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45931</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45163</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44550</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>45866</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45931</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45351</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>44853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>45116</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>45938</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>45163</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45931</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>45558.59421296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>45384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>45589.34315972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45614</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44578</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44805</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44396.35755787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44607.48398148148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44651</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44692</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44470</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44497.42795138889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44375</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44466.38188657408</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44643</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44470</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44529.52201388889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44525.76128472222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44509.65762731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44505.41567129629</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45742.56643518519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45707.46203703704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>45763.59862268518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>45541.57966435186</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44754.50530092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45624</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45614.49704861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>45636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44986.99549768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>45535</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45163</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>45163</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>45798.81579861111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>45330.64273148148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>45887</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
         <v>45887</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>45804.18709490741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>45805.63861111111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>45441.65392361111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>45805.4308912037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45805.46351851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>45751.57702546296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>45805.43332175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         <v>45804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>45810.63664351852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>45369.35207175926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44579</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>45810.5834375</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>45819</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>45819.21581018518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>45819.22013888889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>45900.56857638889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>45901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>45819.21905092592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>45902.54892361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45902.54806712963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>45261</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>45462.545625</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>45912.38975694445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>45468.55660879629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>45912.39295138889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>44582.61244212963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>45912.39130787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>44719.45199074074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>45912</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>45912.39221064815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>45912.38899305555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>45602.43986111111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>44609</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>45581.66018518519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>45917.52719907407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>45609</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>45609</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>45632.48092592593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>45833.73876157407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45835.71607638889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45233.57033564815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45621.27174768518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>45839.37686342592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>45624</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>45735.47133101852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>45462.546875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45936.50938657407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>45736.27773148148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45841</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45160</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45369.35297453704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45645.36615740741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44552.48893518518</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>45632.39280092593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>45632.39546296297</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>45632.45396990741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45947.41420138889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45639</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45645.3683912037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45645.37079861111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>45742.56563657407</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>45742.56857638889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>45715.53921296296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45860.37125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45219</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>45952</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>45873.58413194444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>45873.58680555555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>45793.34197916667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>45629.54484953704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>45205.55755787037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45876.66482638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45876.46099537037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45729</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>45964.62569444445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>45964.62188657407</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>45964.62453703704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>45736.27847222222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>45747.88466435186</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>45351.42106481481</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>45971.34751157407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45887</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>45715.56616898148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>45887.5749074074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>45443.48370370371</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45979.42208333333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10883,7 +10883,7 @@
         <v>45272</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         <v>45609</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>45729</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45742</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>45222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>46027</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>45733.44137731481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>45057</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>45192.69640046296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>45338.56366898148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>45581.45158564814</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45616.4956712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>45337</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         <v>45995.64032407408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45338.57230324074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44986</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>45996.78688657407</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>45996.6211574074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>45628.57332175926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>45163</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>45163</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>46045.33489583333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>45205</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>45190.49174768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>45330</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>45601.2984375</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>45116</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>45589.34931712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>45190.49269675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>45581.56866898148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>45581.56938657408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44839</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44781.43078703704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>45387.44760416666</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>45384.49421296296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>45468.56267361111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>45442.3671412037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>45635.38675925926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>44509.65712962963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44816.34265046296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45736.28094907408</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>45589.34674768519</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>45609</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>45581.56686342593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>45601.29576388889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         <v>45351</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44438</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45106.57938657407</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44904</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>45763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>44986</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>44989</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>44986</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>45602.43876157407</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>45520.46899305555</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>45741.56143518518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45195</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45190.55920138889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45736.2803125</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>45569</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44816.34217592593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>45742.56465277778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>45715.53829861111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>45742.56774305556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>44463</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45609.55875</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45635.38418981482</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45468</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44501.64055555555</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>45705.46409722222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>45742</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>45600.49782407407</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>45600.49924768518</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>45447</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>45376</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>45764.39109953704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>45119</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>45474.40971064815</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>45581.65881944444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45223</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>45635.57008101852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>45215</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>45272</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>45443.47237268519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>45453.65363425926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45384</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>45175</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>45932</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45163</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>45205</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45089.56824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,14 +1446,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 47782-2025</t>
+          <t>A 73321-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45931</v>
+        <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,19 +1466,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>13.4</v>
+        <v>17</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1493,235 +1493,235 @@
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Grynig filtlav
+Gulsparv</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 73321-2021 artfynd.xlsx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 73321-2021 karta.png", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/knärot/A 73321-2021 karta knärot.png", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 73321-2021 FSC-klagomål.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 73321-2021 FSC-klagomål mail.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 73321-2021 tillsynsbegäran.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 73321-2021 tillsynsbegäran mail.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 73321-2021 prioriterade fågelarter.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 47782-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47782-2025 artfynd.xlsx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47782-2025 karta.png", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47782-2025 FSC-klagomål.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47782-2025 FSC-klagomål mail.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47782-2025 tillsynsbegäran.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47782-2025 tillsynsbegäran mail.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47782-2025 prioriterade fågelarter.docx", "A 47782-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 38915-2023</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45163</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>4.5</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tretåig hackspett
 Mattlummer</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38915-2023 artfynd.xlsx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38915-2023 karta.png", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38915-2023 FSC-klagomål.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38915-2023 FSC-klagomål mail.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38915-2023 tillsynsbegäran.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38915-2023 tillsynsbegäran mail.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38915-2023 prioriterade fågelarter.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 73321-2021</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44550</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>17</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grynig filtlav
-Gulsparv</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 73321-2021 artfynd.xlsx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 73321-2021 karta.png", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/knärot/A 73321-2021 karta knärot.png", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 73321-2021 FSC-klagomål.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 73321-2021 FSC-klagomål mail.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 73321-2021 tillsynsbegäran.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 73321-2021 tillsynsbegäran mail.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 73321-2021 prioriterade fågelarter.docx", "A 73321-2021")</f>
         <v/>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
         <v>45866</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45931</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45351</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>44853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,14 +2265,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33297-2023</t>
+          <t>A 47915-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45116</v>
+        <v>45589.34315972222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,17 +2284,22 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2309,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2319,45 +2324,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 27093-2023</t>
+          <t>A 49306-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45096</v>
+        <v>45938</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2369,19 +2374,14 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2409,49 +2409,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 49306-2025</t>
+          <t>A 27093-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45938</v>
+        <v>45096</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,14 +2459,19 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2498,45 +2499,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 38914-2023</t>
+          <t>A 47787-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45163</v>
+        <v>45931</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,13 +2553,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2592,45 +2592,45 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 47787-2025</t>
+          <t>A 33297-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45931</v>
+        <v>45116</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,10 +2643,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2677,35 +2677,31 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
     </row>
@@ -2719,7 +2715,7 @@
         <v>45558.59421296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2813,7 +2809,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2907,7 +2903,7 @@
         <v>45384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2994,14 +2990,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 47915-2024</t>
+          <t>A 38914-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45589.34315972222</v>
+        <v>45163</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3019,7 +3015,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -3028,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3043,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3053,45 +3049,49 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 53838-2024</t>
+          <t>A 2357-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45614</v>
+        <v>44578</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3142,45 +3142,45 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 2357-2022</t>
+          <t>A 53838-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44578</v>
+        <v>45614</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3231,31 +3231,31 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
         <v/>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
         <v>44805</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44396.35755787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44607.48398148148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44651</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44692</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44470</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44497.42795138889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44375</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44466.38188657408</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44643</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44470</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44529.52201388889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44525.76128472222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44509.65762731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44505.41567129629</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4670,14 +4670,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 14679-2025</t>
+          <t>A 9510-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45742.56643518519</v>
+        <v>45715.53829861111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 7975-2025</t>
+          <t>A 44806-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45707.46203703704</v>
+        <v>45190.49174768518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18675-2025</t>
+          <t>A 6394-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45763.59862268518</v>
+        <v>45338.57230324074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4813,8 +4813,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4851,14 +4856,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 37672-2024</t>
+          <t>A 45861-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45541.57966435186</v>
+        <v>45195</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4876,7 +4881,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4913,14 +4918,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 29607-2022</t>
+          <t>A 18675-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44754.50530092593</v>
+        <v>45763.59862268518</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4932,13 +4937,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4975,14 +4975,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56478-2024</t>
+          <t>A 38743-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45624</v>
+        <v>44816.34265046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4994,8 +4994,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5032,14 +5037,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8062-2024</t>
+          <t>A 13405-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45351</v>
+        <v>45387.44760416666</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5051,13 +5056,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 53406-2024</t>
+          <t>A 26182-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45614.49704861111</v>
+        <v>45468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5156,14 +5156,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 59206-2024</t>
+          <t>A 26176-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45636</v>
+        <v>45468.55660879629</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5175,8 +5175,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5213,14 +5218,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 10321-2023</t>
+          <t>A 25177-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44986.99549768519</v>
+        <v>45462.546875</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5232,8 +5237,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5270,14 +5280,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 36437-2024</t>
+          <t>A 3177-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45535</v>
+        <v>44582.61244212963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5290,7 +5300,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5327,14 +5337,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38904-2023</t>
+          <t>A 50378-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45163</v>
+        <v>45601.2984375</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5352,7 +5362,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5389,14 +5399,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38921-2023</t>
+          <t>A 10321-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45163</v>
+        <v>44986.99549768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5408,13 +5418,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5451,14 +5456,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 24707-2025</t>
+          <t>A 57234-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45798.81579861111</v>
+        <v>45629.54484953704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5470,8 +5475,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5508,14 +5518,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 5218-2024</t>
+          <t>A 6387-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45330.64273148148</v>
+        <v>45338.56366898148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5533,7 +5543,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5570,14 +5580,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38874-2025</t>
+          <t>A 59158-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45887</v>
+        <v>44904</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5595,7 +5605,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.300000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5632,14 +5642,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 38782-2025</t>
+          <t>A 53406-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45887</v>
+        <v>45614.49704861111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5651,8 +5661,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5689,14 +5704,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25744-2025</t>
+          <t>A 5277-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45804.18709490741</v>
+        <v>45330</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5708,13 +5723,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5751,14 +5761,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26301-2025</t>
+          <t>A 28369-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45805.63861111111</v>
+        <v>45819.21905092592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5776,7 +5786,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5813,14 +5823,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 21562-2024</t>
+          <t>A 25175-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45441.65392361111</v>
+        <v>45462.545625</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5838,7 +5848,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5875,14 +5885,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 26147-2025</t>
+          <t>A 43768-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45805.4308912037</v>
+        <v>45569</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5894,13 +5904,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5937,14 +5942,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 26170-2025</t>
+          <t>A 28367-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45805.46351851852</v>
+        <v>45819</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5962,7 +5967,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5999,14 +6004,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 16480-2025</t>
+          <t>A 28368-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45751.57702546296</v>
+        <v>45819.21581018518</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6018,8 +6023,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>5.2</v>
+        <v>8.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6056,14 +6066,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 26153-2025</t>
+          <t>A 28370-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45805.43332175926</v>
+        <v>45819.22013888889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6081,7 +6091,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6118,14 +6128,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 25923-2025</t>
+          <t>A 23066-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45804</v>
+        <v>44719.45199074074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6137,13 +6147,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6180,14 +6185,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26820-2025</t>
+          <t>A 38874-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45810.63664351852</v>
+        <v>45887</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6199,8 +6204,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6237,14 +6247,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10672-2024</t>
+          <t>A 38875-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45369.35207175926</v>
+        <v>45887</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6262,7 +6272,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6299,14 +6309,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2565-2022</t>
+          <t>A 38872-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44579</v>
+        <v>45887.5749074074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6318,8 +6328,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6356,14 +6371,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 26783-2025</t>
+          <t>A 38782-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45810.5834375</v>
+        <v>45887</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6376,7 +6391,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6413,14 +6428,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 28367-2025</t>
+          <t>A 31603-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45819</v>
+        <v>45833.73876157407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6432,13 +6447,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>6.1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6475,14 +6485,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28368-2025</t>
+          <t>A 46220-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45819.21581018518</v>
+        <v>45581.56866898148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6500,7 +6510,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8.1</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6537,14 +6547,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28370-2025</t>
+          <t>A 47935-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45819.22013888889</v>
+        <v>45589.34674768519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6562,7 +6572,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>8.199999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6599,14 +6609,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41369-2025</t>
+          <t>A 46219-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45900.56857638889</v>
+        <v>45581.56686342593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6618,8 +6628,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6656,14 +6671,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41642-2025</t>
+          <t>A 21952-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45901</v>
+        <v>45443.48370370371</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6675,8 +6690,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6713,14 +6733,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28369-2025</t>
+          <t>A 9525-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45819.21905092592</v>
+        <v>45715.56616898148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6738,7 +6758,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6775,14 +6795,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41767-2025</t>
+          <t>A 52566-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45902.54892361111</v>
+        <v>45219</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6794,13 +6814,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6837,14 +6852,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41766-2025</t>
+          <t>A 32300-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45902.54806712963</v>
+        <v>45835.71607638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6856,13 +6871,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6899,14 +6909,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60907-2023</t>
+          <t>A 62972-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45261</v>
+        <v>45272</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6918,13 +6928,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6961,14 +6966,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25175-2024</t>
+          <t>A 32717-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45462.545625</v>
+        <v>45839.37686342592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6980,13 +6985,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7023,14 +7023,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43690-2025</t>
+          <t>A 50377-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45912.38975694445</v>
+        <v>45601.29576388889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7085,14 +7085,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 26176-2024</t>
+          <t>A 33404-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45468.55660879629</v>
+        <v>45841</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7104,13 +7104,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7147,14 +7142,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43694-2025</t>
+          <t>A 52490-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45912.39295138889</v>
+        <v>45609.55875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7172,7 +7167,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7209,14 +7204,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3177-2022</t>
+          <t>A 58120-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44582.61244212963</v>
+        <v>45632.39280092593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7228,8 +7223,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7266,14 +7266,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 43691-2025</t>
+          <t>A 58125-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45912.39130787037</v>
+        <v>45632.39546296297</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>8.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7328,14 +7328,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 23066-2022</t>
+          <t>A 52508-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44719.45199074074</v>
+        <v>45609</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7347,8 +7347,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7385,14 +7390,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43752-2025</t>
+          <t>A 52528-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45912</v>
+        <v>45609</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7404,8 +7409,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7442,14 +7452,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43692-2025</t>
+          <t>A 14678-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45912.39221064815</v>
+        <v>45742.56563657407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7467,7 +7477,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7504,14 +7514,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43689-2025</t>
+          <t>A 14681-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45912.38899305555</v>
+        <v>45742.56857638889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7529,7 +7539,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7566,14 +7576,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50766-2024</t>
+          <t>A 41766-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45602.43986111111</v>
+        <v>45902.54806712963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7591,7 +7601,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7628,14 +7638,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8184-2022</t>
+          <t>A 41767-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44609</v>
+        <v>45902.54892361111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7647,8 +7657,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7685,14 +7700,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46290-2024</t>
+          <t>A 59863-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45581.66018518519</v>
+        <v>45639</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7704,13 +7719,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>8.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7747,14 +7757,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44642-2025</t>
+          <t>A 41369-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45917.52719907407</v>
+        <v>45900.56857638889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7767,7 +7777,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7804,14 +7814,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52506-2024</t>
+          <t>A 41642-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45609</v>
+        <v>45901</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7823,13 +7833,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7866,14 +7871,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52523-2024</t>
+          <t>A 59206-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45609</v>
+        <v>45636</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7885,13 +7890,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7928,14 +7928,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 58197-2024</t>
+          <t>A 11085-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45632.48092592593</v>
+        <v>44986</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7947,13 +7947,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7990,14 +7985,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 31603-2025</t>
+          <t>A 35706-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45833.73876157407</v>
+        <v>45860.37125</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8010,7 +8005,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8047,14 +8042,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 32300-2025</t>
+          <t>A 50764-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45835.71607638889</v>
+        <v>45602.43876157407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8066,8 +8061,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8104,14 +8104,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 54515-2023</t>
+          <t>A 43691-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45233.57033564815</v>
+        <v>45912.39130787037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8123,8 +8123,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8161,14 +8166,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 54994-2024</t>
+          <t>A 43689-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45621.27174768518</v>
+        <v>45912.38899305555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8186,7 +8191,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8223,14 +8228,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 32717-2025</t>
+          <t>A 23683-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45839.37686342592</v>
+        <v>45793.34197916667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8243,7 +8248,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8280,14 +8285,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 56464-2024</t>
+          <t>A 43692-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45624</v>
+        <v>45912.39221064815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8299,8 +8304,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8337,14 +8347,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 13236-2025</t>
+          <t>A 43694-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45735.47133101852</v>
+        <v>45912.39295138889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8362,7 +8372,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>18.5</v>
+        <v>6.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8399,14 +8409,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 25177-2024</t>
+          <t>A 43690-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45462.546875</v>
+        <v>45912.38975694445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8424,7 +8434,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>6.5</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8461,14 +8471,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 48625-2025</t>
+          <t>A 43752-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45936.50938657407</v>
+        <v>45912</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8481,7 +8491,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8518,14 +8528,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 13412-2025</t>
+          <t>A 54082-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45736.27773148148</v>
+        <v>45616.4956712963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8537,13 +8547,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8580,14 +8585,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 33404-2025</t>
+          <t>A 36768-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45841</v>
+        <v>45873.58413194444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8599,8 +8604,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8637,14 +8647,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 38233-2023</t>
+          <t>A 36769-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45160</v>
+        <v>45873.58680555555</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8656,8 +8666,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>9.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8694,14 +8709,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 10674-2024</t>
+          <t>A 38904-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45369.35297453704</v>
+        <v>45163</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8719,7 +8734,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8756,14 +8771,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 60933-2024</t>
+          <t>A 38921-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45645.36615740741</v>
+        <v>45163</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8781,7 +8796,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8818,14 +8833,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 73693-2021</t>
+          <t>A 37333-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44552.48893518518</v>
+        <v>45876.66482638889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8838,7 +8853,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8875,14 +8890,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 58120-2024</t>
+          <t>A 37265-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45632.39280092593</v>
+        <v>45876.46099537037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8894,13 +8909,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8937,14 +8947,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 58125-2024</t>
+          <t>A 58479-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45632.39546296297</v>
+        <v>45635.38675925926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8962,7 +8972,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>8.9</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8999,14 +9009,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 58164-2024</t>
+          <t>A 44642-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45632.45396990741</v>
+        <v>45917.52719907407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9018,13 +9028,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9061,14 +9066,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 51040-2025</t>
+          <t>A 48285-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45947.41420138889</v>
+        <v>45205.55755787037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9123,14 +9128,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 59863-2024</t>
+          <t>A 15594-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45639</v>
+        <v>45747.88466435186</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9143,7 +9148,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9180,14 +9185,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 60937-2024</t>
+          <t>A 63905-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45645.3683912037</v>
+        <v>44509.65712962963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9205,7 +9210,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9242,14 +9247,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 60940-2024</t>
+          <t>A 14677-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45645.37079861111</v>
+        <v>45742.56465277778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9267,7 +9272,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9304,14 +9309,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 14678-2025</t>
+          <t>A 12148-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45742.56563657407</v>
+        <v>45729</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9329,7 +9334,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9366,14 +9371,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 14681-2025</t>
+          <t>A 14633-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45742.56857638889</v>
+        <v>45742</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9391,7 +9396,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9428,14 +9433,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 9511-2025</t>
+          <t>A 14634-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45715.53921296296</v>
+        <v>45742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9453,7 +9458,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>7.1</v>
+        <v>4.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9490,14 +9495,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 35706-2025</t>
+          <t>A 20577-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45860.37125</v>
+        <v>45057</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9509,8 +9514,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9547,14 +9557,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52566-2023</t>
+          <t>A 10797-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45219</v>
+        <v>44989</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9567,7 +9577,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9604,14 +9614,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 52099-2025</t>
+          <t>A 16480-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45952</v>
+        <v>45751.57702546296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9624,7 +9634,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9661,14 +9671,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 36768-2025</t>
+          <t>A 44457-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45873.58413194444</v>
+        <v>44839</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9680,13 +9690,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.5</v>
+        <v>6.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9723,14 +9728,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 36769-2025</t>
+          <t>A 48625-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45873.58680555555</v>
+        <v>45936.50938657407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9742,13 +9747,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>9.6</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9785,14 +9785,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 23683-2025</t>
+          <t>A 29482-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45793.34197916667</v>
+        <v>45106.57938657407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9842,14 +9842,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 57234-2024</t>
+          <t>A 58197-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45629.54484953704</v>
+        <v>45632.48092592593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9904,14 +9904,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 48285-2023</t>
+          <t>A 13236-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45205.55755787037</v>
+        <v>45735.47133101852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>18.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9966,14 +9966,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 37333-2025</t>
+          <t>A 51040-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45876.66482638889</v>
+        <v>45947.41420138889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9985,8 +9985,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10023,14 +10028,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 37265-2025</t>
+          <t>A 52099-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45876.46099537037</v>
+        <v>45952</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10043,7 +10048,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10080,14 +10085,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 12148-2025</t>
+          <t>A 11084-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45729</v>
+        <v>44986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10099,13 +10104,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10142,14 +10142,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 54235-2025</t>
+          <t>A 56478-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45964.62569444445</v>
+        <v>45624</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10161,13 +10161,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10204,14 +10199,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 54232-2025</t>
+          <t>A 46147-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45964.62188657407</v>
+        <v>45581.45158564814</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10229,7 +10224,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10266,14 +10261,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 54233-2025</t>
+          <t>A 60933-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45964.62453703704</v>
+        <v>45645.36615740741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10291,7 +10286,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10328,14 +10323,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 13413-2025</t>
+          <t>A 54235-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45736.27847222222</v>
+        <v>45964.62569444445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10353,7 +10348,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10390,14 +10385,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 15594-2025</t>
+          <t>A 54232-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45747.88466435186</v>
+        <v>45964.62188657407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10409,8 +10404,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10447,14 +10447,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 8074-2024</t>
+          <t>A 54233-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45351.42106481481</v>
+        <v>45964.62453703704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10509,14 +10509,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 55341-2025</t>
+          <t>A 47941-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45971.34751157407</v>
+        <v>45589.34931712963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10571,14 +10571,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 38875-2025</t>
+          <t>A 61750-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45887</v>
+        <v>44501.64055555555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10633,14 +10633,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 9525-2025</t>
+          <t>A 29607-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45715.56616898148</v>
+        <v>44754.50530092593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10695,14 +10695,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 38872-2025</t>
+          <t>A 6240-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45887.5749074074</v>
+        <v>45337</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10714,13 +10714,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10757,14 +10752,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 21952-2024</t>
+          <t>A 46222-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45443.48370370371</v>
+        <v>45581.56938657408</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10782,7 +10777,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10819,14 +10814,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 57086-2025</t>
+          <t>A 55341-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45979.42208333333</v>
+        <v>45971.34751157407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10838,8 +10833,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>6.1</v>
+        <v>3.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10876,14 +10876,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 62972-2023</t>
+          <t>A 33658-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45272</v>
+        <v>45520.46899305555</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10933,14 +10933,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 52528-2024</t>
+          <t>A 38233-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45609</v>
+        <v>45160</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10952,13 +10952,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10995,14 +10990,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 12143-2025</t>
+          <t>A 26185-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45729</v>
+        <v>45468.56267361111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11020,7 +11015,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11057,14 +11052,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 14634-2025</t>
+          <t>A 14452-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45742</v>
+        <v>45741.56143518518</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11082,7 +11077,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11119,14 +11114,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 51653-2023</t>
+          <t>A 50766-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45222</v>
+        <v>45602.43986111111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11144,7 +11139,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11181,14 +11176,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 770-2026</t>
+          <t>A 57086-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46027</v>
+        <v>45979.42208333333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11201,7 +11196,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11238,14 +11233,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 12678-2025</t>
+          <t>A 58164-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45733.44137731481</v>
+        <v>45632.45396990741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11263,7 +11258,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>9.699999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11300,14 +11295,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 20577-2023</t>
+          <t>A 50207-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45057</v>
+        <v>45600.49782407407</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11319,13 +11314,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11362,14 +11352,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 45365-2023</t>
+          <t>A 50208-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45192.69640046296</v>
+        <v>45600.49924768518</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11382,7 +11372,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11419,14 +11409,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 6387-2024</t>
+          <t>A 770-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45338.56366898148</v>
+        <v>46027</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11438,13 +11428,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11481,14 +11466,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 46147-2024</t>
+          <t>A 12143-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45581.45158564814</v>
+        <v>45729</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11506,7 +11491,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11543,14 +11528,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 54082-2024</t>
+          <t>A 52523-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45616.4956712963</v>
+        <v>45609</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11562,8 +11547,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>6.3</v>
+        <v>4.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11600,14 +11590,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 6240-2024</t>
+          <t>A 60524-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45337</v>
+        <v>45995.64032407408</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11620,7 +11610,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11657,14 +11647,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 60524-2025</t>
+          <t>A 8184-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45995.64032407408</v>
+        <v>44609</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11677,7 +11667,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11714,14 +11704,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 6394-2024</t>
+          <t>A 60937-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45338.57230324074</v>
+        <v>45645.3683912037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11739,7 +11729,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11776,14 +11766,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 11085-2023</t>
+          <t>A 60940-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44986</v>
+        <v>45645.37079861111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11795,8 +11785,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11833,14 +11828,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60736-2025</t>
+          <t>A 56886-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45996.78688657407</v>
+        <v>45628.57332175926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11852,8 +11847,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11897,7 +11897,7 @@
         <v>45996.6211574074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11947,14 +11947,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 56886-2024</t>
+          <t>A 44807-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45628.57332175926</v>
+        <v>45190.49269675926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12009,14 +12009,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 38917-2023</t>
+          <t>A 60736-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45163</v>
+        <v>45996.78688657407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12028,13 +12028,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>2.2</v>
+        <v>5.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12071,14 +12066,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 38910-2023</t>
+          <t>A 51652-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45163</v>
+        <v>45222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12096,7 +12091,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12133,14 +12128,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 4256-2026</t>
+          <t>A 21649-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46045.33489583333</v>
+        <v>45442.3671412037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12152,8 +12147,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12197,7 +12197,7 @@
         <v>45163</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12252,14 +12252,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 48118-2023</t>
+          <t>A 38910-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45205</v>
+        <v>45163</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12314,14 +12314,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 44806-2023</t>
+          <t>A 48118-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45190.49174768518</v>
+        <v>45205</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12376,14 +12376,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 5277-2024</t>
+          <t>A 33293-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45330</v>
+        <v>45116</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.5</v>
+        <v>17.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12433,14 +12433,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 50378-2024</t>
+          <t>A 38917-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45601.2984375</v>
+        <v>45163</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12495,14 +12495,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 33293-2023</t>
+          <t>A 4256-2026</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45116</v>
+        <v>46045.33489583333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>17.2</v>
+        <v>2.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12552,14 +12552,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 47941-2024</t>
+          <t>A 32154-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45589.34931712963</v>
+        <v>45119</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12571,13 +12571,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12614,14 +12609,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 44807-2023</t>
+          <t>A 8062-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45190.49269675926</v>
+        <v>45351</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12639,7 +12634,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12676,14 +12671,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 51652-2023</t>
+          <t>A 8074-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45222</v>
+        <v>45351.42106481481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12701,7 +12696,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12738,14 +12733,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 36963-2021</t>
+          <t>A 10672-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44393</v>
+        <v>45369.35207175926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12763,7 +12758,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12800,14 +12795,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 46220-2024</t>
+          <t>A 60907-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45581.56866898148</v>
+        <v>45261</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12825,7 +12820,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12862,14 +12857,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 46222-2024</t>
+          <t>A 9511-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45581.56938657408</v>
+        <v>45715.53921296296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12887,7 +12882,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>7.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12924,14 +12919,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 44457-2022</t>
+          <t>A 14679-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44839</v>
+        <v>45742.56643518519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12943,8 +12938,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12988,7 +12988,7 @@
         <v>44781.43078703704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13038,14 +13038,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 13405-2024</t>
+          <t>A 36963-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45387.44760416666</v>
+        <v>44393</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,8 +13057,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13095,14 +13100,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 12729-2024</t>
+          <t>A 13412-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45384.49421296296</v>
+        <v>45736.27773148148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13120,7 +13125,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13157,14 +13162,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 26185-2024</t>
+          <t>A 13414-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45468.56267361111</v>
+        <v>45736.2803125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13182,7 +13187,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13219,14 +13224,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 21649-2024</t>
+          <t>A 46290-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45442.3671412037</v>
+        <v>45581.66018518519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13244,7 +13249,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13281,14 +13286,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 58479-2024</t>
+          <t>A 73693-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45635.38675925926</v>
+        <v>44552.48893518518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,13 +13305,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13343,14 +13343,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 63905-2021</t>
+          <t>A 13415-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44509.65712962963</v>
+        <v>45736.28094907408</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13405,14 +13405,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 38743-2022</t>
+          <t>A 36437-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44816.34265046296</v>
+        <v>45535</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13424,13 +13424,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13467,14 +13462,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 13415-2025</t>
+          <t>A 45365-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45736.28094907408</v>
+        <v>45192.69640046296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13486,13 +13481,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13529,14 +13519,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 47935-2024</t>
+          <t>A 52131-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45589.34674768519</v>
+        <v>44463</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13548,13 +13538,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13591,14 +13576,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 52508-2024</t>
+          <t>A 37672-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45609</v>
+        <v>45541.57966435186</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13616,7 +13601,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13653,14 +13638,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 46219-2024</t>
+          <t>A 44735-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45581.56686342593</v>
+        <v>44438</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13672,13 +13657,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13715,14 +13695,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 50377-2024</t>
+          <t>A 56464-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45601.29576388889</v>
+        <v>45624</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13734,13 +13714,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13777,14 +13752,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 8059-2024</t>
+          <t>A 2565-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45351</v>
+        <v>44579</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13796,13 +13771,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13839,14 +13809,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 44735-2021</t>
+          <t>A 12678-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44438</v>
+        <v>45733.44137731481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13858,8 +13828,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13896,14 +13871,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 29482-2023</t>
+          <t>A 44841-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45106.57938657407</v>
+        <v>45190.55920138889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13915,8 +13890,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13953,14 +13933,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 59158-2022</t>
+          <t>A 10674-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44904</v>
+        <v>45369.35297453704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13978,7 +13958,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14015,14 +13995,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 18773-2025</t>
+          <t>A 14680-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45763</v>
+        <v>45742.56774305556</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14034,8 +14014,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14072,14 +14057,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 10320-2023</t>
+          <t>A 18773-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44986</v>
+        <v>45763</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14092,7 +14077,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.6</v>
+        <v>13</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14129,14 +14114,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 10797-2023</t>
+          <t>A 51653-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44989</v>
+        <v>45222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14148,8 +14133,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>9.5</v>
+        <v>3.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14186,14 +14176,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 11084-2023</t>
+          <t>A 12108-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44986</v>
+        <v>45376</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14206,7 +14196,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.7</v>
+        <v>7.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14243,14 +14233,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 50764-2024</t>
+          <t>A 54994-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45602.43876157407</v>
+        <v>45621.27174768518</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14268,7 +14258,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14305,14 +14295,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 33658-2024</t>
+          <t>A 22659-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45520.46899305555</v>
+        <v>45447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14325,7 +14315,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14362,14 +14352,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 14452-2025</t>
+          <t>A 52506-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45741.56143518518</v>
+        <v>45609</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14387,7 +14377,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14424,14 +14414,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 45861-2023</t>
+          <t>A 21562-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45195</v>
+        <v>45441.65392361111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14449,7 +14439,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14486,14 +14476,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 44841-2023</t>
+          <t>A 8059-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45190.55920138889</v>
+        <v>45351</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14511,7 +14501,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14548,14 +14538,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 13414-2025</t>
+          <t>A 54515-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45736.2803125</v>
+        <v>45233.57033564815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14567,13 +14557,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14610,14 +14595,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 43768-2024</t>
+          <t>A 13413-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45569</v>
+        <v>45736.27847222222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14629,8 +14614,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14674,7 +14664,7 @@
         <v>44816.34217592593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14729,14 +14719,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 14677-2025</t>
+          <t>A 12729-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45742.56465277778</v>
+        <v>45384.49421296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14754,7 +14744,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14791,14 +14781,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 9510-2025</t>
+          <t>A 10320-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45715.53829861111</v>
+        <v>44986</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14810,13 +14800,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14853,14 +14838,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 14680-2025</t>
+          <t>A 7472-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45742.56774305556</v>
+        <v>45705.46409722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14878,7 +14863,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14915,14 +14900,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 52131-2021</t>
+          <t>A 58477-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44463</v>
+        <v>45635.38418981482</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14934,8 +14919,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14972,14 +14962,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 52490-2024</t>
+          <t>A 7975-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45609.55875</v>
+        <v>45707.46203703704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14997,7 +14987,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15034,14 +15024,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 58477-2024</t>
+          <t>A 18831-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45635.38418981482</v>
+        <v>45764.39109953704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15059,7 +15049,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15096,14 +15086,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 26182-2024</t>
+          <t>A 58629-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45468</v>
+        <v>45635.57008101852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15121,7 +15111,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15158,14 +15148,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 61750-2021</t>
+          <t>A 27438-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44501.64055555555</v>
+        <v>45474.40971064815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15177,13 +15167,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15220,14 +15205,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 7472-2025</t>
+          <t>A 50102-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45705.46409722222</v>
+        <v>45215</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15245,7 +15230,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15282,14 +15267,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 14633-2025</t>
+          <t>A 51996-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45742</v>
+        <v>45223</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15307,7 +15292,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15344,14 +15329,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 50207-2024</t>
+          <t>A 62982-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45600.49782407407</v>
+        <v>45272</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15364,7 +15349,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15401,14 +15386,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 50208-2024</t>
+          <t>A 46288-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45600.49924768518</v>
+        <v>45581.65881944444</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15420,8 +15405,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15458,14 +15448,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 22659-2024</t>
+          <t>A 21935-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45447</v>
+        <v>45443.47237268519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15477,8 +15467,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15515,14 +15510,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 12108-2024</t>
+          <t>A 23460-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45376</v>
+        <v>45453.65363425926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15535,7 +15530,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>7.7</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15572,14 +15567,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 18831-2025</t>
+          <t>A 5218-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45764.39109953704</v>
+        <v>45330.64273148148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15597,7 +15592,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15634,14 +15629,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 32154-2023</t>
+          <t>A 24707-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45119</v>
+        <v>45798.81579861111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15654,7 +15649,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15691,14 +15686,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 27438-2024</t>
+          <t>A 25744-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45474.40971064815</v>
+        <v>45804.18709490741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15708,6 +15703,11 @@
       <c r="E238" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G238" t="n">
@@ -15748,14 +15748,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 46288-2024</t>
+          <t>A 25923-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45581.65881944444</v>
+        <v>45804</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15769,11 +15769,11 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15810,14 +15810,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 51996-2023</t>
+          <t>A 26301-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45223</v>
+        <v>45805.63861111111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15872,14 +15872,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 58629-2024</t>
+          <t>A 26170-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45635.57008101852</v>
+        <v>45805.46351851852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15934,14 +15934,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 50102-2023</t>
+          <t>A 26153-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45215</v>
+        <v>45805.43332175926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15996,14 +15996,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 62982-2023</t>
+          <t>A 26147-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45272</v>
+        <v>45805.4308912037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16015,8 +16015,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16053,14 +16058,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 21935-2024</t>
+          <t>A 26783-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45443.47237268519</v>
+        <v>45810.5834375</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16072,13 +16077,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16115,14 +16115,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 23460-2024</t>
+          <t>A 26820-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45453.65363425926</v>
+        <v>45810.63664351852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45384</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>45175</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>45932</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45163</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>45205</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45089.56824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,14 +1446,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 73321-2021</t>
+          <t>A 47782-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44550</v>
+        <v>45931</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,19 +1466,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>13.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1493,235 +1493,235 @@
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47782-2025 artfynd.xlsx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47782-2025 karta.png", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47782-2025 FSC-klagomål.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47782-2025 FSC-klagomål mail.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47782-2025 tillsynsbegäran.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47782-2025 tillsynsbegäran mail.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47782-2025 prioriterade fågelarter.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 38915-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tretåig hackspett
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38915-2023 artfynd.xlsx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38915-2023 karta.png", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38915-2023 FSC-klagomål.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38915-2023 FSC-klagomål mail.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38915-2023 tillsynsbegäran.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38915-2023 tillsynsbegäran mail.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38915-2023 prioriterade fågelarter.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 73321-2021</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44550</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>17</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Grynig filtlav
 Gulsparv</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 73321-2021 artfynd.xlsx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 73321-2021 karta.png", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/knärot/A 73321-2021 karta knärot.png", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 73321-2021 FSC-klagomål.docx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 73321-2021 FSC-klagomål mail.docx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 73321-2021 tillsynsbegäran.docx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 73321-2021 tillsynsbegäran mail.docx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 73321-2021 prioriterade fågelarter.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 47782-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47782-2025 artfynd.xlsx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47782-2025 karta.png", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47782-2025 FSC-klagomål.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47782-2025 FSC-klagomål mail.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47782-2025 tillsynsbegäran.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47782-2025 tillsynsbegäran mail.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47782-2025 prioriterade fågelarter.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 38915-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45163</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tretåig hackspett
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38915-2023 artfynd.xlsx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38915-2023 karta.png", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38915-2023 FSC-klagomål.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38915-2023 FSC-klagomål mail.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38915-2023 tillsynsbegäran.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38915-2023 tillsynsbegäran mail.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38915-2023 prioriterade fågelarter.docx", "A 38915-2023")</f>
         <v/>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
         <v>45866</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45931</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45351</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>44853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,14 +2265,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 47915-2024</t>
+          <t>A 33297-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45589.34315972222</v>
+        <v>45116</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,23 +2284,18 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2314,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2324,45 +2319,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 49306-2025</t>
+          <t>A 53838-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45938</v>
+        <v>45614</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,17 +2370,17 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2399,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2409,45 +2404,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 27093-2023</t>
+          <t>A 2357-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45096</v>
+        <v>44578</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2459,13 +2458,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2474,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2489,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2499,49 +2493,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47787-2025</t>
+          <t>A 27093-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45931</v>
+        <v>45096</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,8 +2547,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2563,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2578,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2588,49 +2587,49 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 33297-2023</t>
+          <t>A 49306-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45116</v>
+        <v>45938</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,16 +2642,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2667,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2677,45 +2676,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 40870-2024</t>
+          <t>A 38914-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45558.59421296296</v>
+        <v>45163</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,7 +2732,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2767,49 +2766,49 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 38912-2023</t>
+          <t>A 47787-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45163</v>
+        <v>45931</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,13 +2820,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2865,45 +2859,45 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 12720-2024</t>
+          <t>A 40870-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45384</v>
+        <v>45558.59421296296</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2921,7 +2915,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2955,49 +2949,49 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 38914-2023</t>
+          <t>A 38912-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>45163</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,45 +3047,45 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 2357-2022</t>
+          <t>A 12720-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44578</v>
+        <v>45384</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,8 +3097,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3138,49 +3137,49 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 53838-2024</t>
+          <t>A 47915-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45614</v>
+        <v>45589.34315972222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,8 +3191,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3202,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3217,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3227,35 +3231,31 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
         <v>44805</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44396.35755787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44607.48398148148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44651</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44692</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44470</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44497.42795138889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44375</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44466.38188657408</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44643</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44470</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44529.52201388889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44525.76128472222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44509.65762731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4615,7 +4615,7 @@
         <v>44505.41567129629</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4670,14 +4670,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9510-2025</t>
+          <t>A 14679-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45715.53829861111</v>
+        <v>45742.56643518519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 44806-2023</t>
+          <t>A 61750-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45190.49174768518</v>
+        <v>44501.64055555555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6394-2024</t>
+          <t>A 38874-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45338.57230324074</v>
+        <v>45887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4856,14 +4856,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 45861-2023</t>
+          <t>A 38782-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45195</v>
+        <v>45887</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4875,13 +4875,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4918,14 +4913,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18675-2025</t>
+          <t>A 7472-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45763.59862268518</v>
+        <v>45705.46409722222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4937,8 +4932,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4975,14 +4975,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38743-2022</t>
+          <t>A 41369-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44816.34265046296</v>
+        <v>45900.56857638889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4994,13 +4994,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5037,14 +5032,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13405-2024</t>
+          <t>A 41642-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45387.44760416666</v>
+        <v>45901</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5057,7 +5052,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5094,14 +5089,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26182-2024</t>
+          <t>A 18675-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45468</v>
+        <v>45763.59862268518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5113,13 +5108,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5156,14 +5146,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26176-2024</t>
+          <t>A 7975-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45468.55660879629</v>
+        <v>45707.46203703704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5181,7 +5171,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5218,14 +5208,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25177-2024</t>
+          <t>A 29607-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45462.546875</v>
+        <v>44754.50530092593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5243,7 +5233,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5280,14 +5270,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3177-2022</t>
+          <t>A 14633-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44582.61244212963</v>
+        <v>45742</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5299,8 +5289,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5337,14 +5332,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50378-2024</t>
+          <t>A 50207-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45601.2984375</v>
+        <v>45600.49782407407</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5356,13 +5351,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5399,14 +5389,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10321-2023</t>
+          <t>A 50208-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44986.99549768519</v>
+        <v>45600.49924768518</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5419,7 +5409,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5456,14 +5446,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57234-2024</t>
+          <t>A 22659-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45629.54484953704</v>
+        <v>45447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5475,13 +5465,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5518,14 +5503,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 6387-2024</t>
+          <t>A 37672-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45338.56366898148</v>
+        <v>45541.57966435186</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5543,7 +5528,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5580,14 +5565,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59158-2022</t>
+          <t>A 12108-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44904</v>
+        <v>45376</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5599,13 +5584,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>3.7</v>
+        <v>7.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5642,14 +5622,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53406-2024</t>
+          <t>A 41767-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45614.49704861111</v>
+        <v>45902.54892361111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5667,7 +5647,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5704,14 +5684,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 5277-2024</t>
+          <t>A 41766-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45330</v>
+        <v>45902.54806712963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5723,8 +5703,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5761,14 +5746,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28369-2025</t>
+          <t>A 18831-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45819.21905092592</v>
+        <v>45764.39109953704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5786,7 +5771,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5823,14 +5808,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 25175-2024</t>
+          <t>A 32154-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45462.545625</v>
+        <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5842,13 +5827,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5885,14 +5865,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43768-2024</t>
+          <t>A 56478-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45569</v>
+        <v>45624</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5905,7 +5885,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5942,14 +5922,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28367-2025</t>
+          <t>A 8062-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45819</v>
+        <v>45351</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5967,7 +5947,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.1</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6004,14 +5984,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28368-2025</t>
+          <t>A 53406-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45819.21581018518</v>
+        <v>45614.49704861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6029,7 +6009,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>8.1</v>
+        <v>4.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6066,14 +6046,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28370-2025</t>
+          <t>A 27438-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45819.22013888889</v>
+        <v>45474.40971064815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6085,13 +6065,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>8.199999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6128,14 +6103,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23066-2022</t>
+          <t>A 46288-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44719.45199074074</v>
+        <v>45581.65881944444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6147,8 +6122,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6185,14 +6165,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38874-2025</t>
+          <t>A 59206-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45887</v>
+        <v>45636</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6204,13 +6184,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>8.300000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6247,14 +6222,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 38875-2025</t>
+          <t>A 51996-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45887</v>
+        <v>45223</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6272,7 +6247,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6309,14 +6284,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38872-2025</t>
+          <t>A 58629-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45887.5749074074</v>
+        <v>45635.57008101852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6334,7 +6309,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6371,14 +6346,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 38782-2025</t>
+          <t>A 10321-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45887</v>
+        <v>44986.99549768519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6391,7 +6366,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6428,14 +6403,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31603-2025</t>
+          <t>A 50102-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45833.73876157407</v>
+        <v>45215</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6447,8 +6422,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6485,14 +6465,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 46220-2024</t>
+          <t>A 36437-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45581.56866898148</v>
+        <v>45535</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6504,13 +6484,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6547,14 +6522,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 47935-2024</t>
+          <t>A 62982-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45589.34674768519</v>
+        <v>45272</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6566,13 +6541,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6609,14 +6579,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46219-2024</t>
+          <t>A 38904-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45581.56686342593</v>
+        <v>45163</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6634,7 +6604,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6671,14 +6641,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 21952-2024</t>
+          <t>A 38921-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45443.48370370371</v>
+        <v>45163</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6696,7 +6666,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6733,14 +6703,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9525-2025</t>
+          <t>A 21935-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45715.56616898148</v>
+        <v>45443.47237268519</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6728,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6795,14 +6765,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 52566-2023</t>
+          <t>A 43690-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45219</v>
+        <v>45912.38975694445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6814,8 +6784,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6852,14 +6827,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32300-2025</t>
+          <t>A 43694-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45835.71607638889</v>
+        <v>45912.39295138889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6871,8 +6846,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6909,14 +6889,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 62972-2023</t>
+          <t>A 43691-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45272</v>
+        <v>45912.39130787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6928,8 +6908,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6966,14 +6951,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32717-2025</t>
+          <t>A 43752-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45839.37686342592</v>
+        <v>45912</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7023,14 +7008,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 50377-2024</t>
+          <t>A 43692-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45601.29576388889</v>
+        <v>45912.39221064815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7048,7 +7033,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7085,14 +7070,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 33404-2025</t>
+          <t>A 43689-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45841</v>
+        <v>45912.38899305555</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7104,8 +7089,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7142,14 +7132,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52490-2024</t>
+          <t>A 23460-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45609.55875</v>
+        <v>45453.65363425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7161,13 +7151,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7204,14 +7189,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 58120-2024</t>
+          <t>A 44642-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45632.39280092593</v>
+        <v>45917.52719907407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7223,13 +7208,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7266,14 +7246,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 58125-2024</t>
+          <t>A 21562-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45632.39546296297</v>
+        <v>45441.65392361111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7291,7 +7271,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8.9</v>
+        <v>2.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7328,14 +7308,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 52508-2024</t>
+          <t>A 16480-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45609</v>
+        <v>45751.57702546296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7347,13 +7327,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7390,14 +7365,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 52528-2024</t>
+          <t>A 24707-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45609</v>
+        <v>45798.81579861111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7409,13 +7384,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7452,14 +7422,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 14678-2025</t>
+          <t>A 10672-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45742.56563657407</v>
+        <v>45369.35207175926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7477,7 +7447,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7514,14 +7484,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 14681-2025</t>
+          <t>A 2565-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45742.56857638889</v>
+        <v>44579</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7533,13 +7503,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7576,14 +7541,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41766-2025</t>
+          <t>A 5218-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45902.54806712963</v>
+        <v>45330.64273148148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7601,7 +7566,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7638,14 +7603,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 41767-2025</t>
+          <t>A 25744-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45902.54892361111</v>
+        <v>45804.18709490741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7663,7 +7628,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7700,14 +7665,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 59863-2024</t>
+          <t>A 26301-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45639</v>
+        <v>45805.63861111111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7717,6 +7682,11 @@
       <c r="E105" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -7757,14 +7727,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41369-2025</t>
+          <t>A 26147-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45900.56857638889</v>
+        <v>45805.4308912037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7776,8 +7746,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7814,14 +7789,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 41642-2025</t>
+          <t>A 26170-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45901</v>
+        <v>45805.46351851852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7833,8 +7808,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7871,14 +7851,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 59206-2024</t>
+          <t>A 26153-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45636</v>
+        <v>45805.43332175926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7890,8 +7870,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7928,14 +7913,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 11085-2023</t>
+          <t>A 25923-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44986</v>
+        <v>45804</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7947,8 +7932,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7985,14 +7975,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 35706-2025</t>
+          <t>A 26820-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45860.37125</v>
+        <v>45810.63664351852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8005,7 +7995,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8042,14 +8032,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 50764-2024</t>
+          <t>A 26783-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45602.43876157407</v>
+        <v>45810.5834375</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8061,13 +8051,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8104,14 +8089,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 43691-2025</t>
+          <t>A 60907-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45912.39130787037</v>
+        <v>45261</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8129,7 +8114,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8166,14 +8151,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 43689-2025</t>
+          <t>A 28367-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45912.38899305555</v>
+        <v>45819</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8191,7 +8176,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>6.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8228,14 +8213,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 23683-2025</t>
+          <t>A 28368-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45793.34197916667</v>
+        <v>45819.21581018518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8247,8 +8232,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>3.7</v>
+        <v>8.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8285,14 +8275,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 43692-2025</t>
+          <t>A 28370-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45912.39221064815</v>
+        <v>45819.22013888889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8310,7 +8300,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8347,14 +8337,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 43694-2025</t>
+          <t>A 28369-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45912.39295138889</v>
+        <v>45819.21905092592</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8372,7 +8362,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8409,14 +8399,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 43690-2025</t>
+          <t>A 25175-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45912.38975694445</v>
+        <v>45462.545625</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8434,7 +8424,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8471,14 +8461,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 43752-2025</t>
+          <t>A 26176-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45912</v>
+        <v>45468.55660879629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8490,8 +8480,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8528,14 +8523,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 54082-2024</t>
+          <t>A 3177-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45616.4956712963</v>
+        <v>44582.61244212963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8548,7 +8543,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6.3</v>
+        <v>3.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8585,14 +8580,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 36768-2025</t>
+          <t>A 50766-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45873.58413194444</v>
+        <v>45602.43986111111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8610,7 +8605,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8647,14 +8642,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 36769-2025</t>
+          <t>A 8184-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45873.58680555555</v>
+        <v>44609</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8666,13 +8661,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>9.6</v>
+        <v>1.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8709,14 +8699,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 38904-2023</t>
+          <t>A 46290-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45163</v>
+        <v>45581.66018518519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8734,7 +8724,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8771,14 +8761,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 38921-2023</t>
+          <t>A 52506-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45163</v>
+        <v>45609</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8796,7 +8786,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8833,14 +8823,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37333-2025</t>
+          <t>A 52523-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45876.66482638889</v>
+        <v>45609</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8852,8 +8842,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8890,14 +8885,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 37265-2025</t>
+          <t>A 23066-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45876.46099537037</v>
+        <v>44719.45199074074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8910,7 +8905,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8947,14 +8942,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 58479-2024</t>
+          <t>A 58197-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45635.38675925926</v>
+        <v>45632.48092592593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8972,7 +8967,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9009,14 +9004,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44642-2025</t>
+          <t>A 31603-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45917.52719907407</v>
+        <v>45833.73876157407</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9029,7 +9024,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9066,14 +9061,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 48285-2023</t>
+          <t>A 32300-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45205.55755787037</v>
+        <v>45835.71607638889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9085,13 +9080,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9128,14 +9118,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 15594-2025</t>
+          <t>A 54515-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45747.88466435186</v>
+        <v>45233.57033564815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9148,7 +9138,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9185,14 +9175,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 63905-2021</t>
+          <t>A 32717-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44509.65712962963</v>
+        <v>45839.37686342592</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9204,13 +9194,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9247,14 +9232,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 14677-2025</t>
+          <t>A 54994-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45742.56465277778</v>
+        <v>45621.27174768518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9272,7 +9257,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9309,14 +9294,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 12148-2025</t>
+          <t>A 48625-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45729</v>
+        <v>45936.50938657407</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9328,13 +9313,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9371,14 +9351,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 14633-2025</t>
+          <t>A 56464-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45742</v>
+        <v>45624</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9390,13 +9370,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9433,14 +9408,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 14634-2025</t>
+          <t>A 33404-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45742</v>
+        <v>45841</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9452,13 +9427,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9495,14 +9465,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 20577-2023</t>
+          <t>A 13236-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45057</v>
+        <v>45735.47133101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9520,7 +9490,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.8</v>
+        <v>18.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9557,14 +9527,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 10797-2023</t>
+          <t>A 25177-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44989</v>
+        <v>45462.546875</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9576,8 +9546,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9614,14 +9589,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 16480-2025</t>
+          <t>A 13412-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45751.57702546296</v>
+        <v>45736.27773148148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9633,8 +9608,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9671,14 +9651,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 44457-2022</t>
+          <t>A 38233-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44839</v>
+        <v>45160</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9691,7 +9671,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.8</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9728,14 +9708,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 48625-2025</t>
+          <t>A 59863-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45936.50938657407</v>
+        <v>45639</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9785,14 +9765,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 29482-2023</t>
+          <t>A 14678-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45106.57938657407</v>
+        <v>45742.56563657407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9804,8 +9784,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9842,14 +9827,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58197-2024</t>
+          <t>A 14681-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45632.48092592593</v>
+        <v>45742.56857638889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9867,7 +9852,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9904,14 +9889,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 13236-2025</t>
+          <t>A 35706-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45735.47133101852</v>
+        <v>45860.37125</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9923,13 +9908,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>18.5</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9966,14 +9946,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 51040-2025</t>
+          <t>A 10674-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45947.41420138889</v>
+        <v>45369.35297453704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9991,7 +9971,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10028,14 +10008,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52099-2025</t>
+          <t>A 60933-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45952</v>
+        <v>45645.36615740741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10047,8 +10027,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10085,14 +10070,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11084-2023</t>
+          <t>A 73693-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44986</v>
+        <v>44552.48893518518</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10105,7 +10090,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10142,14 +10127,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 56478-2024</t>
+          <t>A 58120-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45624</v>
+        <v>45632.39280092593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10161,8 +10146,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10199,14 +10189,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 46147-2024</t>
+          <t>A 58125-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45581.45158564814</v>
+        <v>45632.39546296297</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10224,7 +10214,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>8.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10261,14 +10251,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 60933-2024</t>
+          <t>A 58164-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45645.36615740741</v>
+        <v>45632.45396990741</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10286,7 +10276,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10323,14 +10313,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 54235-2025</t>
+          <t>A 60937-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45964.62569444445</v>
+        <v>45645.3683912037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10348,7 +10338,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10385,14 +10375,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 54232-2025</t>
+          <t>A 60940-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45964.62188657407</v>
+        <v>45645.37079861111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10447,14 +10437,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 54233-2025</t>
+          <t>A 36768-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45964.62453703704</v>
+        <v>45873.58413194444</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10472,7 +10462,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10509,14 +10499,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 47941-2024</t>
+          <t>A 36769-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45589.34931712963</v>
+        <v>45873.58680555555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10534,7 +10524,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>9.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10571,14 +10561,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 61750-2021</t>
+          <t>A 9511-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44501.64055555555</v>
+        <v>45715.53921296296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10596,7 +10586,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>7.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10633,14 +10623,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 29607-2022</t>
+          <t>A 23683-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44754.50530092593</v>
+        <v>45793.34197916667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10652,13 +10642,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10695,14 +10680,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 6240-2024</t>
+          <t>A 52566-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45337</v>
+        <v>45219</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10715,7 +10700,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10752,14 +10737,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 46222-2024</t>
+          <t>A 37333-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45581.56938657408</v>
+        <v>45876.66482638889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10771,13 +10756,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10814,14 +10794,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 55341-2025</t>
+          <t>A 37265-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45971.34751157407</v>
+        <v>45876.46099537037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10833,13 +10813,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10876,14 +10851,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 33658-2024</t>
+          <t>A 51040-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45520.46899305555</v>
+        <v>45947.41420138889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10895,8 +10870,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10933,14 +10913,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 38233-2023</t>
+          <t>A 57234-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45160</v>
+        <v>45629.54484953704</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10952,8 +10932,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10990,14 +10975,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 26185-2024</t>
+          <t>A 48285-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45468.56267361111</v>
+        <v>45205.55755787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11015,7 +11000,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11052,14 +11037,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 14452-2025</t>
+          <t>A 15594-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45741.56143518518</v>
+        <v>45747.88466435186</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11071,13 +11056,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11114,14 +11094,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 50766-2024</t>
+          <t>A 12148-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45602.43986111111</v>
+        <v>45729</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11176,14 +11156,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 57086-2025</t>
+          <t>A 52099-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45979.42208333333</v>
+        <v>45952</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11196,7 +11176,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11233,14 +11213,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 58164-2024</t>
+          <t>A 13413-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45632.45396990741</v>
+        <v>45736.27847222222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11258,7 +11238,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11295,14 +11275,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50207-2024</t>
+          <t>A 38875-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45600.49782407407</v>
+        <v>45887</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11314,8 +11294,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11352,14 +11337,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 50208-2024</t>
+          <t>A 9525-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45600.49924768518</v>
+        <v>45715.56616898148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11371,8 +11356,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11409,14 +11399,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 770-2026</t>
+          <t>A 38872-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46027</v>
+        <v>45887.5749074074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11428,8 +11418,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11466,14 +11461,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 12143-2025</t>
+          <t>A 8074-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45729</v>
+        <v>45351.42106481481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11491,7 +11486,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11528,14 +11523,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 52523-2024</t>
+          <t>A 21952-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45609</v>
+        <v>45443.48370370371</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11553,7 +11548,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11590,14 +11585,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 60524-2025</t>
+          <t>A 54235-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45995.64032407408</v>
+        <v>45964.62569444445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11609,8 +11604,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11647,14 +11647,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 8184-2022</t>
+          <t>A 54232-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44609</v>
+        <v>45964.62188657407</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11666,8 +11666,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11704,14 +11709,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60937-2024</t>
+          <t>A 54233-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45645.3683912037</v>
+        <v>45964.62453703704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11729,7 +11734,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11766,14 +11771,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 60940-2024</t>
+          <t>A 55341-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45645.37079861111</v>
+        <v>45971.34751157407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11791,7 +11796,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11828,14 +11833,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 56886-2024</t>
+          <t>A 62972-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45628.57332175926</v>
+        <v>45272</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11847,13 +11852,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11890,14 +11890,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 60708-2025</t>
+          <t>A 52528-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45996.6211574074</v>
+        <v>45609</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11909,8 +11909,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11947,14 +11952,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 44807-2023</t>
+          <t>A 12143-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45190.49269675926</v>
+        <v>45729</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11972,7 +11977,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12009,14 +12014,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 60736-2025</t>
+          <t>A 57086-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45996.78688657407</v>
+        <v>45979.42208333333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12029,7 +12034,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12066,14 +12071,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51652-2023</t>
+          <t>A 14634-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45222</v>
+        <v>45742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12091,7 +12096,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12128,14 +12133,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 21649-2024</t>
+          <t>A 51653-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45442.3671412037</v>
+        <v>45222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12153,7 +12158,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12190,14 +12195,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 38907-2023</t>
+          <t>A 12678-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45163</v>
+        <v>45733.44137731481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12215,7 +12220,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12252,14 +12257,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 38910-2023</t>
+          <t>A 20577-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45163</v>
+        <v>45057</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12277,7 +12282,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12314,14 +12319,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 48118-2023</t>
+          <t>A 45365-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45205</v>
+        <v>45192.69640046296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12333,13 +12338,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12376,14 +12376,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 33293-2023</t>
+          <t>A 6387-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45116</v>
+        <v>45338.56366898148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12395,8 +12395,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>17.2</v>
+        <v>1.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12433,14 +12438,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 38917-2023</t>
+          <t>A 770-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45163</v>
+        <v>46027</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12450,11 +12455,6 @@
       <c r="E184" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -12495,14 +12495,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 4256-2026</t>
+          <t>A 46147-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46045.33489583333</v>
+        <v>45581.45158564814</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12514,8 +12514,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12552,14 +12557,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 32154-2023</t>
+          <t>A 54082-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45119</v>
+        <v>45616.4956712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12572,7 +12577,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.3</v>
+        <v>6.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12609,14 +12614,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 8062-2024</t>
+          <t>A 6240-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45351</v>
+        <v>45337</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12628,13 +12633,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12671,14 +12671,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 8074-2024</t>
+          <t>A 6394-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45351.42106481481</v>
+        <v>45338.57230324074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12733,14 +12733,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 10672-2024</t>
+          <t>A 60524-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45369.35207175926</v>
+        <v>45995.64032407408</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12752,13 +12752,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12795,14 +12790,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 60907-2023</t>
+          <t>A 11085-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45261</v>
+        <v>44986</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12814,13 +12809,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12857,14 +12847,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 9511-2025</t>
+          <t>A 60736-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45715.53921296296</v>
+        <v>45996.78688657407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12876,13 +12866,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12919,14 +12904,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 14679-2025</t>
+          <t>A 60708-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45742.56643518519</v>
+        <v>45996.6211574074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,13 +12923,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12981,14 +12961,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 32211-2022</t>
+          <t>A 56886-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44781.43078703704</v>
+        <v>45628.57332175926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13000,8 +12980,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13038,14 +13023,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 36963-2021</t>
+          <t>A 38917-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44393</v>
+        <v>45163</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13063,7 +13048,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13100,14 +13085,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 13412-2025</t>
+          <t>A 38910-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45736.27773148148</v>
+        <v>45163</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13125,7 +13110,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13162,14 +13147,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 13414-2025</t>
+          <t>A 44806-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45736.2803125</v>
+        <v>45190.49174768518</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13187,7 +13172,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13224,14 +13209,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 46290-2024</t>
+          <t>A 5277-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45581.66018518519</v>
+        <v>45330</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13243,13 +13228,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>8.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13286,14 +13266,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 73693-2021</t>
+          <t>A 4256-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44552.48893518518</v>
+        <v>46045.33489583333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13306,7 +13286,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13343,14 +13323,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 13415-2025</t>
+          <t>A 38907-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45736.28094907408</v>
+        <v>45163</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13368,7 +13348,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13405,14 +13385,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 36437-2024</t>
+          <t>A 50378-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45535</v>
+        <v>45601.2984375</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13424,8 +13404,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13462,14 +13447,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 45365-2023</t>
+          <t>A 33293-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45192.69640046296</v>
+        <v>45116</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13482,7 +13467,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5</v>
+        <v>17.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13519,14 +13504,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 52131-2021</t>
+          <t>A 47941-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44463</v>
+        <v>45589.34931712963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,8 +13523,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13576,14 +13566,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 37672-2024</t>
+          <t>A 48118-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45541.57966435186</v>
+        <v>45205</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13601,7 +13591,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13638,14 +13628,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 44735-2021</t>
+          <t>A 44807-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44438</v>
+        <v>45190.49269675926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13657,8 +13647,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13695,14 +13690,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 56464-2024</t>
+          <t>A 51652-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45624</v>
+        <v>45222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13714,8 +13709,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13752,14 +13752,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 2565-2022</t>
+          <t>A 36963-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44579</v>
+        <v>44393</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13771,8 +13771,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13809,14 +13814,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 12678-2025</t>
+          <t>A 46220-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45733.44137731481</v>
+        <v>45581.56866898148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13834,7 +13839,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>9.699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13871,14 +13876,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 44841-2023</t>
+          <t>A 46222-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45190.55920138889</v>
+        <v>45581.56938657408</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13896,7 +13901,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13933,14 +13938,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 10674-2024</t>
+          <t>A 44457-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45369.35297453704</v>
+        <v>44839</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13952,13 +13957,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>0.3</v>
+        <v>6.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13995,14 +13995,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 14680-2025</t>
+          <t>A 32211-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45742.56774305556</v>
+        <v>44781.43078703704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14014,13 +14014,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14057,14 +14052,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 18773-2025</t>
+          <t>A 13405-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45763</v>
+        <v>45387.44760416666</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14077,7 +14072,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>13</v>
+        <v>0.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14114,14 +14109,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 51653-2023</t>
+          <t>A 12729-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45222</v>
+        <v>45384.49421296296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14139,7 +14134,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14176,14 +14171,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 12108-2024</t>
+          <t>A 26185-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45376</v>
+        <v>45468.56267361111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14195,8 +14190,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>7.7</v>
+        <v>4.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14233,14 +14233,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 54994-2024</t>
+          <t>A 21649-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45621.27174768518</v>
+        <v>45442.3671412037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14295,14 +14295,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 22659-2024</t>
+          <t>A 58479-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45447</v>
+        <v>45635.38675925926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14314,8 +14314,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14352,14 +14357,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 52506-2024</t>
+          <t>A 63905-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45609</v>
+        <v>44509.65712962963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14377,7 +14382,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14414,14 +14419,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 21562-2024</t>
+          <t>A 38743-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45441.65392361111</v>
+        <v>44816.34265046296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14439,7 +14444,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14476,14 +14481,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 8059-2024</t>
+          <t>A 13415-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45351</v>
+        <v>45736.28094907408</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14501,7 +14506,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14538,14 +14543,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 54515-2023</t>
+          <t>A 47935-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45233.57033564815</v>
+        <v>45589.34674768519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14557,8 +14562,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14595,14 +14605,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 13413-2025</t>
+          <t>A 52508-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45736.27847222222</v>
+        <v>45609</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14620,7 +14630,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14657,14 +14667,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 38738-2022</t>
+          <t>A 46219-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44816.34217592593</v>
+        <v>45581.56686342593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14682,7 +14692,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14719,14 +14729,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 12729-2024</t>
+          <t>A 50377-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45384.49421296296</v>
+        <v>45601.29576388889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14744,7 +14754,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14781,14 +14791,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 10320-2023</t>
+          <t>A 8059-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44986</v>
+        <v>45351</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14800,8 +14810,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14838,14 +14853,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 7472-2025</t>
+          <t>A 44735-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45705.46409722222</v>
+        <v>44438</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14857,13 +14872,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14900,14 +14910,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 58477-2024</t>
+          <t>A 29482-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45635.38418981482</v>
+        <v>45106.57938657407</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14919,13 +14929,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14962,14 +14967,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 7975-2025</t>
+          <t>A 59158-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45707.46203703704</v>
+        <v>44904</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14987,7 +14992,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15024,14 +15029,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 18831-2025</t>
+          <t>A 18773-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45764.39109953704</v>
+        <v>45763</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15043,13 +15048,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15086,14 +15086,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 58629-2024</t>
+          <t>A 10320-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45635.57008101852</v>
+        <v>44986</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15105,13 +15105,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15148,14 +15143,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 27438-2024</t>
+          <t>A 10797-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45474.40971064815</v>
+        <v>44989</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15168,7 +15163,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15205,14 +15200,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 50102-2023</t>
+          <t>A 11084-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45215</v>
+        <v>44986</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15224,13 +15219,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15267,14 +15257,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 51996-2023</t>
+          <t>A 50764-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45223</v>
+        <v>45602.43876157407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15292,7 +15282,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15329,14 +15319,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 62982-2023</t>
+          <t>A 33658-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45272</v>
+        <v>45520.46899305555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15349,7 +15339,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15386,14 +15376,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 46288-2024</t>
+          <t>A 14452-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45581.65881944444</v>
+        <v>45741.56143518518</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15411,7 +15401,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15448,14 +15438,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 21935-2024</t>
+          <t>A 45861-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45443.47237268519</v>
+        <v>45195</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15473,7 +15463,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15510,14 +15500,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 23460-2024</t>
+          <t>A 44841-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45453.65363425926</v>
+        <v>45190.55920138889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15529,8 +15519,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15567,14 +15562,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 5218-2024</t>
+          <t>A 13414-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45330.64273148148</v>
+        <v>45736.2803125</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15592,7 +15587,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15629,14 +15624,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 24707-2025</t>
+          <t>A 43768-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45798.81579861111</v>
+        <v>45569</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15649,7 +15644,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15686,14 +15681,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 25744-2025</t>
+          <t>A 38738-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45804.18709490741</v>
+        <v>44816.34217592593</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15711,7 +15706,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15748,14 +15743,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 25923-2025</t>
+          <t>A 14677-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45804</v>
+        <v>45742.56465277778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15769,11 +15764,11 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15810,14 +15805,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 26301-2025</t>
+          <t>A 9510-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45805.63861111111</v>
+        <v>45715.53829861111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15835,7 +15830,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15872,14 +15867,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 26170-2025</t>
+          <t>A 14680-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45805.46351851852</v>
+        <v>45742.56774305556</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15897,7 +15892,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15934,14 +15929,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 26153-2025</t>
+          <t>A 52131-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45805.43332175926</v>
+        <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15953,13 +15948,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15996,14 +15986,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 26147-2025</t>
+          <t>A 52490-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45805.4308912037</v>
+        <v>45609.55875</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16021,7 +16011,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16058,14 +16048,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 26783-2025</t>
+          <t>A 58477-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45810.5834375</v>
+        <v>45635.38418981482</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16077,8 +16067,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16115,14 +16110,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 26820-2025</t>
+          <t>A 26182-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45810.63664351852</v>
+        <v>45468</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16134,8 +16129,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45384</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>45175</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>45932</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45163</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>45205</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45089.56824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,14 +1446,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 47782-2025</t>
+          <t>A 73321-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45931</v>
+        <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,19 +1466,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>13.4</v>
+        <v>17</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1493,249 +1493,249 @@
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Grynig filtlav
+Gulsparv</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 73321-2021 artfynd.xlsx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 73321-2021 karta.png", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/knärot/A 73321-2021 karta knärot.png", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 73321-2021 FSC-klagomål.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 73321-2021 FSC-klagomål mail.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 73321-2021 tillsynsbegäran.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 73321-2021 tillsynsbegäran mail.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 73321-2021 prioriterade fågelarter.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 47782-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47782-2025 artfynd.xlsx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47782-2025 karta.png", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47782-2025 FSC-klagomål.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47782-2025 FSC-klagomål mail.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47782-2025 tillsynsbegäran.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47782-2025 tillsynsbegäran mail.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47782-2025 prioriterade fågelarter.docx", "A 47782-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 38915-2023</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45163</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>4.5</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tretåig hackspett
 Mattlummer</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38915-2023 artfynd.xlsx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38915-2023 karta.png", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38915-2023 FSC-klagomål.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38915-2023 FSC-klagomål mail.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38915-2023 tillsynsbegäran.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38915-2023 tillsynsbegäran mail.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38915-2023 prioriterade fågelarter.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 73321-2021</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44550</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>17</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grynig filtlav
-Gulsparv</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 73321-2021 artfynd.xlsx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 73321-2021 karta.png", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/knärot/A 73321-2021 karta knärot.png", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 73321-2021 FSC-klagomål.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 73321-2021 FSC-klagomål mail.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 73321-2021 tillsynsbegäran.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 73321-2021 tillsynsbegäran mail.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 73321-2021 prioriterade fågelarter.docx", "A 73321-2021")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 36081-2025</t>
+          <t>A 8063-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45866</v>
+        <v>45351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,41 +1792,41 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 36081-2025 artfynd.xlsx", "A 36081-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 8063-2024 artfynd.xlsx", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 36081-2025 karta.png", "A 36081-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 8063-2024 karta.png", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 36081-2025 FSC-klagomål.docx", "A 36081-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 8063-2024 FSC-klagomål.docx", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 36081-2025 FSC-klagomål mail.docx", "A 36081-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 8063-2024 FSC-klagomål mail.docx", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 36081-2025 tillsynsbegäran.docx", "A 36081-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 8063-2024 tillsynsbegäran.docx", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 36081-2025 tillsynsbegäran mail.docx", "A 36081-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 8063-2024 tillsynsbegäran mail.docx", "A 8063-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 47785-2025</t>
+          <t>A 36081-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45931</v>
+        <v>45866</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,32 +1838,37 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1873,127 +1878,122 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Skogsklocka
+Svinrot</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 36081-2025 artfynd.xlsx", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 36081-2025 karta.png", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 36081-2025 FSC-klagomål.docx", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 36081-2025 FSC-klagomål mail.docx", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 36081-2025 tillsynsbegäran.docx", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 36081-2025 tillsynsbegäran mail.docx", "A 36081-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 47785-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47785-2025 artfynd.xlsx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47785-2025 karta.png", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47785-2025 FSC-klagomål.docx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47785-2025 FSC-klagomål mail.docx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47785-2025 tillsynsbegäran.docx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47785-2025 tillsynsbegäran mail.docx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47785-2025 prioriterade fågelarter.docx", "A 47785-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 8063-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka
-Svinrot</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 8063-2024 artfynd.xlsx", "A 8063-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 8063-2024 karta.png", "A 8063-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 8063-2024 FSC-klagomål.docx", "A 8063-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 8063-2024 FSC-klagomål mail.docx", "A 8063-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 8063-2024 tillsynsbegäran.docx", "A 8063-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 8063-2024 tillsynsbegäran mail.docx", "A 8063-2024")</f>
         <v/>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,14 +2090,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 58132-2021</t>
+          <t>A 47569-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44487</v>
+        <v>44853</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,26 +2109,21 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
@@ -2139,55 +2134,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Hårklomossa</t>
+          <t>Färgginst</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 58132-2021 artfynd.xlsx", "A 58132-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47569-2022 artfynd.xlsx", "A 47569-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 58132-2021 karta.png", "A 58132-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47569-2022 karta.png", "A 47569-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 58132-2021 FSC-klagomål.docx", "A 58132-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47569-2022 FSC-klagomål.docx", "A 47569-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 58132-2021 FSC-klagomål mail.docx", "A 58132-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47569-2022 FSC-klagomål mail.docx", "A 47569-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 58132-2021 tillsynsbegäran.docx", "A 58132-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47569-2022 tillsynsbegäran.docx", "A 47569-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 58132-2021 tillsynsbegäran mail.docx", "A 58132-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47569-2022 tillsynsbegäran mail.docx", "A 47569-2022")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 47569-2022</t>
+          <t>A 58132-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44853</v>
+        <v>44487</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2199,11 +2194,16 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2224,55 +2224,55 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Färgginst</t>
+          <t>Hårklomossa</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47569-2022 artfynd.xlsx", "A 47569-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 58132-2021 artfynd.xlsx", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47569-2022 karta.png", "A 47569-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 58132-2021 karta.png", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47569-2022 FSC-klagomål.docx", "A 47569-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 58132-2021 FSC-klagomål.docx", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47569-2022 FSC-klagomål mail.docx", "A 47569-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 58132-2021 FSC-klagomål mail.docx", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47569-2022 tillsynsbegäran.docx", "A 47569-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 58132-2021 tillsynsbegäran.docx", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47569-2022 tillsynsbegäran mail.docx", "A 47569-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 58132-2021 tillsynsbegäran mail.docx", "A 58132-2021")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33297-2023</t>
+          <t>A 27093-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45116</v>
+        <v>45096</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,17 +2284,22 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2309,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2319,45 +2324,49 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 53838-2024</t>
+          <t>A 47915-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45614</v>
+        <v>45589.34315972222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2369,8 +2378,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2379,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2394,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2404,49 +2418,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 2357-2022</t>
+          <t>A 33297-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44578</v>
+        <v>45116</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2459,10 +2469,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2493,49 +2503,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 27093-2023</t>
+          <t>A 38914-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45096</v>
+        <v>45163</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,7 +2559,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2562,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2577,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2587,49 +2593,49 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 49306-2025</t>
+          <t>A 2357-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45938</v>
+        <v>44578</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2642,17 +2648,17 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2676,45 +2682,49 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 38914-2023</t>
+          <t>A 53838-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45163</v>
+        <v>45614</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2726,13 +2736,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2766,49 +2771,49 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47787-2025</t>
+          <t>A 49306-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45931</v>
+        <v>45938</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,16 +2826,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2845,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2855,49 +2860,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 40870-2024</t>
+          <t>A 47787-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45558.59421296296</v>
+        <v>45931</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2909,13 +2910,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2949,49 +2945,49 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 38912-2023</t>
+          <t>A 40870-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45163</v>
+        <v>45558.59421296296</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3009,7 +3005,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -3043,49 +3039,49 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 12720-2024</t>
+          <t>A 38912-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45384</v>
+        <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,7 +3099,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3141,45 +3137,45 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 47915-2024</t>
+          <t>A 12720-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45589.34315972222</v>
+        <v>45384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3193,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3206,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3221,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3231,31 +3227,35 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
         <v/>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
         <v>44805</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44396.35755787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44607.48398148148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44651</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44692</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44470</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3842,14 +3842,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 8186-2022</t>
+          <t>A 54130-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44609</v>
+        <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3861,8 +3861,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3899,14 +3904,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19084-2021</t>
+          <t>A 8186-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44308</v>
+        <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3919,7 +3924,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3956,14 +3961,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 54130-2021</t>
+          <t>A 32729-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44470</v>
+        <v>44375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3973,11 +3978,6 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4018,14 +4018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60889-2021</t>
+          <t>A 19084-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44497.42795138889</v>
+        <v>44308</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4075,14 +4075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 5319-2022</t>
+          <t>A 65456-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44594</v>
+        <v>44515</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4132,14 +4132,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 32729-2021</t>
+          <t>A 52457-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44375</v>
+        <v>44466.38188657408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4151,8 +4151,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,14 +4194,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 65456-2021</t>
+          <t>A 54139-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44515</v>
+        <v>44470</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4208,8 +4213,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4246,14 +4256,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 52457-2021</t>
+          <t>A 60889-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44466.38188657408</v>
+        <v>44497.42795138889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4265,13 +4275,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4315,7 +4320,7 @@
         <v>44643</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4365,14 +4370,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 54139-2021</t>
+          <t>A 68578-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44470</v>
+        <v>44529.52201388889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4390,7 +4395,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4427,14 +4432,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 68578-2021</t>
+          <t>A 25177-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44529.52201388889</v>
+        <v>45462.546875</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4452,7 +4457,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4496,7 +4501,7 @@
         <v>44525.76128472222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4553,7 +4558,7 @@
         <v>44509.65762731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4608,14 +4613,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 63008-2021</t>
+          <t>A 3177-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44505.41567129629</v>
+        <v>44582.61244212963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4627,13 +4632,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 14679-2025</t>
+          <t>A 50378-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45742.56643518519</v>
+        <v>45601.2984375</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61750-2021</t>
+          <t>A 63008-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44501.64055555555</v>
+        <v>44505.41567129629</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38874-2025</t>
+          <t>A 58197-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45887</v>
+        <v>45632.48092592593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>8.300000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4856,14 +4856,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38782-2025</t>
+          <t>A 13236-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45887</v>
+        <v>45735.47133101852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4875,8 +4875,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>18.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4913,14 +4918,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7472-2025</t>
+          <t>A 44806-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45705.46409722222</v>
+        <v>45190.49174768518</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4938,7 +4943,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4975,14 +4980,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 41369-2025</t>
+          <t>A 9510-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45900.56857638889</v>
+        <v>45715.53829861111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4994,8 +4999,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5032,14 +5042,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 41642-2025</t>
+          <t>A 10321-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45901</v>
+        <v>44986.99549768519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5052,7 +5062,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5089,14 +5099,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 18675-2025</t>
+          <t>A 57234-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45763.59862268518</v>
+        <v>45629.54484953704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5108,8 +5118,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5146,14 +5161,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7975-2025</t>
+          <t>A 45861-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45707.46203703704</v>
+        <v>45195</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5171,7 +5186,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5208,14 +5223,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 29607-2022</t>
+          <t>A 6394-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44754.50530092593</v>
+        <v>45338.57230324074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5233,7 +5248,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5270,14 +5285,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 14633-2025</t>
+          <t>A 11084-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45742</v>
+        <v>44986</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5289,13 +5304,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5332,14 +5342,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50207-2024</t>
+          <t>A 25175-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45600.49782407407</v>
+        <v>45462.545625</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5351,8 +5361,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5389,14 +5404,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50208-2024</t>
+          <t>A 56478-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45600.49924768518</v>
+        <v>45624</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5409,7 +5424,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5446,14 +5461,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 22659-2024</t>
+          <t>A 46147-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45447</v>
+        <v>45581.45158564814</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5465,8 +5480,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5503,14 +5523,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 37672-2024</t>
+          <t>A 6387-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45541.57966435186</v>
+        <v>45338.56366898148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5528,7 +5548,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5565,14 +5585,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 12108-2024</t>
+          <t>A 18675-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45376</v>
+        <v>45763.59862268518</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5585,7 +5605,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5622,14 +5642,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 41767-2025</t>
+          <t>A 60933-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45902.54892361111</v>
+        <v>45645.36615740741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5647,7 +5667,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5684,14 +5704,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41766-2025</t>
+          <t>A 53406-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45902.54806712963</v>
+        <v>45614.49704861111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5709,7 +5729,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5746,14 +5766,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18831-2025</t>
+          <t>A 38743-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45764.39109953704</v>
+        <v>44816.34265046296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5771,7 +5791,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5808,14 +5828,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32154-2023</t>
+          <t>A 5319-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45119</v>
+        <v>44594</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5828,7 +5848,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5865,14 +5885,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 56478-2024</t>
+          <t>A 47941-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45624</v>
+        <v>45589.34931712963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5882,6 +5902,11 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -5922,14 +5947,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 8062-2024</t>
+          <t>A 61750-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45351</v>
+        <v>44501.64055555555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5947,7 +5972,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5984,14 +6009,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 53406-2024</t>
+          <t>A 59158-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45614.49704861111</v>
+        <v>44904</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6009,7 +6034,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6046,14 +6071,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 27438-2024</t>
+          <t>A 29607-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45474.40971064815</v>
+        <v>44754.50530092593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6065,8 +6090,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6103,14 +6133,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46288-2024</t>
+          <t>A 6240-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45581.65881944444</v>
+        <v>45337</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6122,13 +6152,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6165,14 +6190,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59206-2024</t>
+          <t>A 26182-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45636</v>
+        <v>45468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6182,6 +6207,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -6222,14 +6252,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 51996-2023</t>
+          <t>A 13405-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45223</v>
+        <v>45387.44760416666</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6241,13 +6271,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6284,14 +6309,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 58629-2024</t>
+          <t>A 46222-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45635.57008101852</v>
+        <v>45581.56938657408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6309,7 +6334,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6346,14 +6371,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 10321-2023</t>
+          <t>A 5277-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44986.99549768519</v>
+        <v>45330</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6366,7 +6391,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6403,14 +6428,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 50102-2023</t>
+          <t>A 26176-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45215</v>
+        <v>45468.55660879629</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6428,7 +6453,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6465,14 +6490,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 36437-2024</t>
+          <t>A 33658-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45535</v>
+        <v>45520.46899305555</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6485,7 +6510,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6522,14 +6547,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62982-2023</t>
+          <t>A 43768-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45272</v>
+        <v>45569</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6542,7 +6567,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6579,14 +6604,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 38904-2023</t>
+          <t>A 38233-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45163</v>
+        <v>45160</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6598,13 +6623,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6641,14 +6661,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 38921-2023</t>
+          <t>A 26185-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45163</v>
+        <v>45468.56267361111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6666,7 +6686,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6703,14 +6723,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 21935-2024</t>
+          <t>A 25923-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45443.47237268519</v>
+        <v>45804</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6724,11 +6744,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6765,14 +6785,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43690-2025</t>
+          <t>A 26301-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45912.38975694445</v>
+        <v>45805.63861111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6790,7 +6810,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6827,14 +6847,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 43694-2025</t>
+          <t>A 26170-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45912.39295138889</v>
+        <v>45805.46351851852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6852,7 +6872,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6889,14 +6909,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 43691-2025</t>
+          <t>A 26153-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45912.39130787037</v>
+        <v>45805.43332175926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6914,7 +6934,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6951,14 +6971,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43752-2025</t>
+          <t>A 26147-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45912</v>
+        <v>45805.4308912037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6970,8 +6990,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7008,14 +7033,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43692-2025</t>
+          <t>A 14452-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45912.39221064815</v>
+        <v>45741.56143518518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7070,14 +7095,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43689-2025</t>
+          <t>A 26783-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45912.38899305555</v>
+        <v>45810.5834375</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7089,13 +7114,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7132,14 +7152,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 23460-2024</t>
+          <t>A 26820-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45453.65363425926</v>
+        <v>45810.63664351852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7189,14 +7209,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 44642-2025</t>
+          <t>A 50766-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45917.52719907407</v>
+        <v>45602.43986111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7208,8 +7228,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7246,14 +7271,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21562-2024</t>
+          <t>A 45365-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45441.65392361111</v>
+        <v>45192.69640046296</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7265,13 +7290,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7308,14 +7328,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 16480-2025</t>
+          <t>A 46220-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45751.57702546296</v>
+        <v>45581.56866898148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7327,8 +7347,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7365,14 +7390,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 24707-2025</t>
+          <t>A 47935-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45798.81579861111</v>
+        <v>45589.34674768519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7384,8 +7409,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7422,14 +7452,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 10672-2024</t>
+          <t>A 46219-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45369.35207175926</v>
+        <v>45581.56686342593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7447,7 +7477,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7484,14 +7514,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 2565-2022</t>
+          <t>A 21952-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44579</v>
+        <v>45443.48370370371</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7503,8 +7533,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7541,14 +7576,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5218-2024</t>
+          <t>A 52566-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45330.64273148148</v>
+        <v>45219</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7560,13 +7595,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7603,14 +7633,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25744-2025</t>
+          <t>A 58164-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45804.18709490741</v>
+        <v>45632.45396990741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7628,7 +7658,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7665,14 +7695,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26301-2025</t>
+          <t>A 50207-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45805.63861111111</v>
+        <v>45600.49782407407</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7684,13 +7714,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7727,14 +7752,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 26147-2025</t>
+          <t>A 50208-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45805.4308912037</v>
+        <v>45600.49924768518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7746,13 +7771,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7789,14 +7809,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 26170-2025</t>
+          <t>A 28369-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45805.46351851852</v>
+        <v>45819.21905092592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7834,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7851,14 +7871,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 26153-2025</t>
+          <t>A 62972-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45805.43332175926</v>
+        <v>45272</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7870,13 +7890,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7913,14 +7928,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 25923-2025</t>
+          <t>A 52131-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45804</v>
+        <v>44463</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7932,13 +7947,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7975,14 +7985,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26820-2025</t>
+          <t>A 28367-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45810.63664351852</v>
+        <v>45819</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7994,8 +8004,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8032,14 +8047,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26783-2025</t>
+          <t>A 28368-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45810.5834375</v>
+        <v>45819.21581018518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8051,8 +8066,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>8.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8089,14 +8109,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 60907-2023</t>
+          <t>A 28370-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45261</v>
+        <v>45819.22013888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8114,7 +8134,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8151,14 +8171,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28367-2025</t>
+          <t>A 50377-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45819</v>
+        <v>45601.29576388889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8176,7 +8196,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8213,14 +8233,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 28368-2025</t>
+          <t>A 23066-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45819.21581018518</v>
+        <v>44719.45199074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8232,13 +8252,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>8.1</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8275,14 +8290,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 28370-2025</t>
+          <t>A 52490-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45819.22013888889</v>
+        <v>45609.55875</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8300,7 +8315,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8337,14 +8352,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 28369-2025</t>
+          <t>A 58120-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45819.21905092592</v>
+        <v>45632.39280092593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8362,7 +8377,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8399,14 +8414,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 25175-2024</t>
+          <t>A 58125-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45462.545625</v>
+        <v>45632.39546296297</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8424,7 +8439,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8461,14 +8476,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26176-2024</t>
+          <t>A 52508-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45468.55660879629</v>
+        <v>45609</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8486,7 +8501,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8523,14 +8538,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3177-2022</t>
+          <t>A 52528-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44582.61244212963</v>
+        <v>45609</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8542,8 +8557,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8580,14 +8600,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 50766-2024</t>
+          <t>A 37672-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45602.43986111111</v>
+        <v>45541.57966435186</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8605,7 +8625,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8642,14 +8662,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 8184-2022</t>
+          <t>A 44735-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44609</v>
+        <v>44438</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8662,7 +8682,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8699,14 +8719,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 46290-2024</t>
+          <t>A 31603-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45581.66018518519</v>
+        <v>45833.73876157407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8718,13 +8738,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8761,14 +8776,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 52506-2024</t>
+          <t>A 59206-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45609</v>
+        <v>45636</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8780,13 +8795,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8823,14 +8833,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 52523-2024</t>
+          <t>A 11085-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45609</v>
+        <v>44986</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8842,13 +8852,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8885,14 +8890,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 23066-2022</t>
+          <t>A 32300-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44719.45199074074</v>
+        <v>45835.71607638889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8905,7 +8910,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8942,14 +8947,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 58197-2024</t>
+          <t>A 12143-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45632.48092592593</v>
+        <v>45729</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8967,7 +8972,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9004,14 +9009,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 31603-2025</t>
+          <t>A 56464-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45833.73876157407</v>
+        <v>45624</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9024,7 +9029,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9061,14 +9066,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 32300-2025</t>
+          <t>A 32717-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45835.71607638889</v>
+        <v>45839.37686342592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9118,14 +9123,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 54515-2023</t>
+          <t>A 2565-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45233.57033564815</v>
+        <v>44579</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9138,7 +9143,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9175,14 +9180,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 32717-2025</t>
+          <t>A 52523-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45839.37686342592</v>
+        <v>45609</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9194,8 +9199,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9232,14 +9242,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 54994-2024</t>
+          <t>A 50764-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45621.27174768518</v>
+        <v>45602.43876157407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9257,7 +9267,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9294,14 +9304,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 48625-2025</t>
+          <t>A 8184-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45936.50938657407</v>
+        <v>44609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9314,7 +9324,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9351,14 +9361,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 56464-2024</t>
+          <t>A 60937-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45624</v>
+        <v>45645.3683912037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9370,8 +9380,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9408,14 +9423,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 33404-2025</t>
+          <t>A 60940-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45841</v>
+        <v>45645.37079861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9427,8 +9442,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9465,14 +9485,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 13236-2025</t>
+          <t>A 56886-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45735.47133101852</v>
+        <v>45628.57332175926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9490,7 +9510,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>18.5</v>
+        <v>1.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9527,14 +9547,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 25177-2024</t>
+          <t>A 12678-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45462.546875</v>
+        <v>45733.44137731481</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9552,7 +9572,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9589,14 +9609,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 13412-2025</t>
+          <t>A 44841-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45736.27773148148</v>
+        <v>45190.55920138889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9614,7 +9634,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9651,14 +9671,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 38233-2023</t>
+          <t>A 33404-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45160</v>
+        <v>45841</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9671,7 +9691,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9708,14 +9728,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 59863-2024</t>
+          <t>A 44807-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45639</v>
+        <v>45190.49269675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9727,8 +9747,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9765,14 +9790,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 14678-2025</t>
+          <t>A 10674-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45742.56563657407</v>
+        <v>45369.35297453704</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9790,7 +9815,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9827,14 +9852,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 14681-2025</t>
+          <t>A 51652-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45742.56857638889</v>
+        <v>45222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9852,7 +9877,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9889,14 +9914,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35706-2025</t>
+          <t>A 14680-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45860.37125</v>
+        <v>45742.56774305556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9908,8 +9933,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9946,14 +9976,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 10674-2024</t>
+          <t>A 14678-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45369.35297453704</v>
+        <v>45742.56563657407</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9971,7 +10001,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10008,14 +10038,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 60933-2024</t>
+          <t>A 14681-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45645.36615740741</v>
+        <v>45742.56857638889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10033,7 +10063,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10070,14 +10100,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 73693-2021</t>
+          <t>A 54082-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44552.48893518518</v>
+        <v>45616.4956712963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10090,7 +10120,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.6</v>
+        <v>6.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10127,14 +10157,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58120-2024</t>
+          <t>A 59863-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45632.39280092593</v>
+        <v>45639</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10146,13 +10176,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10189,14 +10214,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58125-2024</t>
+          <t>A 21649-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45632.39546296297</v>
+        <v>45442.3671412037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10214,7 +10239,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>8.9</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10251,14 +10276,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58164-2024</t>
+          <t>A 18773-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45632.45396990741</v>
+        <v>45763</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10270,13 +10295,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>2.7</v>
+        <v>13</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10313,14 +10333,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 60937-2024</t>
+          <t>A 38904-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45645.3683912037</v>
+        <v>45163</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10338,7 +10358,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10375,14 +10395,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 60940-2024</t>
+          <t>A 38921-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45645.37079861111</v>
+        <v>45163</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10400,7 +10420,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10437,14 +10457,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 36768-2025</t>
+          <t>A 35706-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45873.58413194444</v>
+        <v>45860.37125</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10456,13 +10476,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10499,14 +10514,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 36769-2025</t>
+          <t>A 58479-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45873.58680555555</v>
+        <v>45635.38675925926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10524,7 +10539,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>9.6</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10561,14 +10576,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 9511-2025</t>
+          <t>A 33293-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45715.53921296296</v>
+        <v>45116</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10580,13 +10595,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>7.1</v>
+        <v>17.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10623,14 +10633,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 23683-2025</t>
+          <t>A 51653-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45793.34197916667</v>
+        <v>45222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10642,8 +10652,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10680,14 +10695,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 52566-2023</t>
+          <t>A 48285-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45219</v>
+        <v>45205.55755787037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10699,8 +10714,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10737,14 +10757,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 37333-2025</t>
+          <t>A 32154-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45876.66482638889</v>
+        <v>45119</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10757,7 +10777,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10794,14 +10814,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 37265-2025</t>
+          <t>A 23683-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45876.46099537037</v>
+        <v>45793.34197916667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10814,7 +10834,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10851,14 +10871,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 51040-2025</t>
+          <t>A 36768-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45947.41420138889</v>
+        <v>45873.58413194444</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10876,7 +10896,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10913,14 +10933,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 57234-2024</t>
+          <t>A 36769-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45629.54484953704</v>
+        <v>45873.58680555555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10938,7 +10958,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>9.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10975,14 +10995,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48285-2023</t>
+          <t>A 12108-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45205.55755787037</v>
+        <v>45376</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10994,13 +11014,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>7.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11037,14 +11052,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 15594-2025</t>
+          <t>A 63905-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45747.88466435186</v>
+        <v>44509.65712962963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11056,8 +11071,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11094,14 +11114,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 12148-2025</t>
+          <t>A 37333-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45729</v>
+        <v>45876.66482638889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11113,13 +11133,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11156,14 +11171,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 52099-2025</t>
+          <t>A 37265-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45952</v>
+        <v>45876.46099537037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11176,7 +11191,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11213,14 +11228,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 13413-2025</t>
+          <t>A 14677-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45736.27847222222</v>
+        <v>45742.56465277778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11238,7 +11253,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11275,14 +11290,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 38875-2025</t>
+          <t>A 54994-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45887</v>
+        <v>45621.27174768518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11300,7 +11315,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11337,14 +11352,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 9525-2025</t>
+          <t>A 12148-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45715.56616898148</v>
+        <v>45729</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11362,7 +11377,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11399,14 +11414,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 38872-2025</t>
+          <t>A 8062-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45887.5749074074</v>
+        <v>45351</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11424,7 +11439,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11468,7 +11483,7 @@
         <v>45351.42106481481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11523,14 +11538,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 21952-2024</t>
+          <t>A 10672-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45443.48370370371</v>
+        <v>45369.35207175926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11585,14 +11600,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 54235-2025</t>
+          <t>A 60907-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45964.62569444445</v>
+        <v>45261</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11610,7 +11625,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11647,14 +11662,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 54232-2025</t>
+          <t>A 14633-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45964.62188657407</v>
+        <v>45742</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11672,7 +11687,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11709,14 +11724,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 54233-2025</t>
+          <t>A 14634-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45964.62453703704</v>
+        <v>45742</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11734,7 +11749,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11771,14 +11786,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 55341-2025</t>
+          <t>A 15594-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45971.34751157407</v>
+        <v>45747.88466435186</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11790,13 +11805,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11833,14 +11843,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 62972-2023</t>
+          <t>A 9511-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45272</v>
+        <v>45715.53921296296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11852,8 +11862,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>0.3</v>
+        <v>7.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11890,14 +11905,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 52528-2024</t>
+          <t>A 20577-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45609</v>
+        <v>45057</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11915,7 +11930,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11952,14 +11967,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 12143-2025</t>
+          <t>A 10797-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45729</v>
+        <v>44989</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11971,13 +11986,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.3</v>
+        <v>9.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12014,14 +12024,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 57086-2025</t>
+          <t>A 16480-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45979.42208333333</v>
+        <v>45751.57702546296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12034,7 +12044,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12071,14 +12081,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 14634-2025</t>
+          <t>A 44457-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45742</v>
+        <v>44839</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12090,13 +12100,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12133,14 +12138,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 51653-2023</t>
+          <t>A 22659-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45222</v>
+        <v>45447</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12152,13 +12157,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12195,14 +12195,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 12678-2025</t>
+          <t>A 14679-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45733.44137731481</v>
+        <v>45742.56643518519</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>9.699999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12257,14 +12257,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 20577-2023</t>
+          <t>A 32211-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45057</v>
+        <v>44781.43078703704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12276,13 +12276,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12319,14 +12314,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 45365-2023</t>
+          <t>A 36963-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45192.69640046296</v>
+        <v>44393</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12338,8 +12333,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12376,14 +12376,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 6387-2024</t>
+          <t>A 13412-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45338.56366898148</v>
+        <v>45736.27773148148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12438,14 +12438,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 770-2026</t>
+          <t>A 13414-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46027</v>
+        <v>45736.2803125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12457,8 +12457,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12495,14 +12500,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 46147-2024</t>
+          <t>A 29482-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45581.45158564814</v>
+        <v>45106.57938657407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12514,13 +12519,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12557,14 +12557,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 54082-2024</t>
+          <t>A 46290-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45616.4956712963</v>
+        <v>45581.66018518519</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12576,8 +12576,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>6.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12614,14 +12619,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 6240-2024</t>
+          <t>A 38874-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45337</v>
+        <v>45887</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12633,8 +12638,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12671,14 +12681,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 6394-2024</t>
+          <t>A 73693-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45338.57230324074</v>
+        <v>44552.48893518518</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12690,13 +12700,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12733,14 +12738,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 60524-2025</t>
+          <t>A 38875-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45995.64032407408</v>
+        <v>45887</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12752,8 +12757,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12790,14 +12800,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 11085-2023</t>
+          <t>A 38872-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44986</v>
+        <v>45887.5749074074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12809,8 +12819,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12847,14 +12862,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 60736-2025</t>
+          <t>A 38782-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45996.78688657407</v>
+        <v>45887</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12867,7 +12882,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12904,14 +12919,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 60708-2025</t>
+          <t>A 13415-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45996.6211574074</v>
+        <v>45736.28094907408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12923,8 +12938,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12961,14 +12981,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 56886-2024</t>
+          <t>A 52506-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45628.57332175926</v>
+        <v>45609</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12986,7 +13006,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13023,14 +13043,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 38917-2023</t>
+          <t>A 36437-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45163</v>
+        <v>45535</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13042,13 +13062,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13085,14 +13100,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 38910-2023</t>
+          <t>A 9525-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45163</v>
+        <v>45715.56616898148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13110,7 +13125,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13147,14 +13162,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 44806-2023</t>
+          <t>A 21562-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45190.49174768518</v>
+        <v>45441.65392361111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13172,7 +13187,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13209,14 +13224,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 5277-2024</t>
+          <t>A 8059-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45330</v>
+        <v>45351</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13228,8 +13243,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13266,14 +13286,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 4256-2026</t>
+          <t>A 54515-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46045.33489583333</v>
+        <v>45233.57033564815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13286,7 +13306,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13323,14 +13343,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 38907-2023</t>
+          <t>A 41766-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45163</v>
+        <v>45902.54806712963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13348,7 +13368,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13385,14 +13405,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 50378-2024</t>
+          <t>A 41767-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45601.2984375</v>
+        <v>45902.54892361111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13410,7 +13430,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13447,14 +13467,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 33293-2023</t>
+          <t>A 41369-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45116</v>
+        <v>45900.56857638889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13467,7 +13487,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>17.2</v>
+        <v>1.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13504,14 +13524,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 47941-2024</t>
+          <t>A 13413-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45589.34931712963</v>
+        <v>45736.27847222222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13529,7 +13549,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13566,14 +13586,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 48118-2023</t>
+          <t>A 41642-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45205</v>
+        <v>45901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13585,13 +13605,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13628,14 +13643,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 44807-2023</t>
+          <t>A 38738-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45190.49269675926</v>
+        <v>44816.34217592593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13653,7 +13668,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13690,14 +13705,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 51652-2023</t>
+          <t>A 12729-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45222</v>
+        <v>45384.49421296296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13715,7 +13730,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13752,14 +13767,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 36963-2021</t>
+          <t>A 10320-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44393</v>
+        <v>44986</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13771,13 +13786,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13814,14 +13824,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 46220-2024</t>
+          <t>A 43691-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45581.56866898148</v>
+        <v>45912.39130787037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13839,7 +13849,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13876,14 +13886,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 46222-2024</t>
+          <t>A 43689-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45581.56938657408</v>
+        <v>45912.38899305555</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13901,7 +13911,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13938,14 +13948,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 44457-2022</t>
+          <t>A 43692-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44839</v>
+        <v>45912.39221064815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13957,8 +13967,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13995,14 +14010,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 32211-2022</t>
+          <t>A 43694-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44781.43078703704</v>
+        <v>45912.39295138889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14014,8 +14029,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14052,14 +14072,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 13405-2024</t>
+          <t>A 43690-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45387.44760416666</v>
+        <v>45912.38975694445</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14071,8 +14091,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14109,14 +14134,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 12729-2024</t>
+          <t>A 43752-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45384.49421296296</v>
+        <v>45912</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14128,13 +14153,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14171,14 +14191,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 26185-2024</t>
+          <t>A 7472-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45468.56267361111</v>
+        <v>45705.46409722222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14196,7 +14216,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14233,14 +14253,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 21649-2024</t>
+          <t>A 58477-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45442.3671412037</v>
+        <v>45635.38418981482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14258,7 +14278,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14295,14 +14315,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 58479-2024</t>
+          <t>A 7975-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45635.38675925926</v>
+        <v>45707.46203703704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14320,7 +14340,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14357,14 +14377,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 63905-2021</t>
+          <t>A 44642-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44509.65712962963</v>
+        <v>45917.52719907407</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14376,13 +14396,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14419,14 +14434,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 38743-2022</t>
+          <t>A 18831-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44816.34265046296</v>
+        <v>45764.39109953704</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14444,7 +14459,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14481,14 +14496,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 13415-2025</t>
+          <t>A 58629-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45736.28094907408</v>
+        <v>45635.57008101852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14506,7 +14521,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14543,14 +14558,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 47935-2024</t>
+          <t>A 27438-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45589.34674768519</v>
+        <v>45474.40971064815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14562,13 +14577,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14605,14 +14615,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 52508-2024</t>
+          <t>A 50102-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45609</v>
+        <v>45215</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14630,7 +14640,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14667,14 +14677,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 46219-2024</t>
+          <t>A 51996-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45581.56686342593</v>
+        <v>45223</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14692,7 +14702,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14729,14 +14739,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 50377-2024</t>
+          <t>A 62982-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45601.29576388889</v>
+        <v>45272</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14748,13 +14758,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14791,14 +14796,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 8059-2024</t>
+          <t>A 46288-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45351</v>
+        <v>45581.65881944444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14816,7 +14821,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14853,14 +14858,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 44735-2021</t>
+          <t>A 48625-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44438</v>
+        <v>45936.50938657407</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14873,7 +14878,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14910,14 +14915,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 29482-2023</t>
+          <t>A 21935-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45106.57938657407</v>
+        <v>45443.47237268519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14929,8 +14934,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14967,14 +14977,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 59158-2022</t>
+          <t>A 51040-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44904</v>
+        <v>45947.41420138889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14992,7 +15002,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15029,14 +15039,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 18773-2025</t>
+          <t>A 52099-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45763</v>
+        <v>45952</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15049,7 +15059,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>13</v>
+        <v>2.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15086,14 +15096,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 10320-2023</t>
+          <t>A 23460-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44986</v>
+        <v>45453.65363425926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15106,7 +15116,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15143,14 +15153,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 10797-2023</t>
+          <t>A 5218-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44989</v>
+        <v>45330.64273148148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15162,8 +15172,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15200,14 +15215,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 11084-2023</t>
+          <t>A 54235-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44986</v>
+        <v>45964.62569444445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15219,8 +15234,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15257,14 +15277,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 50764-2024</t>
+          <t>A 24707-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45602.43876157407</v>
+        <v>45798.81579861111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15276,13 +15296,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15319,14 +15334,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 33658-2024</t>
+          <t>A 54232-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45520.46899305555</v>
+        <v>45964.62188657407</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15338,8 +15353,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15376,14 +15396,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 14452-2025</t>
+          <t>A 54233-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45741.56143518518</v>
+        <v>45964.62453703704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15401,7 +15421,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15438,14 +15458,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 45861-2023</t>
+          <t>A 25744-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45195</v>
+        <v>45804.18709490741</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15463,7 +15483,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15500,14 +15520,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 44841-2023</t>
+          <t>A 55341-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45190.55920138889</v>
+        <v>45971.34751157407</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15525,7 +15545,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15562,14 +15582,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 13414-2025</t>
+          <t>A 57086-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45736.2803125</v>
+        <v>45979.42208333333</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15581,13 +15601,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>3.1</v>
+        <v>6.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15624,14 +15639,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 43768-2024</t>
+          <t>A 770-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45569</v>
+        <v>46027</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15644,7 +15659,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15681,14 +15696,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 38738-2022</t>
+          <t>A 60524-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44816.34217592593</v>
+        <v>45995.64032407408</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15700,13 +15715,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15743,14 +15753,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 14677-2025</t>
+          <t>A 60708-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45742.56465277778</v>
+        <v>45996.6211574074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15762,13 +15772,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15805,14 +15810,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 9510-2025</t>
+          <t>A 60736-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45715.53829861111</v>
+        <v>45996.78688657407</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15822,11 +15827,6 @@
       <c r="E240" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G240" t="n">
@@ -15867,14 +15867,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 14680-2025</t>
+          <t>A 38907-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45742.56774305556</v>
+        <v>45163</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15929,14 +15929,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 52131-2021</t>
+          <t>A 38910-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44463</v>
+        <v>45163</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15948,8 +15948,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15986,14 +15991,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 52490-2024</t>
+          <t>A 48118-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45609.55875</v>
+        <v>45205</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16011,7 +16016,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16048,14 +16053,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 58477-2024</t>
+          <t>A 38917-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45635.38418981482</v>
+        <v>45163</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16073,7 +16078,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16110,14 +16115,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 26182-2024</t>
+          <t>A 4256-2026</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45468</v>
+        <v>46045.33489583333</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16129,13 +16134,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45384</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>45175</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         <v>45932</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>45163</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>45205</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45089.56824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1446,14 +1446,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 73321-2021</t>
+          <t>A 47782-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44550</v>
+        <v>45931</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,19 +1466,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>13.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1493,249 +1493,249 @@
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47782-2025 artfynd.xlsx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47782-2025 karta.png", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47782-2025 FSC-klagomål.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47782-2025 FSC-klagomål mail.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47782-2025 tillsynsbegäran.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47782-2025 tillsynsbegäran mail.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47782-2025 prioriterade fågelarter.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 38915-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tretåig hackspett
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38915-2023 artfynd.xlsx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38915-2023 karta.png", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38915-2023 FSC-klagomål.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38915-2023 FSC-klagomål mail.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38915-2023 tillsynsbegäran.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38915-2023 tillsynsbegäran mail.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38915-2023 prioriterade fågelarter.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 73321-2021</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44550</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>17</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Grynig filtlav
 Gulsparv</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 73321-2021 artfynd.xlsx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 73321-2021 karta.png", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/knärot/A 73321-2021 karta knärot.png", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 73321-2021 FSC-klagomål.docx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 73321-2021 FSC-klagomål mail.docx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 73321-2021 tillsynsbegäran.docx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 73321-2021 tillsynsbegäran mail.docx", "A 73321-2021")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 73321-2021 prioriterade fågelarter.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 47782-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47782-2025 artfynd.xlsx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47782-2025 karta.png", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47782-2025 FSC-klagomål.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47782-2025 FSC-klagomål mail.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47782-2025 tillsynsbegäran.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47782-2025 tillsynsbegäran mail.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47782-2025 prioriterade fågelarter.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 38915-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45163</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tretåig hackspett
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38915-2023 artfynd.xlsx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38915-2023 karta.png", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38915-2023 FSC-klagomål.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38915-2023 FSC-klagomål mail.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38915-2023 tillsynsbegäran.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38915-2023 tillsynsbegäran mail.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38915-2023 prioriterade fågelarter.docx", "A 38915-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 8063-2024</t>
+          <t>A 36081-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45351</v>
+        <v>45866</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1792,41 +1792,41 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 8063-2024 artfynd.xlsx", "A 8063-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 36081-2025 artfynd.xlsx", "A 36081-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 8063-2024 karta.png", "A 8063-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 36081-2025 karta.png", "A 36081-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 8063-2024 FSC-klagomål.docx", "A 8063-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 36081-2025 FSC-klagomål.docx", "A 36081-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 8063-2024 FSC-klagomål mail.docx", "A 8063-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 36081-2025 FSC-klagomål mail.docx", "A 36081-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 8063-2024 tillsynsbegäran.docx", "A 8063-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 36081-2025 tillsynsbegäran.docx", "A 36081-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 8063-2024 tillsynsbegäran mail.docx", "A 8063-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 36081-2025 tillsynsbegäran mail.docx", "A 36081-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 36081-2025</t>
+          <t>A 47785-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45866</v>
+        <v>45931</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1838,22 +1838,17 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1868,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1878,122 +1873,127 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47785-2025 artfynd.xlsx", "A 47785-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47785-2025 karta.png", "A 47785-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47785-2025 FSC-klagomål.docx", "A 47785-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47785-2025 FSC-klagomål mail.docx", "A 47785-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47785-2025 tillsynsbegäran.docx", "A 47785-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47785-2025 tillsynsbegäran mail.docx", "A 47785-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47785-2025 prioriterade fågelarter.docx", "A 47785-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 8063-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Skogsklocka
 Svinrot</t>
         </is>
       </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 36081-2025 artfynd.xlsx", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 36081-2025 karta.png", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 36081-2025 FSC-klagomål.docx", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 36081-2025 FSC-klagomål mail.docx", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 36081-2025 tillsynsbegäran.docx", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 36081-2025 tillsynsbegäran mail.docx", "A 36081-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 47785-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47785-2025 artfynd.xlsx", "A 47785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 8063-2024 artfynd.xlsx", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47785-2025 karta.png", "A 47785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 8063-2024 karta.png", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47785-2025 FSC-klagomål.docx", "A 47785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 8063-2024 FSC-klagomål.docx", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47785-2025 FSC-klagomål mail.docx", "A 47785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 8063-2024 FSC-klagomål mail.docx", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47785-2025 tillsynsbegäran.docx", "A 47785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 8063-2024 tillsynsbegäran.docx", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47785-2025 tillsynsbegäran mail.docx", "A 47785-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47785-2025 prioriterade fågelarter.docx", "A 47785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 8063-2024 tillsynsbegäran mail.docx", "A 8063-2024")</f>
         <v/>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,14 +2090,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 47569-2022</t>
+          <t>A 58132-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44853</v>
+        <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,11 +2109,16 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2122,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2134,55 +2139,55 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Färgginst</t>
+          <t>Hårklomossa</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47569-2022 artfynd.xlsx", "A 47569-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 58132-2021 artfynd.xlsx", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47569-2022 karta.png", "A 47569-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 58132-2021 karta.png", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47569-2022 FSC-klagomål.docx", "A 47569-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 58132-2021 FSC-klagomål.docx", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47569-2022 FSC-klagomål mail.docx", "A 47569-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 58132-2021 FSC-klagomål mail.docx", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47569-2022 tillsynsbegäran.docx", "A 47569-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 58132-2021 tillsynsbegäran.docx", "A 58132-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47569-2022 tillsynsbegäran mail.docx", "A 47569-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 58132-2021 tillsynsbegäran mail.docx", "A 58132-2021")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 58132-2021</t>
+          <t>A 47569-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44487</v>
+        <v>44853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2194,26 +2199,21 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
@@ -2224,55 +2224,55 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Hårklomossa</t>
+          <t>Färgginst</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 58132-2021 artfynd.xlsx", "A 58132-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47569-2022 artfynd.xlsx", "A 47569-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 58132-2021 karta.png", "A 58132-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47569-2022 karta.png", "A 47569-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 58132-2021 FSC-klagomål.docx", "A 58132-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47569-2022 FSC-klagomål.docx", "A 47569-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 58132-2021 FSC-klagomål mail.docx", "A 58132-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47569-2022 FSC-klagomål mail.docx", "A 47569-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 58132-2021 tillsynsbegäran.docx", "A 58132-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47569-2022 tillsynsbegäran.docx", "A 47569-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 58132-2021 tillsynsbegäran mail.docx", "A 58132-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47569-2022 tillsynsbegäran mail.docx", "A 47569-2022")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 27093-2023</t>
+          <t>A 33297-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45096</v>
+        <v>45116</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,23 +2284,18 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2314,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2324,49 +2319,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 47915-2024</t>
+          <t>A 27093-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45589.34315972222</v>
+        <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2384,7 +2375,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2418,45 +2409,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 33297-2023</t>
+          <t>A 38914-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45116</v>
+        <v>45163</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2468,11 +2463,16 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2503,45 +2503,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 38914-2023</t>
+          <t>A 49306-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45163</v>
+        <v>45938</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2553,22 +2557,17 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2583,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2593,49 +2592,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 2357-2022</t>
+          <t>A 47787-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44578</v>
+        <v>45931</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2648,7 +2643,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2682,49 +2677,49 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 53838-2024</t>
+          <t>A 40870-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45614</v>
+        <v>45558.59421296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2736,8 +2731,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2775,45 +2775,45 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 49306-2025</t>
+          <t>A 38912-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45938</v>
+        <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2825,18 +2825,23 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
@@ -2850,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2860,45 +2865,49 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 47787-2025</t>
+          <t>A 12720-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45931</v>
+        <v>45384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2910,8 +2919,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2949,45 +2963,45 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 40870-2024</t>
+          <t>A 47915-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45558.59421296296</v>
+        <v>45589.34315972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3019,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -3014,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3029,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3039,49 +3053,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 38912-2023</t>
+          <t>A 53838-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45163</v>
+        <v>45614</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3093,13 +3103,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3133,49 +3138,49 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 12720-2024</t>
+          <t>A 2357-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45384</v>
+        <v>44578</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3187,13 +3192,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3227,35 +3227,35 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
         <v/>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
         <v>44805</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44396.35755787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44607.48398148148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44651</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44692</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44470</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3842,14 +3842,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 54130-2021</t>
+          <t>A 8186-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44470</v>
+        <v>44609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3861,13 +3861,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3904,14 +3899,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8186-2022</t>
+          <t>A 19084-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44609</v>
+        <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3924,7 +3919,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3961,14 +3956,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 32729-2021</t>
+          <t>A 54130-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44375</v>
+        <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3978,6 +3973,11 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4018,14 +4018,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19084-2021</t>
+          <t>A 60889-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44308</v>
+        <v>44497.42795138889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4075,14 +4075,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 65456-2021</t>
+          <t>A 5319-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44515</v>
+        <v>44594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4132,14 +4132,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52457-2021</t>
+          <t>A 32729-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44466.38188657408</v>
+        <v>44375</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4151,13 +4151,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,14 +4189,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 54139-2021</t>
+          <t>A 65456-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4213,13 +4208,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4256,14 +4246,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 60889-2021</t>
+          <t>A 52457-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44497.42795138889</v>
+        <v>44466.38188657408</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4275,8 +4265,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4320,7 +4315,7 @@
         <v>44643</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4370,14 +4365,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 68578-2021</t>
+          <t>A 54139-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44529.52201388889</v>
+        <v>44470</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4395,7 +4390,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4432,14 +4427,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 25177-2024</t>
+          <t>A 68578-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45462.546875</v>
+        <v>44529.52201388889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4457,7 +4452,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4501,7 +4496,7 @@
         <v>44525.76128472222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4558,7 +4553,7 @@
         <v>44509.65762731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4613,14 +4608,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 3177-2022</t>
+          <t>A 63008-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44582.61244212963</v>
+        <v>44505.41567129629</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4632,8 +4627,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 50378-2024</t>
+          <t>A 14679-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45601.2984375</v>
+        <v>45742.56643518519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 63008-2021</t>
+          <t>A 7975-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44505.41567129629</v>
+        <v>45707.46203703704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 58197-2024</t>
+          <t>A 18675-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45632.48092592593</v>
+        <v>45763.59862268518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4813,13 +4813,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4856,14 +4851,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 13236-2025</t>
+          <t>A 29607-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45735.47133101852</v>
+        <v>44754.50530092593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4881,7 +4876,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>18.5</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4918,14 +4913,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 44806-2023</t>
+          <t>A 37672-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45190.49174768518</v>
+        <v>45541.57966435186</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4943,7 +4938,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4980,14 +4975,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9510-2025</t>
+          <t>A 56478-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45715.53829861111</v>
+        <v>45624</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4999,13 +4994,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5042,14 +5032,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10321-2023</t>
+          <t>A 8062-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44986.99549768519</v>
+        <v>45351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5061,8 +5051,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5099,14 +5094,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 57234-2024</t>
+          <t>A 53406-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45629.54484953704</v>
+        <v>45614.49704861111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5124,7 +5119,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5161,14 +5156,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 45861-2023</t>
+          <t>A 59206-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45195</v>
+        <v>45636</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5180,13 +5175,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5223,14 +5213,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6394-2024</t>
+          <t>A 10321-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45338.57230324074</v>
+        <v>44986.99549768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5242,13 +5232,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5285,14 +5270,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11084-2023</t>
+          <t>A 23460-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44986</v>
+        <v>45453.65363425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5305,7 +5290,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5342,14 +5327,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25175-2024</t>
+          <t>A 36437-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45462.545625</v>
+        <v>45535</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5361,13 +5346,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5404,14 +5384,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 56478-2024</t>
+          <t>A 24707-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45624</v>
+        <v>45798.81579861111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5424,7 +5404,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5461,14 +5441,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 46147-2024</t>
+          <t>A 5218-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45581.45158564814</v>
+        <v>45330.64273148148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5486,7 +5466,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5523,14 +5503,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 6387-2024</t>
+          <t>A 38904-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45338.56366898148</v>
+        <v>45163</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5548,7 +5528,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5585,14 +5565,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 18675-2025</t>
+          <t>A 38921-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45763.59862268518</v>
+        <v>45163</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5604,8 +5584,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5642,14 +5627,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60933-2024</t>
+          <t>A 38874-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45645.36615740741</v>
+        <v>45887</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5667,7 +5652,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5704,14 +5689,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 53406-2024</t>
+          <t>A 38782-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45614.49704861111</v>
+        <v>45887</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5723,13 +5708,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5766,14 +5746,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 38743-2022</t>
+          <t>A 25744-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44816.34265046296</v>
+        <v>45804.18709490741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5791,7 +5771,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5828,14 +5808,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 5319-2022</t>
+          <t>A 26301-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44594</v>
+        <v>45805.63861111111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5847,8 +5827,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5885,14 +5870,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47941-2024</t>
+          <t>A 26147-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45589.34931712963</v>
+        <v>45805.4308912037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5910,7 +5895,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5947,14 +5932,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 61750-2021</t>
+          <t>A 26170-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44501.64055555555</v>
+        <v>45805.46351851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5972,7 +5957,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6009,14 +5994,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59158-2022</t>
+          <t>A 26153-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44904</v>
+        <v>45805.43332175926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6034,7 +6019,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6071,14 +6056,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29607-2022</t>
+          <t>A 25923-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44754.50530092593</v>
+        <v>45804</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6092,11 +6077,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6133,14 +6118,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6240-2024</t>
+          <t>A 26820-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45337</v>
+        <v>45810.63664351852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6153,7 +6138,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6190,14 +6175,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26182-2024</t>
+          <t>A 26783-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45468</v>
+        <v>45810.5834375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6209,13 +6194,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6252,14 +6232,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13405-2024</t>
+          <t>A 21562-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45387.44760416666</v>
+        <v>45441.65392361111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6271,8 +6251,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6309,14 +6294,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 46222-2024</t>
+          <t>A 16480-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45581.56938657408</v>
+        <v>45751.57702546296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6328,13 +6313,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>5.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6371,14 +6351,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 5277-2024</t>
+          <t>A 10672-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45330</v>
+        <v>45369.35207175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6390,8 +6370,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6428,14 +6413,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 26176-2024</t>
+          <t>A 2565-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45468.55660879629</v>
+        <v>44579</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6447,13 +6432,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6490,14 +6470,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 33658-2024</t>
+          <t>A 28367-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45520.46899305555</v>
+        <v>45819</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6509,8 +6489,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6547,14 +6532,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43768-2024</t>
+          <t>A 28368-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45569</v>
+        <v>45819.21581018518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6566,8 +6551,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6604,14 +6594,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 38233-2023</t>
+          <t>A 28370-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45160</v>
+        <v>45819.22013888889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6623,8 +6613,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6661,14 +6656,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26185-2024</t>
+          <t>A 28369-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45468.56267361111</v>
+        <v>45819.21905092592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6686,7 +6681,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6723,14 +6718,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25923-2025</t>
+          <t>A 23066-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45804</v>
+        <v>44719.45199074074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6742,13 +6737,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6785,14 +6775,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 26301-2025</t>
+          <t>A 60907-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45805.63861111111</v>
+        <v>45261</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6810,7 +6800,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6847,14 +6837,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26170-2025</t>
+          <t>A 31603-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45805.46351851852</v>
+        <v>45833.73876157407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6866,13 +6856,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6909,14 +6894,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26153-2025</t>
+          <t>A 32300-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45805.43332175926</v>
+        <v>45835.71607638889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6928,13 +6913,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6971,14 +6951,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 26147-2025</t>
+          <t>A 25175-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45805.4308912037</v>
+        <v>45462.545625</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6996,7 +6976,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7033,14 +7013,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 14452-2025</t>
+          <t>A 32717-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45741.56143518518</v>
+        <v>45839.37686342592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7052,13 +7032,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7095,14 +7070,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 26783-2025</t>
+          <t>A 26176-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45810.5834375</v>
+        <v>45468.55660879629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7114,8 +7089,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7152,14 +7132,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 26820-2025</t>
+          <t>A 3177-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45810.63664351852</v>
+        <v>44582.61244212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7172,7 +7152,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7209,14 +7189,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 50766-2024</t>
+          <t>A 41369-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45602.43986111111</v>
+        <v>45900.56857638889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7228,13 +7208,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7271,14 +7246,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 45365-2023</t>
+          <t>A 50766-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45192.69640046296</v>
+        <v>45602.43986111111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7290,8 +7265,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7328,14 +7308,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46220-2024</t>
+          <t>A 8184-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45581.56866898148</v>
+        <v>44609</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7347,13 +7327,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7390,14 +7365,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 47935-2024</t>
+          <t>A 46290-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45589.34674768519</v>
+        <v>45581.66018518519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7415,7 +7390,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7452,14 +7427,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46219-2024</t>
+          <t>A 41642-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45581.56686342593</v>
+        <v>45901</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7471,13 +7446,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7514,14 +7484,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 21952-2024</t>
+          <t>A 33404-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45443.48370370371</v>
+        <v>45841</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7533,13 +7503,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7576,14 +7541,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 52566-2023</t>
+          <t>A 52506-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45219</v>
+        <v>45609</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7595,8 +7560,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7633,14 +7603,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58164-2024</t>
+          <t>A 52523-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45632.45396990741</v>
+        <v>45609</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7658,7 +7628,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7695,14 +7665,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 50207-2024</t>
+          <t>A 58197-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45600.49782407407</v>
+        <v>45632.48092592593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7714,8 +7684,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7752,14 +7727,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 50208-2024</t>
+          <t>A 59863-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45600.49924768518</v>
+        <v>45639</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7772,7 +7747,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7809,14 +7784,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 28369-2025</t>
+          <t>A 14678-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45819.21905092592</v>
+        <v>45742.56563657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7834,7 +7809,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7871,14 +7846,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 62972-2023</t>
+          <t>A 14681-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45272</v>
+        <v>45742.56857638889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7890,8 +7865,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7928,14 +7908,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 52131-2021</t>
+          <t>A 41767-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44463</v>
+        <v>45902.54892361111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7947,8 +7927,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7985,14 +7970,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 28367-2025</t>
+          <t>A 41766-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45819</v>
+        <v>45902.54806712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8010,7 +7995,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8047,14 +8032,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 28368-2025</t>
+          <t>A 54515-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45819.21581018518</v>
+        <v>45233.57033564815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8066,13 +8051,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>8.1</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8109,14 +8089,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 28370-2025</t>
+          <t>A 35706-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45819.22013888889</v>
+        <v>45860.37125</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8128,13 +8108,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>8.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8171,14 +8146,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 50377-2024</t>
+          <t>A 54994-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45601.29576388889</v>
+        <v>45621.27174768518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8196,7 +8171,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8233,14 +8208,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 23066-2022</t>
+          <t>A 56464-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44719.45199074074</v>
+        <v>45624</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8253,7 +8228,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8290,14 +8265,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 52490-2024</t>
+          <t>A 36768-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45609.55875</v>
+        <v>45873.58413194444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8315,7 +8290,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8352,14 +8327,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 58120-2024</t>
+          <t>A 36769-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45632.39280092593</v>
+        <v>45873.58680555555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8377,7 +8352,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.1</v>
+        <v>9.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8414,14 +8389,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 58125-2024</t>
+          <t>A 23683-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45632.39546296297</v>
+        <v>45793.34197916667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8433,13 +8408,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>8.9</v>
+        <v>3.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8476,14 +8446,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 52508-2024</t>
+          <t>A 13236-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45609</v>
+        <v>45735.47133101852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8501,7 +8471,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.2</v>
+        <v>18.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8538,14 +8508,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 52528-2024</t>
+          <t>A 25177-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45609</v>
+        <v>45462.546875</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8563,7 +8533,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8600,14 +8570,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 37672-2024</t>
+          <t>A 13412-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45541.57966435186</v>
+        <v>45736.27773148148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8625,7 +8595,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8662,14 +8632,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 44735-2021</t>
+          <t>A 38233-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44438</v>
+        <v>45160</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8682,7 +8652,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8719,14 +8689,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 31603-2025</t>
+          <t>A 37333-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45833.73876157407</v>
+        <v>45876.66482638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8739,7 +8709,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8776,14 +8746,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 59206-2024</t>
+          <t>A 37265-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45636</v>
+        <v>45876.46099537037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8796,7 +8766,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8833,14 +8803,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 11085-2023</t>
+          <t>A 15594-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44986</v>
+        <v>45747.88466435186</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8853,7 +8823,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8890,14 +8860,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 32300-2025</t>
+          <t>A 10674-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45835.71607638889</v>
+        <v>45369.35297453704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8909,8 +8879,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8947,14 +8922,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 12143-2025</t>
+          <t>A 60933-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45729</v>
+        <v>45645.36615740741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8972,7 +8947,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9009,14 +8984,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 56464-2024</t>
+          <t>A 43690-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45624</v>
+        <v>45912.38975694445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9028,8 +9003,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9066,14 +9046,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 32717-2025</t>
+          <t>A 43694-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45839.37686342592</v>
+        <v>45912.39295138889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9085,8 +9065,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9123,14 +9108,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 2565-2022</t>
+          <t>A 43691-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44579</v>
+        <v>45912.39130787037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9142,8 +9127,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9180,14 +9170,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 52523-2024</t>
+          <t>A 43752-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45609</v>
+        <v>45912</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9199,13 +9189,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9242,14 +9227,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 50764-2024</t>
+          <t>A 43692-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45602.43876157407</v>
+        <v>45912.39221064815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9267,7 +9252,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9304,14 +9289,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 8184-2022</t>
+          <t>A 73693-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44609</v>
+        <v>44552.48893518518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9324,7 +9309,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9361,14 +9346,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60937-2024</t>
+          <t>A 58120-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45645.3683912037</v>
+        <v>45632.39280092593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9386,7 +9371,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9423,14 +9408,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 60940-2024</t>
+          <t>A 58125-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45645.37079861111</v>
+        <v>45632.39546296297</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9448,7 +9433,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>8.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9485,14 +9470,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 56886-2024</t>
+          <t>A 58164-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45628.57332175926</v>
+        <v>45632.45396990741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9510,7 +9495,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9547,14 +9532,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 12678-2025</t>
+          <t>A 43689-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45733.44137731481</v>
+        <v>45912.38899305555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9572,7 +9557,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>9.699999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9609,14 +9594,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 44841-2023</t>
+          <t>A 60937-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45190.55920138889</v>
+        <v>45645.3683912037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9634,7 +9619,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9671,14 +9656,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33404-2025</t>
+          <t>A 60940-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45841</v>
+        <v>45645.37079861111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9690,8 +9675,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9728,14 +9718,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 44807-2023</t>
+          <t>A 9511-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45190.49269675926</v>
+        <v>45715.53921296296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9753,7 +9743,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5.4</v>
+        <v>7.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9790,14 +9780,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 10674-2024</t>
+          <t>A 44642-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45369.35297453704</v>
+        <v>45917.52719907407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9809,13 +9799,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>0.3</v>
+        <v>4.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9852,14 +9837,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 51652-2023</t>
+          <t>A 38875-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45222</v>
+        <v>45887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9877,7 +9862,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9914,14 +9899,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 14680-2025</t>
+          <t>A 9525-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45742.56774305556</v>
+        <v>45715.56616898148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9939,7 +9924,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9976,14 +9961,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 14678-2025</t>
+          <t>A 38872-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45742.56563657407</v>
+        <v>45887.5749074074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10001,7 +9986,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10038,14 +10023,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 14681-2025</t>
+          <t>A 52566-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45742.56857638889</v>
+        <v>45219</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10057,13 +10042,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10100,14 +10080,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 54082-2024</t>
+          <t>A 57234-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45616.4956712963</v>
+        <v>45629.54484953704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10119,8 +10099,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10157,14 +10142,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 59863-2024</t>
+          <t>A 48285-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45639</v>
+        <v>45205.55755787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10176,8 +10161,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10214,14 +10204,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 21649-2024</t>
+          <t>A 12148-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45442.3671412037</v>
+        <v>45729</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10239,7 +10229,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10276,14 +10266,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 18773-2025</t>
+          <t>A 48625-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45763</v>
+        <v>45936.50938657407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10296,7 +10286,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>13</v>
+        <v>1.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10333,14 +10323,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 38904-2023</t>
+          <t>A 13413-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45163</v>
+        <v>45736.27847222222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10358,7 +10348,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10395,14 +10385,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 38921-2023</t>
+          <t>A 8074-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45163</v>
+        <v>45351.42106481481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10420,7 +10410,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10457,14 +10447,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 35706-2025</t>
+          <t>A 21952-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45860.37125</v>
+        <v>45443.48370370371</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10476,8 +10466,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10514,14 +10509,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58479-2024</t>
+          <t>A 62972-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45635.38675925926</v>
+        <v>45272</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10533,13 +10528,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10576,14 +10566,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 33293-2023</t>
+          <t>A 52528-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45116</v>
+        <v>45609</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10595,8 +10585,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>17.2</v>
+        <v>4.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10633,14 +10628,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 51653-2023</t>
+          <t>A 51040-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45222</v>
+        <v>45947.41420138889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10658,7 +10653,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10695,14 +10690,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48285-2023</t>
+          <t>A 12143-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45205.55755787037</v>
+        <v>45729</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10720,7 +10715,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10757,14 +10752,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 32154-2023</t>
+          <t>A 14634-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45119</v>
+        <v>45742</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10776,8 +10771,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10814,14 +10814,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 23683-2025</t>
+          <t>A 51653-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45793.34197916667</v>
+        <v>45222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10833,8 +10833,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10871,14 +10876,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 36768-2025</t>
+          <t>A 12678-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45873.58413194444</v>
+        <v>45733.44137731481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10896,7 +10901,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10933,14 +10938,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 36769-2025</t>
+          <t>A 52099-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45873.58680555555</v>
+        <v>45952</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10952,13 +10957,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>9.6</v>
+        <v>2.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10995,14 +10995,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 12108-2024</t>
+          <t>A 20577-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45376</v>
+        <v>45057</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11014,8 +11014,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>7.7</v>
+        <v>1.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11052,14 +11057,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 63905-2021</t>
+          <t>A 45365-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44509.65712962963</v>
+        <v>45192.69640046296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11071,13 +11076,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11114,14 +11114,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 37333-2025</t>
+          <t>A 6387-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45876.66482638889</v>
+        <v>45338.56366898148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11133,8 +11133,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11171,14 +11176,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 37265-2025</t>
+          <t>A 46147-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45876.46099537037</v>
+        <v>45581.45158564814</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11190,8 +11195,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11228,14 +11238,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 14677-2025</t>
+          <t>A 54082-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45742.56465277778</v>
+        <v>45616.4956712963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11247,13 +11257,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11290,14 +11295,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 54994-2024</t>
+          <t>A 54235-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45621.27174768518</v>
+        <v>45964.62569444445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11315,7 +11320,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11352,14 +11357,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 12148-2025</t>
+          <t>A 6240-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45729</v>
+        <v>45337</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11371,13 +11376,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11414,14 +11414,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 8062-2024</t>
+          <t>A 54232-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45351</v>
+        <v>45964.62188657407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11476,14 +11476,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 8074-2024</t>
+          <t>A 54233-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45351.42106481481</v>
+        <v>45964.62453703704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11538,14 +11538,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 10672-2024</t>
+          <t>A 6394-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45369.35207175926</v>
+        <v>45338.57230324074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11600,14 +11600,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 60907-2023</t>
+          <t>A 11085-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45261</v>
+        <v>44986</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11619,13 +11619,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11662,14 +11657,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 14633-2025</t>
+          <t>A 55341-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45742</v>
+        <v>45971.34751157407</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11687,7 +11682,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11724,14 +11719,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 14634-2025</t>
+          <t>A 56886-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45742</v>
+        <v>45628.57332175926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11749,7 +11744,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11786,14 +11781,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 15594-2025</t>
+          <t>A 57086-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45747.88466435186</v>
+        <v>45979.42208333333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11806,7 +11801,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11843,14 +11838,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 9511-2025</t>
+          <t>A 44806-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45715.53921296296</v>
+        <v>45190.49174768518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11868,7 +11863,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>7.1</v>
+        <v>1.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11905,14 +11900,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 20577-2023</t>
+          <t>A 5277-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45057</v>
+        <v>45330</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11924,13 +11919,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11967,14 +11957,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 10797-2023</t>
+          <t>A 50378-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44989</v>
+        <v>45601.2984375</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11986,8 +11976,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>9.5</v>
+        <v>4.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12024,14 +12019,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 16480-2025</t>
+          <t>A 33293-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45751.57702546296</v>
+        <v>45116</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12044,7 +12039,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.2</v>
+        <v>17.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12081,14 +12076,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 44457-2022</t>
+          <t>A 47941-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44839</v>
+        <v>45589.34931712963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12100,8 +12095,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12138,14 +12138,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 22659-2024</t>
+          <t>A 44807-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45447</v>
+        <v>45190.49269675926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12157,8 +12157,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12195,14 +12200,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 14679-2025</t>
+          <t>A 770-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45742.56643518519</v>
+        <v>46027</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12214,13 +12219,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12257,14 +12257,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 32211-2022</t>
+          <t>A 51652-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44781.43078703704</v>
+        <v>45222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12276,8 +12276,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12321,7 +12326,7 @@
         <v>44393</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12376,14 +12381,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 13412-2025</t>
+          <t>A 46220-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45736.27773148148</v>
+        <v>45581.56866898148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12401,7 +12406,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12438,14 +12443,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 13414-2025</t>
+          <t>A 46222-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45736.2803125</v>
+        <v>45581.56938657408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12463,7 +12468,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12500,14 +12505,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 29482-2023</t>
+          <t>A 44457-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45106.57938657407</v>
+        <v>44839</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12520,7 +12525,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12557,14 +12562,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 46290-2024</t>
+          <t>A 32211-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45581.66018518519</v>
+        <v>44781.43078703704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12576,13 +12581,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>8.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12619,14 +12619,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 38874-2025</t>
+          <t>A 13405-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45887</v>
+        <v>45387.44760416666</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12638,13 +12638,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12681,14 +12676,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 73693-2021</t>
+          <t>A 12729-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44552.48893518518</v>
+        <v>45384.49421296296</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12700,8 +12695,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12738,14 +12738,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 38875-2025</t>
+          <t>A 60524-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45887</v>
+        <v>45995.64032407408</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12757,13 +12757,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12800,14 +12795,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 38872-2025</t>
+          <t>A 26185-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45887.5749074074</v>
+        <v>45468.56267361111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12825,7 +12820,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12862,14 +12857,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 38782-2025</t>
+          <t>A 21649-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45887</v>
+        <v>45442.3671412037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,8 +12876,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12919,14 +12919,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 13415-2025</t>
+          <t>A 60736-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45736.28094907408</v>
+        <v>45996.78688657407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,13 +12938,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12981,14 +12976,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 52506-2024</t>
+          <t>A 60708-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45609</v>
+        <v>45996.6211574074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13000,13 +12995,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13043,14 +13033,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 36437-2024</t>
+          <t>A 58479-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45535</v>
+        <v>45635.38675925926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13062,8 +13052,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13100,14 +13095,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 9525-2025</t>
+          <t>A 38917-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45715.56616898148</v>
+        <v>45163</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13125,7 +13120,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13162,14 +13157,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 21562-2024</t>
+          <t>A 38910-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45441.65392361111</v>
+        <v>45163</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13224,14 +13219,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 8059-2024</t>
+          <t>A 4256-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45351</v>
+        <v>46045.33489583333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13243,13 +13238,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13286,14 +13276,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 54515-2023</t>
+          <t>A 38907-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45233.57033564815</v>
+        <v>45163</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13305,8 +13295,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13343,14 +13338,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 41766-2025</t>
+          <t>A 48118-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45902.54806712963</v>
+        <v>45205</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13368,7 +13363,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13405,14 +13400,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 41767-2025</t>
+          <t>A 63905-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45902.54892361111</v>
+        <v>44509.65712962963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13430,7 +13425,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13467,14 +13462,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 41369-2025</t>
+          <t>A 38743-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45900.56857638889</v>
+        <v>44816.34265046296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13486,8 +13481,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13524,14 +13524,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 13413-2025</t>
+          <t>A 13415-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45736.27847222222</v>
+        <v>45736.28094907408</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13586,14 +13586,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 41642-2025</t>
+          <t>A 47935-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45901</v>
+        <v>45589.34674768519</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13605,8 +13605,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13643,14 +13648,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 38738-2022</t>
+          <t>A 52508-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44816.34217592593</v>
+        <v>45609</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13668,7 +13673,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13705,14 +13710,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 12729-2024</t>
+          <t>A 46219-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45384.49421296296</v>
+        <v>45581.56686342593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13730,7 +13735,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13767,14 +13772,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 10320-2023</t>
+          <t>A 50377-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44986</v>
+        <v>45601.29576388889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13786,8 +13791,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13824,14 +13834,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 43691-2025</t>
+          <t>A 8059-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45912.39130787037</v>
+        <v>45351</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13849,7 +13859,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13886,14 +13896,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 43689-2025</t>
+          <t>A 44735-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45912.38899305555</v>
+        <v>44438</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13905,13 +13915,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13948,14 +13953,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 43692-2025</t>
+          <t>A 29482-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45912.39221064815</v>
+        <v>45106.57938657407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13967,13 +13972,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14010,14 +14010,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 43694-2025</t>
+          <t>A 59158-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45912.39295138889</v>
+        <v>44904</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14072,14 +14072,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 43690-2025</t>
+          <t>A 18773-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45912.38975694445</v>
+        <v>45763</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14091,13 +14091,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14134,14 +14129,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 43752-2025</t>
+          <t>A 10320-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45912</v>
+        <v>44986</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14154,7 +14149,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14191,14 +14186,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 7472-2025</t>
+          <t>A 10797-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45705.46409722222</v>
+        <v>44989</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14210,13 +14205,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14253,14 +14243,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 58477-2024</t>
+          <t>A 11084-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45635.38418981482</v>
+        <v>44986</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14272,13 +14262,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14315,14 +14300,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 7975-2025</t>
+          <t>A 50764-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45707.46203703704</v>
+        <v>45602.43876157407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14340,7 +14325,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14377,14 +14362,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 44642-2025</t>
+          <t>A 33658-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45917.52719907407</v>
+        <v>45520.46899305555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14397,7 +14382,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14434,14 +14419,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 18831-2025</t>
+          <t>A 14452-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45764.39109953704</v>
+        <v>45741.56143518518</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14459,7 +14444,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14496,14 +14481,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 58629-2024</t>
+          <t>A 45861-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45635.57008101852</v>
+        <v>45195</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14521,7 +14506,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14558,14 +14543,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 27438-2024</t>
+          <t>A 44841-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45474.40971064815</v>
+        <v>45190.55920138889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14577,8 +14562,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14615,14 +14605,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 50102-2023</t>
+          <t>A 13414-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45215</v>
+        <v>45736.2803125</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14640,7 +14630,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14677,14 +14667,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 51996-2023</t>
+          <t>A 43768-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45223</v>
+        <v>45569</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14696,13 +14686,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14739,14 +14724,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 62982-2023</t>
+          <t>A 38738-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45272</v>
+        <v>44816.34217592593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14758,8 +14743,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14796,14 +14786,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 46288-2024</t>
+          <t>A 14677-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45581.65881944444</v>
+        <v>45742.56465277778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14821,7 +14811,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14858,14 +14848,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 48625-2025</t>
+          <t>A 9510-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45936.50938657407</v>
+        <v>45715.53829861111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14877,8 +14867,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14915,14 +14910,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 21935-2024</t>
+          <t>A 14680-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45443.47237268519</v>
+        <v>45742.56774305556</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14940,7 +14935,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14977,14 +14972,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 51040-2025</t>
+          <t>A 52131-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45947.41420138889</v>
+        <v>44463</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14996,13 +14991,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15039,14 +15029,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 52099-2025</t>
+          <t>A 52490-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45952</v>
+        <v>45609.55875</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15058,8 +15048,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>2.6</v>
+        <v>6.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15096,14 +15091,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 23460-2024</t>
+          <t>A 58477-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45453.65363425926</v>
+        <v>45635.38418981482</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15115,8 +15110,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15153,14 +15153,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 5218-2024</t>
+          <t>A 26182-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45330.64273148148</v>
+        <v>45468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15215,14 +15215,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 54235-2025</t>
+          <t>A 61750-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45964.62569444445</v>
+        <v>44501.64055555555</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15277,14 +15277,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 24707-2025</t>
+          <t>A 7472-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45798.81579861111</v>
+        <v>45705.46409722222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15296,8 +15296,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15334,14 +15339,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 54232-2025</t>
+          <t>A 14633-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45964.62188657407</v>
+        <v>45742</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15359,7 +15364,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15396,14 +15401,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 54233-2025</t>
+          <t>A 50207-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45964.62453703704</v>
+        <v>45600.49782407407</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15415,13 +15420,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15458,14 +15458,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 25744-2025</t>
+          <t>A 50208-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45804.18709490741</v>
+        <v>45600.49924768518</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15477,13 +15477,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15520,14 +15515,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 55341-2025</t>
+          <t>A 22659-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45971.34751157407</v>
+        <v>45447</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15539,13 +15534,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15582,14 +15572,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 57086-2025</t>
+          <t>A 12108-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45979.42208333333</v>
+        <v>45376</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15602,7 +15592,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>6.1</v>
+        <v>7.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15639,14 +15629,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 770-2026</t>
+          <t>A 18831-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46027</v>
+        <v>45764.39109953704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15658,8 +15648,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15696,14 +15691,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 60524-2025</t>
+          <t>A 32154-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45995.64032407408</v>
+        <v>45119</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15716,7 +15711,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15753,14 +15748,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 60708-2025</t>
+          <t>A 27438-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45996.6211574074</v>
+        <v>45474.40971064815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15773,7 +15768,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15810,14 +15805,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 60736-2025</t>
+          <t>A 46288-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45996.78688657407</v>
+        <v>45581.65881944444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15829,8 +15824,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15867,14 +15867,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 38907-2023</t>
+          <t>A 51996-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45163</v>
+        <v>45223</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15929,14 +15929,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 38910-2023</t>
+          <t>A 58629-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45163</v>
+        <v>45635.57008101852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15991,14 +15991,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 48118-2023</t>
+          <t>A 50102-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45205</v>
+        <v>45215</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16053,14 +16053,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 38917-2023</t>
+          <t>A 62982-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45163</v>
+        <v>45272</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16072,13 +16072,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16115,14 +16110,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 4256-2026</t>
+          <t>A 21935-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>46045.33489583333</v>
+        <v>45443.47237268519</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16134,8 +16129,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45384</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>45175</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,14 +1064,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 47975-2025</t>
+          <t>A 38916-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45932</v>
+        <v>45163</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1083,17 +1083,22 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>11.8</v>
+        <v>4.3</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1117,6 +1122,195 @@
         <v>4</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tretåig hackspett
+Grönpyrola
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38916-2023 artfynd.xlsx", "A 38916-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38916-2023 karta.png", "A 38916-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38916-2023 FSC-klagomål.docx", "A 38916-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38916-2023 FSC-klagomål mail.docx", "A 38916-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38916-2023 tillsynsbegäran.docx", "A 38916-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38916-2023 tillsynsbegäran mail.docx", "A 38916-2023")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38916-2023 prioriterade fågelarter.docx", "A 38916-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 48284-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tretåig hackspett
+Kungsfågel
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 48284-2023 artfynd.xlsx", "A 48284-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 48284-2023 karta.png", "A 48284-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 48284-2023 FSC-klagomål.docx", "A 48284-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 48284-2023 FSC-klagomål mail.docx", "A 48284-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 48284-2023 tillsynsbegäran.docx", "A 48284-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 48284-2023 tillsynsbegäran mail.docx", "A 48284-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 48284-2023 prioriterade fågelarter.docx", "A 48284-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 47975-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45932</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Kråka
 Spillkråka
@@ -1124,509 +1318,315 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47975-2025 artfynd.xlsx", "A 47975-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47975-2025 karta.png", "A 47975-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47975-2025 FSC-klagomål.docx", "A 47975-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47975-2025 FSC-klagomål mail.docx", "A 47975-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47975-2025 tillsynsbegäran.docx", "A 47975-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47975-2025 tillsynsbegäran mail.docx", "A 47975-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47975-2025 prioriterade fågelarter.docx", "A 47975-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 38916-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 38915-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>45163</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C10" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="G10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tretåig hackspett
-Grönpyrola
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38916-2023 artfynd.xlsx", "A 38916-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38916-2023 karta.png", "A 38916-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38916-2023 FSC-klagomål.docx", "A 38916-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38916-2023 FSC-klagomål mail.docx", "A 38916-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38916-2023 tillsynsbegäran.docx", "A 38916-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38916-2023 tillsynsbegäran mail.docx", "A 38916-2023")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38916-2023 prioriterade fågelarter.docx", "A 38916-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 48284-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38915-2023 artfynd.xlsx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38915-2023 karta.png", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38915-2023 FSC-klagomål.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38915-2023 FSC-klagomål mail.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38915-2023 tillsynsbegäran.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38915-2023 tillsynsbegäran mail.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38915-2023 prioriterade fågelarter.docx", "A 38915-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 25541-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45089.56824074074</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="G11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tretåig hackspett
-Kungsfågel
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 48284-2023 artfynd.xlsx", "A 48284-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 48284-2023 karta.png", "A 48284-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 48284-2023 FSC-klagomål.docx", "A 48284-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 48284-2023 FSC-klagomål mail.docx", "A 48284-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 48284-2023 tillsynsbegäran.docx", "A 48284-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 48284-2023 tillsynsbegäran mail.docx", "A 48284-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 48284-2023 prioriterade fågelarter.docx", "A 48284-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 25541-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45089.56824074074</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tretåig hackspett
 Vedticka</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 25541-2023 artfynd.xlsx", "A 25541-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 25541-2023 karta.png", "A 25541-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 25541-2023 FSC-klagomål.docx", "A 25541-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 25541-2023 FSC-klagomål mail.docx", "A 25541-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 25541-2023 tillsynsbegäran.docx", "A 25541-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 25541-2023 tillsynsbegäran mail.docx", "A 25541-2023")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 25541-2023 prioriterade fågelarter.docx", "A 25541-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 47782-2025</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45931</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>13.4</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>3</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>3</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47782-2025 artfynd.xlsx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47782-2025 karta.png", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47782-2025 FSC-klagomål.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47782-2025 FSC-klagomål mail.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47782-2025 tillsynsbegäran.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47782-2025 tillsynsbegäran mail.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47782-2025 prioriterade fågelarter.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 38915-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45163</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tretåig hackspett
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38915-2023 artfynd.xlsx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38915-2023 karta.png", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38915-2023 FSC-klagomål.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38915-2023 FSC-klagomål mail.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38915-2023 tillsynsbegäran.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38915-2023 tillsynsbegäran mail.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38915-2023 prioriterade fågelarter.docx", "A 38915-2023")</f>
         <v/>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
         <v>44550</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>45866</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45931</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45351</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>44853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,14 +2265,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33297-2023</t>
+          <t>A 40870-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45116</v>
+        <v>45558.59421296296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,11 +2284,16 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2319,45 +2324,49 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 27093-2023</t>
+          <t>A 33297-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45096</v>
+        <v>45116</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2369,23 +2378,18 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2399,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2409,49 +2413,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 38914-2023</t>
+          <t>A 38912-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>45163</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2507,45 +2507,45 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 49306-2025</t>
+          <t>A 12720-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45938</v>
+        <v>45384</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,18 +2557,23 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -2582,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2592,45 +2597,49 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 47787-2025</t>
+          <t>A 27093-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45931</v>
+        <v>45096</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2642,8 +2651,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2652,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2667,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2677,49 +2691,49 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 40870-2024</t>
+          <t>A 49306-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45558.59421296296</v>
+        <v>45938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,22 +2745,17 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2761,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2771,49 +2780,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 38912-2023</t>
+          <t>A 47787-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45163</v>
+        <v>45931</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2825,13 +2830,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2869,45 +2869,45 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 12720-2024</t>
+          <t>A 38914-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45384</v>
+        <v>45163</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2963,31 +2963,31 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
         <v/>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
         <v>45589.34315972222</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45614</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44578</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44805</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44396.35755787037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>44607.48398148148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44651</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>44692</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         <v>44470</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44308</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44497.42795138889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44594</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44375</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44466.38188657408</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44643</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>44470</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44529.52201388889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4489,14 +4489,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 67998-2021</t>
+          <t>A 63906-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44525.76128472222</v>
+        <v>44509.65762731482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4508,8 +4508,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4546,14 +4551,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 63906-2021</t>
+          <t>A 67998-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44509.65762731482</v>
+        <v>44525.76128472222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4565,13 +4570,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>44505.41567129629</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45742.56643518519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45707.46203703704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>45763.59862268518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>44754.50530092593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45541.57966435186</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4975,14 +4975,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56478-2024</t>
+          <t>A 62982-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45624</v>
+        <v>45272</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5032,14 +5032,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8062-2024</t>
+          <t>A 56478-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45351</v>
+        <v>45624</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5051,13 +5051,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5094,14 +5089,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 53406-2024</t>
+          <t>A 21935-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45614.49704861111</v>
+        <v>45443.47237268519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5119,7 +5114,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5156,14 +5151,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 59206-2024</t>
+          <t>A 8062-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45636</v>
+        <v>45351</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5175,8 +5170,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5213,14 +5213,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 10321-2023</t>
+          <t>A 38917-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44986.99549768519</v>
+        <v>45163</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5232,8 +5232,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5270,14 +5275,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 23460-2024</t>
+          <t>A 38874-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45453.65363425926</v>
+        <v>45887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5289,8 +5294,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5327,14 +5337,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 36437-2024</t>
+          <t>A 53406-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45535</v>
+        <v>45614.49704861111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5346,8 +5356,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5384,14 +5399,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24707-2025</t>
+          <t>A 38782-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45798.81579861111</v>
+        <v>45887</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5404,7 +5419,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5441,14 +5456,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 5218-2024</t>
+          <t>A 38910-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45330.64273148148</v>
+        <v>45163</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5466,7 +5481,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5503,14 +5518,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38904-2023</t>
+          <t>A 23460-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45163</v>
+        <v>45453.65363425926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5522,13 +5537,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5565,14 +5575,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38921-2023</t>
+          <t>A 59206-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45163</v>
+        <v>45636</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5584,13 +5594,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5627,14 +5632,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 38874-2025</t>
+          <t>A 10321-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45887</v>
+        <v>44986.99549768519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5646,13 +5651,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>8.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5689,14 +5689,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 38782-2025</t>
+          <t>A 4256-2026</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45887</v>
+        <v>46045.33489583333</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5746,14 +5746,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25744-2025</t>
+          <t>A 38907-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45804.18709490741</v>
+        <v>45163</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5808,14 +5808,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26301-2025</t>
+          <t>A 24707-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45805.63861111111</v>
+        <v>45798.81579861111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5827,13 +5827,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5870,14 +5865,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 26147-2025</t>
+          <t>A 5218-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45805.4308912037</v>
+        <v>45330.64273148148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5895,7 +5890,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5932,14 +5927,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 26170-2025</t>
+          <t>A 36437-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45805.46351851852</v>
+        <v>45535</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5951,13 +5946,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5994,14 +5984,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 26153-2025</t>
+          <t>A 38904-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45805.43332175926</v>
+        <v>45163</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6019,7 +6009,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6056,14 +6046,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25923-2025</t>
+          <t>A 38921-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45804</v>
+        <v>45163</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6077,11 +6067,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6118,14 +6108,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26820-2025</t>
+          <t>A 25744-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45810.63664351852</v>
+        <v>45804.18709490741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6137,8 +6127,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6175,14 +6170,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26783-2025</t>
+          <t>A 26301-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45810.5834375</v>
+        <v>45805.63861111111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6194,8 +6189,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6232,14 +6232,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 21562-2024</t>
+          <t>A 26147-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45441.65392361111</v>
+        <v>45805.4308912037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6294,14 +6294,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16480-2025</t>
+          <t>A 26170-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45751.57702546296</v>
+        <v>45805.46351851852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6313,8 +6313,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6351,14 +6356,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 10672-2024</t>
+          <t>A 26153-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45369.35207175926</v>
+        <v>45805.43332175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6376,7 +6381,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6413,14 +6418,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 2565-2022</t>
+          <t>A 25923-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44579</v>
+        <v>45804</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6432,8 +6437,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6470,14 +6480,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28367-2025</t>
+          <t>A 26820-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45819</v>
+        <v>45810.63664351852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6489,13 +6499,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6532,14 +6537,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28368-2025</t>
+          <t>A 41369-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45819.21581018518</v>
+        <v>45900.56857638889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6551,13 +6556,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>8.1</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6594,14 +6594,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 28370-2025</t>
+          <t>A 26783-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45819.22013888889</v>
+        <v>45810.5834375</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6613,13 +6613,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>8.199999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6656,14 +6651,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28369-2025</t>
+          <t>A 41642-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45819.21905092592</v>
+        <v>45901</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6675,13 +6670,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6718,14 +6708,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 23066-2022</t>
+          <t>A 48118-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44719.45199074074</v>
+        <v>45205</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6737,8 +6727,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6775,14 +6770,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60907-2023</t>
+          <t>A 41767-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45261</v>
+        <v>45902.54892361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6800,7 +6795,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6837,14 +6832,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 31603-2025</t>
+          <t>A 41766-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45833.73876157407</v>
+        <v>45902.54806712963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6856,8 +6851,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6894,14 +6894,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32300-2025</t>
+          <t>A 21562-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45835.71607638889</v>
+        <v>45441.65392361111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6913,8 +6913,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6951,14 +6956,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25175-2024</t>
+          <t>A 16480-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45462.545625</v>
+        <v>45751.57702546296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6970,13 +6975,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>9</v>
+        <v>5.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7013,14 +7013,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32717-2025</t>
+          <t>A 28367-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45839.37686342592</v>
+        <v>45819</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7032,8 +7032,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>6.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7070,14 +7075,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 26176-2024</t>
+          <t>A 28368-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45468.55660879629</v>
+        <v>45819.21581018518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7095,7 +7100,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>8.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7132,14 +7137,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 3177-2022</t>
+          <t>A 28370-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44582.61244212963</v>
+        <v>45819.22013888889</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7151,8 +7156,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>3.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7189,14 +7199,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41369-2025</t>
+          <t>A 28369-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45900.56857638889</v>
+        <v>45819.21905092592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7208,8 +7218,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7246,14 +7261,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 50766-2024</t>
+          <t>A 10672-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45602.43986111111</v>
+        <v>45369.35207175926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7286,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7308,14 +7323,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 8184-2022</t>
+          <t>A 2565-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44609</v>
+        <v>44579</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7343,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7365,14 +7380,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 46290-2024</t>
+          <t>A 43690-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45581.66018518519</v>
+        <v>45912.38975694445</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7390,7 +7405,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7427,14 +7442,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 41642-2025</t>
+          <t>A 23066-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45901</v>
+        <v>44719.45199074074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7447,7 +7462,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7484,14 +7499,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 33404-2025</t>
+          <t>A 43694-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45841</v>
+        <v>45912.39295138889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7503,8 +7518,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7541,14 +7561,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 52506-2024</t>
+          <t>A 43691-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45609</v>
+        <v>45912.39130787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7566,7 +7586,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7603,14 +7623,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 52523-2024</t>
+          <t>A 43752-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45609</v>
+        <v>45912</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7622,13 +7642,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7665,14 +7680,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 58197-2024</t>
+          <t>A 43692-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45632.48092592593</v>
+        <v>45912.39221064815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7690,7 +7705,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7727,14 +7742,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 59863-2024</t>
+          <t>A 43689-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45639</v>
+        <v>45912.38899305555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7746,8 +7761,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7784,14 +7804,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 14678-2025</t>
+          <t>A 44642-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45742.56563657407</v>
+        <v>45917.52719907407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7803,13 +7823,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7846,14 +7861,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 14681-2025</t>
+          <t>A 31603-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45742.56857638889</v>
+        <v>45833.73876157407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7865,13 +7880,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7908,14 +7918,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 41767-2025</t>
+          <t>A 32300-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45902.54892361111</v>
+        <v>45835.71607638889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7927,13 +7937,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7970,14 +7975,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 41766-2025</t>
+          <t>A 60907-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45902.54806712963</v>
+        <v>45261</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +8000,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8032,14 +8037,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 54515-2023</t>
+          <t>A 32717-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45233.57033564815</v>
+        <v>45839.37686342592</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8057,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8089,14 +8094,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35706-2025</t>
+          <t>A 25175-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45860.37125</v>
+        <v>45462.545625</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8108,8 +8113,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8146,14 +8156,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 54994-2024</t>
+          <t>A 33404-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45621.27174768518</v>
+        <v>45841</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8165,13 +8175,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8208,14 +8213,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 56464-2024</t>
+          <t>A 26176-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45624</v>
+        <v>45468.55660879629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8227,8 +8232,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8265,14 +8275,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 36768-2025</t>
+          <t>A 3177-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45873.58413194444</v>
+        <v>44582.61244212963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8284,13 +8294,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8327,14 +8332,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36769-2025</t>
+          <t>A 50766-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45873.58680555555</v>
+        <v>45602.43986111111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8352,7 +8357,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>9.6</v>
+        <v>2.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8389,14 +8394,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 23683-2025</t>
+          <t>A 8184-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45793.34197916667</v>
+        <v>44609</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8409,7 +8414,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8446,14 +8451,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 13236-2025</t>
+          <t>A 46290-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45735.47133101852</v>
+        <v>45581.66018518519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8471,7 +8476,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>18.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8508,14 +8513,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 25177-2024</t>
+          <t>A 52506-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45462.546875</v>
+        <v>45609</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8533,7 +8538,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8570,14 +8575,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 13412-2025</t>
+          <t>A 52523-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45736.27773148148</v>
+        <v>45609</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8595,7 +8600,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8632,14 +8637,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 38233-2023</t>
+          <t>A 59863-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45160</v>
+        <v>45639</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8652,7 +8657,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8689,14 +8694,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 37333-2025</t>
+          <t>A 14678-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45876.66482638889</v>
+        <v>45742.56563657407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8708,8 +8713,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8746,14 +8756,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 37265-2025</t>
+          <t>A 14681-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45876.46099537037</v>
+        <v>45742.56857638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8765,8 +8775,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8803,14 +8818,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 15594-2025</t>
+          <t>A 48625-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45747.88466435186</v>
+        <v>45936.50938657407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8823,7 +8838,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8860,14 +8875,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 10674-2024</t>
+          <t>A 35706-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45369.35297453704</v>
+        <v>45860.37125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8879,13 +8894,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8922,14 +8932,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 60933-2024</t>
+          <t>A 58197-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45645.36615740741</v>
+        <v>45632.48092592593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8957,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8984,14 +8994,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 43690-2025</t>
+          <t>A 54515-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45912.38975694445</v>
+        <v>45233.57033564815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9003,13 +9013,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9046,14 +9051,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43694-2025</t>
+          <t>A 36768-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45912.39295138889</v>
+        <v>45873.58413194444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9071,7 +9076,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9108,14 +9113,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43691-2025</t>
+          <t>A 36769-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45912.39130787037</v>
+        <v>45873.58680555555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9133,7 +9138,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.7</v>
+        <v>9.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9170,14 +9175,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 43752-2025</t>
+          <t>A 23683-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45912</v>
+        <v>45793.34197916667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9190,7 +9195,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9227,14 +9232,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 43692-2025</t>
+          <t>A 54994-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45912.39221064815</v>
+        <v>45621.27174768518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9252,7 +9257,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9289,14 +9294,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 73693-2021</t>
+          <t>A 51040-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44552.48893518518</v>
+        <v>45947.41420138889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9308,8 +9313,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9346,14 +9356,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 58120-2024</t>
+          <t>A 37333-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45632.39280092593</v>
+        <v>45876.66482638889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9365,13 +9375,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9408,14 +9413,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 58125-2024</t>
+          <t>A 37265-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45632.39546296297</v>
+        <v>45876.46099537037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9427,13 +9432,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>8.9</v>
+        <v>1.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9470,14 +9470,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 58164-2024</t>
+          <t>A 56464-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45632.45396990741</v>
+        <v>45624</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9487,11 +9487,6 @@
       <c r="E135" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -9532,14 +9527,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 43689-2025</t>
+          <t>A 52099-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45912.38899305555</v>
+        <v>45952</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9551,13 +9546,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9594,14 +9584,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 60937-2024</t>
+          <t>A 15594-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45645.3683912037</v>
+        <v>45747.88466435186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9613,13 +9603,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9656,14 +9641,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 60940-2024</t>
+          <t>A 13236-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45645.37079861111</v>
+        <v>45735.47133101852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9681,7 +9666,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>18.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9718,14 +9703,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 9511-2025</t>
+          <t>A 25177-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45715.53921296296</v>
+        <v>45462.546875</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9743,7 +9728,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9780,14 +9765,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 44642-2025</t>
+          <t>A 13412-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45917.52719907407</v>
+        <v>45736.27773148148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9799,8 +9784,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9844,7 +9834,7 @@
         <v>45887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9906,7 +9896,7 @@
         <v>45715.56616898148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9968,7 +9958,7 @@
         <v>45887.5749074074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10023,14 +10013,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52566-2023</t>
+          <t>A 38233-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45219</v>
+        <v>45160</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10043,7 +10033,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10080,14 +10070,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 57234-2024</t>
+          <t>A 54235-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45629.54484953704</v>
+        <v>45964.62569444445</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10105,7 +10095,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10142,14 +10132,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 48285-2023</t>
+          <t>A 54232-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45205.55755787037</v>
+        <v>45964.62188657407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10167,7 +10157,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10204,14 +10194,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12148-2025</t>
+          <t>A 54233-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45729</v>
+        <v>45964.62453703704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10229,7 +10219,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10266,14 +10256,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48625-2025</t>
+          <t>A 10674-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45936.50938657407</v>
+        <v>45369.35297453704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10285,8 +10275,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10323,14 +10318,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 13413-2025</t>
+          <t>A 60933-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45736.27847222222</v>
+        <v>45645.36615740741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10348,7 +10343,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10385,14 +10380,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 8074-2024</t>
+          <t>A 73693-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45351.42106481481</v>
+        <v>44552.48893518518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10404,13 +10399,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10447,14 +10437,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 21952-2024</t>
+          <t>A 58120-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45443.48370370371</v>
+        <v>45632.39280092593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10472,7 +10462,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10509,14 +10499,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 62972-2023</t>
+          <t>A 58125-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45272</v>
+        <v>45632.39546296297</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10528,8 +10518,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>0.3</v>
+        <v>8.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10566,14 +10561,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 52528-2024</t>
+          <t>A 58164-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45609</v>
+        <v>45632.45396990741</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10591,7 +10586,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10628,14 +10623,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 51040-2025</t>
+          <t>A 55341-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45947.41420138889</v>
+        <v>45971.34751157407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10653,7 +10648,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10690,14 +10685,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 12143-2025</t>
+          <t>A 60937-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45729</v>
+        <v>45645.3683912037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10715,7 +10710,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10752,14 +10747,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 14634-2025</t>
+          <t>A 60940-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45742</v>
+        <v>45645.37079861111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10777,7 +10772,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10814,14 +10809,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 51653-2023</t>
+          <t>A 9511-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45222</v>
+        <v>45715.53921296296</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10839,7 +10834,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.9</v>
+        <v>7.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10876,14 +10871,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 12678-2025</t>
+          <t>A 52566-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45733.44137731481</v>
+        <v>45219</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10895,13 +10890,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>9.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10938,14 +10928,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 52099-2025</t>
+          <t>A 57086-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45952</v>
+        <v>45979.42208333333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10958,7 +10948,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10995,14 +10985,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 20577-2023</t>
+          <t>A 57234-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45057</v>
+        <v>45629.54484953704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11020,7 +11010,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11057,14 +11047,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 45365-2023</t>
+          <t>A 48285-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45192.69640046296</v>
+        <v>45205.55755787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11076,8 +11066,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11114,14 +11109,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 6387-2024</t>
+          <t>A 770-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45338.56366898148</v>
+        <v>46027</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11133,13 +11128,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11176,14 +11166,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 46147-2024</t>
+          <t>A 12148-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45581.45158564814</v>
+        <v>45729</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11201,7 +11191,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11238,14 +11228,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 54082-2024</t>
+          <t>A 13413-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45616.4956712963</v>
+        <v>45736.27847222222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11257,8 +11247,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11295,14 +11290,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 54235-2025</t>
+          <t>A 8074-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45964.62569444445</v>
+        <v>45351.42106481481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11320,7 +11315,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11357,14 +11352,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 6240-2024</t>
+          <t>A 21952-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45337</v>
+        <v>45443.48370370371</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11376,8 +11371,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11414,14 +11414,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 54232-2025</t>
+          <t>A 60524-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45964.62188657407</v>
+        <v>45995.64032407408</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11433,13 +11433,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11476,14 +11471,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 54233-2025</t>
+          <t>A 60736-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45964.62453703704</v>
+        <v>45996.78688657407</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11495,13 +11490,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11538,14 +11528,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 6394-2024</t>
+          <t>A 62972-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45338.57230324074</v>
+        <v>45272</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11557,13 +11547,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11600,14 +11585,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 11085-2023</t>
+          <t>A 52528-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44986</v>
+        <v>45609</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11619,8 +11604,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11657,14 +11647,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 55341-2025</t>
+          <t>A 60708-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45971.34751157407</v>
+        <v>45996.6211574074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11676,13 +11666,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11719,14 +11704,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 56886-2024</t>
+          <t>A 12143-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45628.57332175926</v>
+        <v>45729</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11744,7 +11729,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11781,14 +11766,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 57086-2025</t>
+          <t>A 14634-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45979.42208333333</v>
+        <v>45742</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11800,8 +11785,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>6.1</v>
+        <v>4.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11838,14 +11828,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 44806-2023</t>
+          <t>A 51653-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45190.49174768518</v>
+        <v>45222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11863,7 +11853,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11900,14 +11890,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 5277-2024</t>
+          <t>A 12678-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45330</v>
+        <v>45733.44137731481</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11919,8 +11909,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11957,14 +11952,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 50378-2024</t>
+          <t>A 20577-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45601.2984375</v>
+        <v>45057</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11982,7 +11977,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12019,14 +12014,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 33293-2023</t>
+          <t>A 45365-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45116</v>
+        <v>45192.69640046296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12039,7 +12034,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>17.2</v>
+        <v>5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12076,14 +12071,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 47941-2024</t>
+          <t>A 6387-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45589.34931712963</v>
+        <v>45338.56366898148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12101,7 +12096,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12138,14 +12133,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 44807-2023</t>
+          <t>A 46147-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45190.49269675926</v>
+        <v>45581.45158564814</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12163,7 +12158,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.4</v>
+        <v>2.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12200,14 +12195,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 770-2026</t>
+          <t>A 54082-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46027</v>
+        <v>45616.4956712963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12220,7 +12215,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.2</v>
+        <v>6.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12257,14 +12252,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 51652-2023</t>
+          <t>A 6240-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45222</v>
+        <v>45337</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12276,13 +12271,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12319,14 +12309,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 36963-2021</t>
+          <t>A 6394-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44393</v>
+        <v>45338.57230324074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12344,7 +12334,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12381,14 +12371,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 46220-2024</t>
+          <t>A 11085-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45581.56866898148</v>
+        <v>44986</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12400,13 +12390,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12443,14 +12428,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 46222-2024</t>
+          <t>A 56886-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45581.56938657408</v>
+        <v>45628.57332175926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12468,7 +12453,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12505,14 +12490,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 44457-2022</t>
+          <t>A 44806-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44839</v>
+        <v>45190.49174768518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12524,8 +12509,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12562,14 +12552,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 32211-2022</t>
+          <t>A 5277-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44781.43078703704</v>
+        <v>45330</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12582,7 +12572,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12619,14 +12609,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 13405-2024</t>
+          <t>A 50378-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45387.44760416666</v>
+        <v>45601.2984375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12638,8 +12628,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>4.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12676,14 +12671,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 12729-2024</t>
+          <t>A 33293-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45384.49421296296</v>
+        <v>45116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12695,13 +12690,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>2.5</v>
+        <v>17.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12738,14 +12728,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 60524-2025</t>
+          <t>A 47941-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45995.64032407408</v>
+        <v>45589.34931712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12757,8 +12747,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12795,14 +12790,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 26185-2024</t>
+          <t>A 44807-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45468.56267361111</v>
+        <v>45190.49269675926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12820,7 +12815,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12857,14 +12852,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 21649-2024</t>
+          <t>A 51652-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45442.3671412037</v>
+        <v>45222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12882,7 +12877,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12919,14 +12914,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 60736-2025</t>
+          <t>A 36963-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45996.78688657407</v>
+        <v>44393</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,8 +12933,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12976,14 +12976,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 60708-2025</t>
+          <t>A 46220-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45996.6211574074</v>
+        <v>45581.56866898148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,8 +12995,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13033,14 +13038,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 58479-2024</t>
+          <t>A 46222-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45635.38675925926</v>
+        <v>45581.56938657408</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13058,7 +13063,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13095,14 +13100,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 38917-2023</t>
+          <t>A 44457-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45163</v>
+        <v>44839</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13114,13 +13119,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13157,14 +13157,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 38910-2023</t>
+          <t>A 32211-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45163</v>
+        <v>44781.43078703704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13176,13 +13176,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13219,14 +13214,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 4256-2026</t>
+          <t>A 13405-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46045.33489583333</v>
+        <v>45387.44760416666</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13239,7 +13234,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13276,14 +13271,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 38907-2023</t>
+          <t>A 12729-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45163</v>
+        <v>45384.49421296296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13301,7 +13296,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13338,14 +13333,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 48118-2023</t>
+          <t>A 26185-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45205</v>
+        <v>45468.56267361111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13363,7 +13358,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13400,14 +13395,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 63905-2021</t>
+          <t>A 21649-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44509.65712962963</v>
+        <v>45442.3671412037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13425,7 +13420,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13462,14 +13457,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 38743-2022</t>
+          <t>A 58479-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44816.34265046296</v>
+        <v>45635.38675925926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13487,7 +13482,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13524,14 +13519,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 13415-2025</t>
+          <t>A 63905-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45736.28094907408</v>
+        <v>44509.65712962963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13549,7 +13544,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13586,14 +13581,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 47935-2024</t>
+          <t>A 38743-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45589.34674768519</v>
+        <v>44816.34265046296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13611,7 +13606,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13648,14 +13643,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 52508-2024</t>
+          <t>A 13415-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45609</v>
+        <v>45736.28094907408</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13673,7 +13668,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13710,14 +13705,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 46219-2024</t>
+          <t>A 47935-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45581.56686342593</v>
+        <v>45589.34674768519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13735,7 +13730,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13772,14 +13767,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 50377-2024</t>
+          <t>A 52508-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45601.29576388889</v>
+        <v>45609</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13797,7 +13792,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13834,14 +13829,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 8059-2024</t>
+          <t>A 46219-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45351</v>
+        <v>45581.56686342593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13859,7 +13854,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13896,14 +13891,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 44735-2021</t>
+          <t>A 50377-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44438</v>
+        <v>45601.29576388889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13915,8 +13910,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13953,14 +13953,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 29482-2023</t>
+          <t>A 8059-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45106.57938657407</v>
+        <v>45351</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13972,8 +13972,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14010,14 +14015,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 59158-2022</t>
+          <t>A 44735-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44904</v>
+        <v>44438</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14029,13 +14034,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14072,14 +14072,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 18773-2025</t>
+          <t>A 29482-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45763</v>
+        <v>45106.57938657407</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>13</v>
+        <v>0.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14129,14 +14129,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 10320-2023</t>
+          <t>A 59158-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44986</v>
+        <v>44904</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14148,8 +14148,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14186,14 +14191,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 10797-2023</t>
+          <t>A 18773-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44989</v>
+        <v>45763</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14206,7 +14211,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14243,14 +14248,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 11084-2023</t>
+          <t>A 10320-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
         <v>44986</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14263,7 +14268,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14300,14 +14305,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 50764-2024</t>
+          <t>A 10797-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45602.43876157407</v>
+        <v>44989</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14319,13 +14324,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14362,14 +14362,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 33658-2024</t>
+          <t>A 11084-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45520.46899305555</v>
+        <v>44986</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14419,14 +14419,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 14452-2025</t>
+          <t>A 50764-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45741.56143518518</v>
+        <v>45602.43876157407</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14481,14 +14481,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 45861-2023</t>
+          <t>A 33658-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45195</v>
+        <v>45520.46899305555</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14500,13 +14500,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14543,14 +14538,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 44841-2023</t>
+          <t>A 14452-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45190.55920138889</v>
+        <v>45741.56143518518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14568,7 +14563,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14605,14 +14600,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 13414-2025</t>
+          <t>A 45861-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45736.2803125</v>
+        <v>45195</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14630,7 +14625,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14667,14 +14662,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 43768-2024</t>
+          <t>A 44841-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45569</v>
+        <v>45190.55920138889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14686,8 +14681,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14724,14 +14724,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 38738-2022</t>
+          <t>A 13414-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44816.34217592593</v>
+        <v>45736.2803125</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14786,14 +14786,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 14677-2025</t>
+          <t>A 43768-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45742.56465277778</v>
+        <v>45569</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14805,13 +14805,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14848,14 +14843,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 9510-2025</t>
+          <t>A 38738-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45715.53829861111</v>
+        <v>44816.34217592593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14873,7 +14868,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14910,14 +14905,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 14680-2025</t>
+          <t>A 14677-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45742.56774305556</v>
+        <v>45742.56465277778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14935,7 +14930,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14972,14 +14967,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 52131-2021</t>
+          <t>A 9510-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44463</v>
+        <v>45715.53829861111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14991,8 +14986,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15029,14 +15029,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 52490-2024</t>
+          <t>A 14680-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45609.55875</v>
+        <v>45742.56774305556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15091,14 +15091,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 58477-2024</t>
+          <t>A 52131-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45635.38418981482</v>
+        <v>44463</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15110,13 +15110,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15153,14 +15148,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 26182-2024</t>
+          <t>A 52490-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45468</v>
+        <v>45609.55875</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15178,7 +15173,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15215,14 +15210,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61750-2021</t>
+          <t>A 58477-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44501.64055555555</v>
+        <v>45635.38418981482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15240,7 +15235,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15277,14 +15272,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 7472-2025</t>
+          <t>A 26182-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45705.46409722222</v>
+        <v>45468</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15302,7 +15297,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15339,14 +15334,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 14633-2025</t>
+          <t>A 61750-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45742</v>
+        <v>44501.64055555555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15364,7 +15359,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15401,14 +15396,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 50207-2024</t>
+          <t>A 7472-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45600.49782407407</v>
+        <v>45705.46409722222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15420,8 +15415,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15458,14 +15458,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 50208-2024</t>
+          <t>A 14633-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45600.49924768518</v>
+        <v>45742</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15477,8 +15477,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>0.4</v>
+        <v>5.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15515,14 +15520,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 22659-2024</t>
+          <t>A 50207-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45447</v>
+        <v>45600.49782407407</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15535,7 +15540,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15572,14 +15577,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 12108-2024</t>
+          <t>A 50208-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45376</v>
+        <v>45600.49924768518</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15592,7 +15597,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>7.7</v>
+        <v>0.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15629,14 +15634,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 18831-2025</t>
+          <t>A 22659-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45764.39109953704</v>
+        <v>45447</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15648,13 +15653,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15691,14 +15691,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 32154-2023</t>
+          <t>A 12108-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45119</v>
+        <v>45376</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.3</v>
+        <v>7.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15748,14 +15748,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 27438-2024</t>
+          <t>A 18831-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45474.40971064815</v>
+        <v>45764.39109953704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15767,8 +15767,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15805,14 +15810,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 46288-2024</t>
+          <t>A 32154-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45581.65881944444</v>
+        <v>45119</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15824,13 +15829,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15867,14 +15867,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 51996-2023</t>
+          <t>A 27438-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45223</v>
+        <v>45474.40971064815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15886,13 +15886,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15929,14 +15924,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 58629-2024</t>
+          <t>A 46288-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45635.57008101852</v>
+        <v>45581.65881944444</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15954,7 +15949,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15991,14 +15986,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 50102-2023</t>
+          <t>A 51996-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45215</v>
+        <v>45223</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16016,7 +16011,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16053,14 +16048,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 62982-2023</t>
+          <t>A 58629-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45272</v>
+        <v>45635.57008101852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16072,8 +16067,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16110,14 +16110,14 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 21935-2024</t>
+          <t>A 50102-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45443.47237268519</v>
+        <v>45215</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z245"/>
+  <dimension ref="A1:Z246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,14 +867,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 12719-2024</t>
+          <t>A 38916-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45384</v>
+        <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11.7</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -925,6 +925,105 @@
         <v>6</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tretåig hackspett
+Grönpyrola
+Thomsons trägnagare
+Vågbandad barkbock
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38916-2023 artfynd.xlsx", "A 38916-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38916-2023 karta.png", "A 38916-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38916-2023 FSC-klagomål.docx", "A 38916-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38916-2023 FSC-klagomål mail.docx", "A 38916-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38916-2023 tillsynsbegäran.docx", "A 38916-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38916-2023 tillsynsbegäran mail.docx", "A 38916-2023")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38916-2023 prioriterade fågelarter.docx", "A 38916-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 12719-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Svinrot
@@ -934,96 +1033,96 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12719-2024 artfynd.xlsx", "A 12719-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12719-2024 karta.png", "A 12719-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12719-2024 FSC-klagomål.docx", "A 12719-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12719-2024 FSC-klagomål mail.docx", "A 12719-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12719-2024 tillsynsbegäran.docx", "A 12719-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12719-2024 tillsynsbegäran mail.docx", "A 12719-2024")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12719-2024 prioriterade fågelarter.docx", "A 12719-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 41520-2023</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>45175</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="C7" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>5</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tretåig hackspett
@@ -1032,143 +1131,46 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 41520-2023 artfynd.xlsx", "A 41520-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 41520-2023 karta.png", "A 41520-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 41520-2023 FSC-klagomål.docx", "A 41520-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 41520-2023 FSC-klagomål mail.docx", "A 41520-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 41520-2023 tillsynsbegäran.docx", "A 41520-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 41520-2023 tillsynsbegäran mail.docx", "A 41520-2023")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 41520-2023 prioriterade fågelarter.docx", "A 41520-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 38916-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45163</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tretåig hackspett
-Grönpyrola
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38916-2023 artfynd.xlsx", "A 38916-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38916-2023 karta.png", "A 38916-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38916-2023 FSC-klagomål.docx", "A 38916-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38916-2023 FSC-klagomål mail.docx", "A 38916-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38916-2023 tillsynsbegäran.docx", "A 38916-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38916-2023 tillsynsbegäran mail.docx", "A 38916-2023")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38916-2023 prioriterade fågelarter.docx", "A 38916-2023")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 48284-2023</t>
+          <t>A 47975-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45205</v>
+        <v>45932</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,13 +1182,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>6.7</v>
+        <v>11.8</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -1195,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1210,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1219,6 +1216,103 @@
         <v>4</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Kråka
+Spillkråka
+Tretåig hackspett
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47975-2025 artfynd.xlsx", "A 47975-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47975-2025 karta.png", "A 47975-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47975-2025 FSC-klagomål.docx", "A 47975-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47975-2025 FSC-klagomål mail.docx", "A 47975-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47975-2025 tillsynsbegäran.docx", "A 47975-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47975-2025 tillsynsbegäran mail.docx", "A 47975-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47975-2025 prioriterade fågelarter.docx", "A 47975-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 48284-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tretåig hackspett
@@ -1226,138 +1320,46 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 48284-2023 artfynd.xlsx", "A 48284-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 48284-2023 karta.png", "A 48284-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 48284-2023 FSC-klagomål.docx", "A 48284-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 48284-2023 FSC-klagomål mail.docx", "A 48284-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 48284-2023 tillsynsbegäran.docx", "A 48284-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 48284-2023 tillsynsbegäran mail.docx", "A 48284-2023")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 48284-2023 prioriterade fågelarter.docx", "A 48284-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 47975-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45932</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Kråka
-Spillkråka
-Tretåig hackspett
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47975-2025 artfynd.xlsx", "A 47975-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47975-2025 karta.png", "A 47975-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47975-2025 FSC-klagomål.docx", "A 47975-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47975-2025 FSC-klagomål mail.docx", "A 47975-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47975-2025 tillsynsbegäran.docx", "A 47975-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47975-2025 tillsynsbegäran mail.docx", "A 47975-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47975-2025 prioriterade fågelarter.docx", "A 47975-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 38915-2023</t>
+          <t>A 47782-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45163</v>
+        <v>45931</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,13 +1371,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>13.4</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -1384,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1399,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1408,225 +1405,230 @@
         <v>3</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita
+Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47782-2025 artfynd.xlsx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47782-2025 karta.png", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47782-2025 FSC-klagomål.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47782-2025 FSC-klagomål mail.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47782-2025 tillsynsbegäran.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47782-2025 tillsynsbegäran mail.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47782-2025 prioriterade fågelarter.docx", "A 47782-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 25541-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45089.56824074074</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tretåig hackspett
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 25541-2023 artfynd.xlsx", "A 25541-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 25541-2023 karta.png", "A 25541-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 25541-2023 FSC-klagomål.docx", "A 25541-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 25541-2023 FSC-klagomål mail.docx", "A 25541-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 25541-2023 tillsynsbegäran.docx", "A 25541-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 25541-2023 tillsynsbegäran mail.docx", "A 25541-2023")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 25541-2023 prioriterade fågelarter.docx", "A 25541-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 38915-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tretåig hackspett
 Mattlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38915-2023 artfynd.xlsx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38915-2023 karta.png", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38915-2023 FSC-klagomål.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38915-2023 FSC-klagomål mail.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38915-2023 tillsynsbegäran.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38915-2023 tillsynsbegäran mail.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38915-2023 prioriterade fågelarter.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 25541-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45089.56824074074</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tretåig hackspett
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 25541-2023 artfynd.xlsx", "A 25541-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 25541-2023 karta.png", "A 25541-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 25541-2023 FSC-klagomål.docx", "A 25541-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 25541-2023 FSC-klagomål mail.docx", "A 25541-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 25541-2023 tillsynsbegäran.docx", "A 25541-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 25541-2023 tillsynsbegäran mail.docx", "A 25541-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 25541-2023 prioriterade fågelarter.docx", "A 25541-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 47782-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita
-Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47782-2025 artfynd.xlsx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47782-2025 karta.png", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47782-2025 FSC-klagomål.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47782-2025 FSC-klagomål mail.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47782-2025 tillsynsbegäran.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47782-2025 tillsynsbegäran mail.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47782-2025 prioriterade fågelarter.docx", "A 47782-2025")</f>
         <v/>
       </c>
     </row>
@@ -1640,7 +1642,7 @@
         <v>44550</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,14 +1730,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 36081-2025</t>
+          <t>A 47785-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45866</v>
+        <v>45931</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1747,22 +1749,17 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1777,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1787,122 +1784,127 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47785-2025 artfynd.xlsx", "A 47785-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47785-2025 karta.png", "A 47785-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47785-2025 FSC-klagomål.docx", "A 47785-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47785-2025 FSC-klagomål mail.docx", "A 47785-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47785-2025 tillsynsbegäran.docx", "A 47785-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47785-2025 tillsynsbegäran mail.docx", "A 47785-2025")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47785-2025 prioriterade fågelarter.docx", "A 47785-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 36081-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45866</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Skogsklocka
 Svinrot</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 36081-2025 artfynd.xlsx", "A 36081-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 36081-2025 karta.png", "A 36081-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 36081-2025 FSC-klagomål.docx", "A 36081-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 36081-2025 FSC-klagomål mail.docx", "A 36081-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 36081-2025 tillsynsbegäran.docx", "A 36081-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 36081-2025 tillsynsbegäran mail.docx", "A 36081-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 47785-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47785-2025 artfynd.xlsx", "A 47785-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47785-2025 karta.png", "A 47785-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47785-2025 FSC-klagomål.docx", "A 47785-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47785-2025 FSC-klagomål mail.docx", "A 47785-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47785-2025 tillsynsbegäran.docx", "A 47785-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47785-2025 tillsynsbegäran mail.docx", "A 47785-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47785-2025 prioriterade fågelarter.docx", "A 47785-2025")</f>
         <v/>
       </c>
     </row>
@@ -1916,7 +1918,7 @@
         <v>45351</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2007,7 +2009,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2097,7 +2099,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2189,7 @@
         <v>44853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,14 +2267,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 40870-2024</t>
+          <t>A 53838-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45558.59421296296</v>
+        <v>45614</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2284,13 +2286,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2328,45 +2325,45 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 33297-2023</t>
+          <t>A 2357-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45116</v>
+        <v>44578</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2379,10 +2376,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2413,45 +2410,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 38912-2023</t>
+          <t>A 47787-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45163</v>
+        <v>45931</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2463,13 +2464,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2507,45 +2503,45 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 12720-2024</t>
+          <t>A 33297-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45384</v>
+        <v>45116</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2557,16 +2553,11 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2597,35 +2588,31 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
     </row>
@@ -2639,7 +2626,7 @@
         <v>45096</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2733,7 +2720,7 @@
         <v>45938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2811,14 +2798,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 47787-2025</t>
+          <t>A 38914-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45931</v>
+        <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2830,8 +2817,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2869,45 +2861,45 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 38914-2023</t>
+          <t>A 40870-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45163</v>
+        <v>45558.59421296296</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2925,7 +2917,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2959,49 +2951,49 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 47915-2024</t>
+          <t>A 38910-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45589.34315972222</v>
+        <v>45163</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3019,7 +3011,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -3053,45 +3045,49 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38910-2023 artfynd.xlsx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38910-2023 karta.png", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38910-2023 FSC-klagomål.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38910-2023 FSC-klagomål mail.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38910-2023 tillsynsbegäran.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38910-2023 tillsynsbegäran mail.docx", "A 38910-2023")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38910-2023 prioriterade fågelarter.docx", "A 38910-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 53838-2024</t>
+          <t>A 38912-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45614</v>
+        <v>45163</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,8 +3099,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3138,49 +3139,49 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 2357-2022</t>
+          <t>A 12720-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44578</v>
+        <v>45384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3192,8 +3193,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3227,49 +3233,49 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 36798-2022</t>
+          <t>A 47915-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44805</v>
+        <v>45589.34315972222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3281,11 +3287,16 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3312,21 +3323,49 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
+        <v/>
+      </c>
+      <c r="T31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
+        <v/>
+      </c>
+      <c r="V31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
+        <v/>
+      </c>
+      <c r="W31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
+        <v/>
+      </c>
+      <c r="X31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
+        <v/>
+      </c>
+      <c r="Y31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 36784-2022</t>
+          <t>A 36798-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3339,7 +3378,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3376,14 +3415,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 37122-2021</t>
+          <t>A 36784-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44396.35755787037</v>
+        <v>44805</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3396,7 +3435,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3433,14 +3472,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 50599-2022</t>
+          <t>A 37122-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44861</v>
+        <v>44396.35755787037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3453,7 +3492,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3490,14 +3529,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50600-2022</t>
+          <t>A 50599-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
         <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3510,7 +3549,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3547,14 +3586,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 7510-2022</t>
+          <t>A 50600-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44607.48398148148</v>
+        <v>44861</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3566,13 +3605,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3609,14 +3643,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 37302-2021</t>
+          <t>A 7510-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44397</v>
+        <v>44607.48398148148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3628,8 +3662,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3666,14 +3705,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14121-2022</t>
+          <t>A 37302-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44651</v>
+        <v>44397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3686,7 +3725,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3723,14 +3762,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19371-2022</t>
+          <t>A 14121-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44692</v>
+        <v>44651</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3743,7 +3782,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3780,14 +3819,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 54137-2021</t>
+          <t>A 19371-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44470</v>
+        <v>44692</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3799,13 +3838,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3842,14 +3876,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 8186-2022</t>
+          <t>A 54137-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44609</v>
+        <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3861,8 +3895,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3899,14 +3938,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19084-2021</t>
+          <t>A 8186-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44308</v>
+        <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3919,7 +3958,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3956,14 +3995,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 54130-2021</t>
+          <t>A 19084-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44470</v>
+        <v>44308</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3975,13 +4014,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4018,14 +4052,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60889-2021</t>
+          <t>A 54130-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44497.42795138889</v>
+        <v>44470</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4037,8 +4071,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4075,14 +4114,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 5319-2022</t>
+          <t>A 60889-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44594</v>
+        <v>44497.42795138889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4132,14 +4171,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 32729-2021</t>
+          <t>A 5319-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44375</v>
+        <v>44594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4152,7 +4191,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,14 +4228,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 65456-2021</t>
+          <t>A 32729-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44515</v>
+        <v>44375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4209,7 +4248,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4246,14 +4285,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 52457-2021</t>
+          <t>A 65456-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44466.38188657408</v>
+        <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4265,13 +4304,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4308,14 +4342,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 12977-2022</t>
+          <t>A 52457-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44643</v>
+        <v>44466.38188657408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4327,8 +4361,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4365,14 +4404,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 54139-2021</t>
+          <t>A 12977-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44470</v>
+        <v>44643</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4384,13 +4423,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4427,14 +4461,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 68578-2021</t>
+          <t>A 54139-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44529.52201388889</v>
+        <v>44470</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4452,7 +4486,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4489,14 +4523,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 63906-2021</t>
+          <t>A 68578-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44509.65762731482</v>
+        <v>44529.52201388889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4514,7 +4548,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4558,7 +4592,7 @@
         <v>44525.76128472222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4608,14 +4642,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 63008-2021</t>
+          <t>A 63906-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44505.41567129629</v>
+        <v>44509.65762731482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4633,7 +4667,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4670,14 +4704,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 14679-2025</t>
+          <t>A 63008-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45742.56643518519</v>
+        <v>44505.41567129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4695,7 +4729,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4732,14 +4766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 7975-2025</t>
+          <t>A 14679-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45707.46203703704</v>
+        <v>45742.56643518519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4757,7 +4791,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4794,14 +4828,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18675-2025</t>
+          <t>A 51996-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45763.59862268518</v>
+        <v>45223</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4813,8 +4847,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4851,14 +4890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 29607-2022</t>
+          <t>A 7975-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44754.50530092593</v>
+        <v>45707.46203703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4876,7 +4915,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4913,14 +4952,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 37672-2024</t>
+          <t>A 18675-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45541.57966435186</v>
+        <v>45763.59862268518</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4932,13 +4971,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4975,14 +5009,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 62982-2023</t>
+          <t>A 58629-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45272</v>
+        <v>45635.57008101852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4994,8 +5028,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5032,14 +5071,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 56478-2024</t>
+          <t>A 29607-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45624</v>
+        <v>44754.50530092593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5051,8 +5090,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5089,14 +5133,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 21935-2024</t>
+          <t>A 55341-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45443.47237268519</v>
+        <v>45971.34751157407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5114,7 +5158,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5151,14 +5195,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 8062-2024</t>
+          <t>A 50102-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45351</v>
+        <v>45215</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5176,7 +5220,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5213,14 +5257,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38917-2023</t>
+          <t>A 37672-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45163</v>
+        <v>45541.57966435186</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5238,7 +5282,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5282,7 +5326,7 @@
         <v>45887</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5337,14 +5381,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53406-2024</t>
+          <t>A 62982-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45614.49704861111</v>
+        <v>45272</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5356,13 +5400,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5406,7 +5445,7 @@
         <v>45887</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5456,14 +5495,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38910-2023</t>
+          <t>A 21935-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45163</v>
+        <v>45443.47237268519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5481,7 +5520,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5518,14 +5557,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 23460-2024</t>
+          <t>A 56478-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45453.65363425926</v>
+        <v>45624</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5538,7 +5577,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5575,14 +5614,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59206-2024</t>
+          <t>A 8062-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45636</v>
+        <v>45351</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5594,8 +5633,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5632,14 +5676,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 10321-2023</t>
+          <t>A 23460-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44986.99549768519</v>
+        <v>45453.65363425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5652,7 +5696,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5689,14 +5733,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 4256-2026</t>
+          <t>A 53406-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46045.33489583333</v>
+        <v>45614.49704861111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5708,8 +5752,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5746,14 +5795,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 38907-2023</t>
+          <t>A 24707-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45163</v>
+        <v>45798.81579861111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5765,13 +5814,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5808,14 +5852,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24707-2025</t>
+          <t>A 5218-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45798.81579861111</v>
+        <v>45330.64273148148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5827,8 +5871,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5865,14 +5914,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 5218-2024</t>
+          <t>A 59206-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45330.64273148148</v>
+        <v>45636</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5884,13 +5933,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5927,14 +5971,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36437-2024</t>
+          <t>A 57086-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45535</v>
+        <v>45979.42208333333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5947,7 +5991,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>6.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5984,14 +6028,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 38904-2023</t>
+          <t>A 10321-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45163</v>
+        <v>44986.99549768519</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6003,13 +6047,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6046,14 +6085,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 38921-2023</t>
+          <t>A 41369-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45163</v>
+        <v>45900.56857638889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6065,13 +6104,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6108,14 +6142,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 25744-2025</t>
+          <t>A 41642-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45804.18709490741</v>
+        <v>45901</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6127,13 +6161,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6170,14 +6199,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26301-2025</t>
+          <t>A 25744-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45805.63861111111</v>
+        <v>45804.18709490741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6195,7 +6224,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6232,14 +6261,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26147-2025</t>
+          <t>A 26301-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45805.4308912037</v>
+        <v>45805.63861111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6257,7 +6286,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6294,14 +6323,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26170-2025</t>
+          <t>A 36437-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45805.46351851852</v>
+        <v>45535</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6313,13 +6342,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6356,14 +6380,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 26153-2025</t>
+          <t>A 26147-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45805.43332175926</v>
+        <v>45805.4308912037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6418,14 +6442,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25923-2025</t>
+          <t>A 26170-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45804</v>
+        <v>45805.46351851852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6439,11 +6463,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6480,14 +6504,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 26820-2025</t>
+          <t>A 26153-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45810.63664351852</v>
+        <v>45805.43332175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6499,8 +6523,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6537,14 +6566,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 41369-2025</t>
+          <t>A 25923-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45900.56857638889</v>
+        <v>45804</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6556,8 +6585,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6594,14 +6628,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 26783-2025</t>
+          <t>A 38904-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45810.5834375</v>
+        <v>45163</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6613,8 +6647,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6651,14 +6690,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41642-2025</t>
+          <t>A 38921-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45901</v>
+        <v>45163</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6670,8 +6709,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6708,14 +6752,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 48118-2023</t>
+          <t>A 41767-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45205</v>
+        <v>45902.54892361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6733,7 +6777,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6770,14 +6814,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41767-2025</t>
+          <t>A 41766-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45902.54892361111</v>
+        <v>45902.54806712963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6795,7 +6839,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6832,14 +6876,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41766-2025</t>
+          <t>A 26820-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45902.54806712963</v>
+        <v>45810.63664351852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6851,13 +6895,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6894,14 +6933,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 21562-2024</t>
+          <t>A 26783-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45441.65392361111</v>
+        <v>45810.5834375</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6913,13 +6952,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6956,14 +6990,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16480-2025</t>
+          <t>A 43690-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45751.57702546296</v>
+        <v>45912.38975694445</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6975,8 +7009,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7013,14 +7052,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28367-2025</t>
+          <t>A 43694-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45819</v>
+        <v>45912.39295138889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7038,7 +7077,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7075,14 +7114,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 28368-2025</t>
+          <t>A 43691-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45819.21581018518</v>
+        <v>45912.39130787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7139,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>8.1</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7137,14 +7176,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 28370-2025</t>
+          <t>A 28367-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45819.22013888889</v>
+        <v>45819</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7162,7 +7201,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7199,14 +7238,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 28369-2025</t>
+          <t>A 28368-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45819.21905092592</v>
+        <v>45819.21581018518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7224,7 +7263,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.6</v>
+        <v>8.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7261,14 +7300,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 10672-2024</t>
+          <t>A 28370-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45369.35207175926</v>
+        <v>45819.22013888889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7286,7 +7325,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7323,14 +7362,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 2565-2022</t>
+          <t>A 43752-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44579</v>
+        <v>45912</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7343,7 +7382,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7380,14 +7419,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43690-2025</t>
+          <t>A 43692-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45912.38975694445</v>
+        <v>45912.39221064815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7405,7 +7444,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7442,14 +7481,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 23066-2022</t>
+          <t>A 21562-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44719.45199074074</v>
+        <v>45441.65392361111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7461,8 +7500,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7499,14 +7543,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43694-2025</t>
+          <t>A 43689-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45912.39295138889</v>
+        <v>45912.38899305555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7524,7 +7568,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7561,14 +7605,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43691-2025</t>
+          <t>A 16480-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45912.39130787037</v>
+        <v>45751.57702546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7580,13 +7624,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7623,14 +7662,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43752-2025</t>
+          <t>A 28369-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45912</v>
+        <v>45819.21905092592</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7642,8 +7681,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7680,14 +7724,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43692-2025</t>
+          <t>A 44642-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45912.39221064815</v>
+        <v>45917.52719907407</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7699,13 +7743,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7742,14 +7781,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 43689-2025</t>
+          <t>A 10672-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45912.38899305555</v>
+        <v>45369.35207175926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7767,7 +7806,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7804,14 +7843,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 44642-2025</t>
+          <t>A 2565-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45917.52719907407</v>
+        <v>44579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7824,7 +7863,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7861,14 +7900,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 31603-2025</t>
+          <t>A 23066-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45833.73876157407</v>
+        <v>44719.45199074074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7881,7 +7920,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7918,14 +7957,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 32300-2025</t>
+          <t>A 31603-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45835.71607638889</v>
+        <v>45833.73876157407</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7938,7 +7977,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7975,14 +8014,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60907-2023</t>
+          <t>A 32300-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45261</v>
+        <v>45835.71607638889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7994,13 +8033,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8037,14 +8071,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 32717-2025</t>
+          <t>A 60907-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45839.37686342592</v>
+        <v>45261</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8056,8 +8090,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8094,14 +8133,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 25175-2024</t>
+          <t>A 48625-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45462.545625</v>
+        <v>45936.50938657407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8113,13 +8152,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8156,14 +8190,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 33404-2025</t>
+          <t>A 32717-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45841</v>
+        <v>45839.37686342592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8176,7 +8210,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8213,14 +8247,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26176-2024</t>
+          <t>A 25175-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45468.55660879629</v>
+        <v>45462.545625</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8238,7 +8272,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8275,14 +8309,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 3177-2022</t>
+          <t>A 26176-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44582.61244212963</v>
+        <v>45468.55660879629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8294,8 +8328,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8332,14 +8371,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 50766-2024</t>
+          <t>A 3177-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45602.43986111111</v>
+        <v>44582.61244212963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8351,13 +8390,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8394,14 +8428,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 8184-2022</t>
+          <t>A 33404-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44609</v>
+        <v>45841</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8414,7 +8448,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8451,14 +8485,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 46290-2024</t>
+          <t>A 50766-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45581.66018518519</v>
+        <v>45602.43986111111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8476,7 +8510,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>8.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8513,14 +8547,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 52506-2024</t>
+          <t>A 8184-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45609</v>
+        <v>44609</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8532,13 +8566,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8575,14 +8604,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 52523-2024</t>
+          <t>A 46290-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45609</v>
+        <v>45581.66018518519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8600,7 +8629,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8637,14 +8666,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 59863-2024</t>
+          <t>A 52506-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45639</v>
+        <v>45609</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8656,8 +8685,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8694,14 +8728,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 14678-2025</t>
+          <t>A 52523-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45742.56563657407</v>
+        <v>45609</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8719,7 +8753,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8756,14 +8790,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 14681-2025</t>
+          <t>A 59863-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45742.56857638889</v>
+        <v>45639</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8775,13 +8809,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8818,14 +8847,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 48625-2025</t>
+          <t>A 51040-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45936.50938657407</v>
+        <v>45947.41420138889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8837,8 +8866,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8875,14 +8909,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35706-2025</t>
+          <t>A 14678-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45860.37125</v>
+        <v>45742.56563657407</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8894,8 +8928,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8932,14 +8971,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 58197-2024</t>
+          <t>A 14681-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45632.48092592593</v>
+        <v>45742.56857638889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8957,7 +8996,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8994,14 +9033,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 54515-2023</t>
+          <t>A 58197-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45233.57033564815</v>
+        <v>45632.48092592593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9013,8 +9052,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9051,14 +9095,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 36768-2025</t>
+          <t>A 35706-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45873.58413194444</v>
+        <v>45860.37125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9070,13 +9114,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9113,14 +9152,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 36769-2025</t>
+          <t>A 54515-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45873.58680555555</v>
+        <v>45233.57033564815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9132,13 +9171,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>9.6</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9175,14 +9209,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 23683-2025</t>
+          <t>A 52099-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45793.34197916667</v>
+        <v>45952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9195,7 +9229,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9239,7 +9273,7 @@
         <v>45621.27174768518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9294,14 +9328,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 51040-2025</t>
+          <t>A 36768-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45947.41420138889</v>
+        <v>45873.58413194444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9319,7 +9353,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9356,14 +9390,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 37333-2025</t>
+          <t>A 36769-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45876.66482638889</v>
+        <v>45873.58680555555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9375,8 +9409,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>9.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9413,14 +9452,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 37265-2025</t>
+          <t>A 23683-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45876.46099537037</v>
+        <v>45793.34197916667</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9433,7 +9472,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9477,7 +9516,7 @@
         <v>45624</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9527,14 +9566,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52099-2025</t>
+          <t>A 13236-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45952</v>
+        <v>45735.47133101852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9546,8 +9585,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2.6</v>
+        <v>18.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9584,14 +9628,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 15594-2025</t>
+          <t>A 25177-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45747.88466435186</v>
+        <v>45462.546875</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9603,8 +9647,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9641,14 +9690,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 13236-2025</t>
+          <t>A 54235-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45735.47133101852</v>
+        <v>45964.62569444445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9666,7 +9715,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>18.5</v>
+        <v>4.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9703,14 +9752,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 25177-2024</t>
+          <t>A 13412-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45462.546875</v>
+        <v>45736.27773148148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9728,7 +9777,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.5</v>
+        <v>0.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9765,14 +9814,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 13412-2025</t>
+          <t>A 37333-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45736.27773148148</v>
+        <v>45876.66482638889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9784,13 +9833,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9827,14 +9871,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 38875-2025</t>
+          <t>A 37265-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45887</v>
+        <v>45876.46099537037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9846,13 +9890,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9889,14 +9928,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 9525-2025</t>
+          <t>A 54232-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45715.56616898148</v>
+        <v>45964.62188657407</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9951,14 +9990,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 38872-2025</t>
+          <t>A 54233-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45887.5749074074</v>
+        <v>45964.62453703704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9976,7 +10015,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10020,7 +10059,7 @@
         <v>45160</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10070,14 +10109,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 54235-2025</t>
+          <t>A 15594-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45964.62569444445</v>
+        <v>45747.88466435186</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10089,13 +10128,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10132,14 +10166,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 54232-2025</t>
+          <t>A 10674-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45964.62188657407</v>
+        <v>45369.35297453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10157,7 +10191,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10194,14 +10228,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 54233-2025</t>
+          <t>A 60933-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45964.62453703704</v>
+        <v>45645.36615740741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10219,7 +10253,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10256,14 +10290,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 10674-2024</t>
+          <t>A 73693-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45369.35297453704</v>
+        <v>44552.48893518518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10275,13 +10309,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10318,14 +10347,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 60933-2024</t>
+          <t>A 58120-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45645.36615740741</v>
+        <v>45632.39280092593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10343,7 +10372,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10380,14 +10409,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 73693-2021</t>
+          <t>A 58125-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44552.48893518518</v>
+        <v>45632.39546296297</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10399,8 +10428,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>3.6</v>
+        <v>8.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10437,14 +10471,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58120-2024</t>
+          <t>A 58164-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45632.39280092593</v>
+        <v>45632.45396990741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10462,7 +10496,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10499,14 +10533,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58125-2024</t>
+          <t>A 60937-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45632.39546296297</v>
+        <v>45645.3683912037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10524,7 +10558,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>8.9</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10561,14 +10595,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 58164-2024</t>
+          <t>A 60940-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45632.45396990741</v>
+        <v>45645.37079861111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10586,7 +10620,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10623,14 +10657,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 55341-2025</t>
+          <t>A 9511-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45971.34751157407</v>
+        <v>45715.53921296296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10648,7 +10682,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.4</v>
+        <v>7.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10685,14 +10719,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 60937-2024</t>
+          <t>A 52566-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45645.3683912037</v>
+        <v>45219</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10704,13 +10738,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10747,14 +10776,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 60940-2024</t>
+          <t>A 38875-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45645.37079861111</v>
+        <v>45887</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10772,7 +10801,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10809,14 +10838,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9511-2025</t>
+          <t>A 9525-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45715.53921296296</v>
+        <v>45715.56616898148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10834,7 +10863,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10871,14 +10900,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 52566-2023</t>
+          <t>A 38872-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45219</v>
+        <v>45887.5749074074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10890,8 +10919,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10928,14 +10962,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 57086-2025</t>
+          <t>A 60524-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45979.42208333333</v>
+        <v>45995.64032407408</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10948,7 +10982,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10992,7 +11026,7 @@
         <v>45629.54484953704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11054,7 +11088,7 @@
         <v>45205.55755787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11109,14 +11143,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 770-2026</t>
+          <t>A 60736-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46027</v>
+        <v>45996.78688657407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11129,7 +11163,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.2</v>
+        <v>5.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11166,14 +11200,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 12148-2025</t>
+          <t>A 60708-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45729</v>
+        <v>45996.6211574074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11185,13 +11219,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11228,14 +11257,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 13413-2025</t>
+          <t>A 12148-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45736.27847222222</v>
+        <v>45729</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11253,7 +11282,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11290,14 +11319,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 8074-2024</t>
+          <t>A 38917-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45351.42106481481</v>
+        <v>45163</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11315,7 +11344,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11352,14 +11381,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 21952-2024</t>
+          <t>A 13413-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45443.48370370371</v>
+        <v>45736.27847222222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11377,7 +11406,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11414,14 +11443,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 60524-2025</t>
+          <t>A 38907-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45995.64032407408</v>
+        <v>45163</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11431,6 +11460,11 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -11471,14 +11505,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 60736-2025</t>
+          <t>A 48118-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45996.78688657407</v>
+        <v>45205</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11490,8 +11524,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11528,14 +11567,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 62972-2023</t>
+          <t>A 8074-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45272</v>
+        <v>45351.42106481481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11547,8 +11586,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11585,14 +11629,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 52528-2024</t>
+          <t>A 21952-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45609</v>
+        <v>45443.48370370371</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11610,7 +11654,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11647,14 +11691,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 60708-2025</t>
+          <t>A 62972-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45996.6211574074</v>
+        <v>45272</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11667,7 +11711,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11704,14 +11748,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 12143-2025</t>
+          <t>A 52528-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45729</v>
+        <v>45609</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11729,7 +11773,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11766,14 +11810,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 14634-2025</t>
+          <t>A 12143-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45742</v>
+        <v>45729</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11791,7 +11835,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11828,14 +11872,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 51653-2023</t>
+          <t>A 14634-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45222</v>
+        <v>45742</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11853,7 +11897,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11890,14 +11934,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 12678-2025</t>
+          <t>A 51653-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45733.44137731481</v>
+        <v>45222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11915,7 +11959,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>9.699999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11952,14 +11996,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 20577-2023</t>
+          <t>A 12678-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45057</v>
+        <v>45733.44137731481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11977,7 +12021,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12014,14 +12058,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 45365-2023</t>
+          <t>A 20577-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45192.69640046296</v>
+        <v>45057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12033,8 +12077,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12071,14 +12120,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 6387-2024</t>
+          <t>A 45365-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45338.56366898148</v>
+        <v>45192.69640046296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12090,13 +12139,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12133,14 +12177,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 46147-2024</t>
+          <t>A 6387-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45581.45158564814</v>
+        <v>45338.56366898148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12158,7 +12202,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12195,14 +12239,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 54082-2024</t>
+          <t>A 46147-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45616.4956712963</v>
+        <v>45581.45158564814</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12214,8 +12258,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>6.3</v>
+        <v>2.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12252,14 +12301,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 6240-2024</t>
+          <t>A 54082-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45337</v>
+        <v>45616.4956712963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12272,7 +12321,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12309,14 +12358,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 6394-2024</t>
+          <t>A 6240-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45338.57230324074</v>
+        <v>45337</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12328,13 +12377,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12371,14 +12415,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 11085-2023</t>
+          <t>A 6394-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44986</v>
+        <v>45338.57230324074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12390,8 +12434,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12428,14 +12477,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 56886-2024</t>
+          <t>A 770-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45628.57332175926</v>
+        <v>46027</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12447,13 +12496,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12490,14 +12534,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 44806-2023</t>
+          <t>A 11085-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45190.49174768518</v>
+        <v>44986</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12509,13 +12553,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12552,14 +12591,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 5277-2024</t>
+          <t>A 56886-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45330</v>
+        <v>45628.57332175926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12571,8 +12610,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12609,14 +12653,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 50378-2024</t>
+          <t>A 4256-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45601.2984375</v>
+        <v>46045.33489583333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12628,13 +12672,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12671,14 +12710,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 33293-2023</t>
+          <t>A 9273-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45116</v>
+        <v>46070.56344907408</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12691,7 +12730,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>17.2</v>
+        <v>2.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12728,14 +12767,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 47941-2024</t>
+          <t>A 44806-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45589.34931712963</v>
+        <v>45190.49174768518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12753,7 +12792,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12790,14 +12829,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 44807-2023</t>
+          <t>A 5277-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45190.49269675926</v>
+        <v>45330</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12809,13 +12848,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12852,14 +12886,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 51652-2023</t>
+          <t>A 50378-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45222</v>
+        <v>45601.2984375</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12877,7 +12911,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12914,14 +12948,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 36963-2021</t>
+          <t>A 33293-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44393</v>
+        <v>45116</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12933,13 +12967,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>4.1</v>
+        <v>17.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12976,14 +13005,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 46220-2024</t>
+          <t>A 47941-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45581.56866898148</v>
+        <v>45589.34931712963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13001,7 +13030,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13038,14 +13067,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 46222-2024</t>
+          <t>A 44807-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45581.56938657408</v>
+        <v>45190.49269675926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13063,7 +13092,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13100,14 +13129,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 44457-2022</t>
+          <t>A 51652-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44839</v>
+        <v>45222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,8 +13148,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>6.8</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13157,14 +13191,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 32211-2022</t>
+          <t>A 36963-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44781.43078703704</v>
+        <v>44393</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13176,8 +13210,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13214,14 +13253,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 13405-2024</t>
+          <t>A 46220-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45387.44760416666</v>
+        <v>45581.56866898148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13231,6 +13270,11 @@
       <c r="E197" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -13271,14 +13315,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 12729-2024</t>
+          <t>A 46222-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45384.49421296296</v>
+        <v>45581.56938657408</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13296,7 +13340,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13333,14 +13377,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 26185-2024</t>
+          <t>A 44457-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45468.56267361111</v>
+        <v>44839</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13352,13 +13396,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13395,14 +13434,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 21649-2024</t>
+          <t>A 32211-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45442.3671412037</v>
+        <v>44781.43078703704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13414,13 +13453,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13457,14 +13491,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 58479-2024</t>
+          <t>A 13405-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45635.38675925926</v>
+        <v>45387.44760416666</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13476,13 +13510,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13519,14 +13548,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 63905-2021</t>
+          <t>A 12729-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44509.65712962963</v>
+        <v>45384.49421296296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13544,7 +13573,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13581,14 +13610,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 38743-2022</t>
+          <t>A 26185-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44816.34265046296</v>
+        <v>45468.56267361111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13606,7 +13635,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13643,14 +13672,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 13415-2025</t>
+          <t>A 21649-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45736.28094907408</v>
+        <v>45442.3671412037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13668,7 +13697,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13705,14 +13734,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 47935-2024</t>
+          <t>A 58479-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45589.34674768519</v>
+        <v>45635.38675925926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13730,7 +13759,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13767,14 +13796,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 52508-2024</t>
+          <t>A 63905-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45609</v>
+        <v>44509.65712962963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13792,7 +13821,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13829,14 +13858,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 46219-2024</t>
+          <t>A 38743-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45581.56686342593</v>
+        <v>44816.34265046296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13854,7 +13883,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13891,14 +13920,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 50377-2024</t>
+          <t>A 13415-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45601.29576388889</v>
+        <v>45736.28094907408</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13916,7 +13945,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13953,14 +13982,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 8059-2024</t>
+          <t>A 47935-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45351</v>
+        <v>45589.34674768519</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13978,7 +14007,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14015,14 +14044,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 44735-2021</t>
+          <t>A 52508-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44438</v>
+        <v>45609</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14034,8 +14063,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14072,14 +14106,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 29482-2023</t>
+          <t>A 46219-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45106.57938657407</v>
+        <v>45581.56686342593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14091,8 +14125,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14129,14 +14168,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 59158-2022</t>
+          <t>A 50377-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44904</v>
+        <v>45601.29576388889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14154,7 +14193,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14191,14 +14230,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 18773-2025</t>
+          <t>A 8059-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45763</v>
+        <v>45351</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14210,8 +14249,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>13</v>
+        <v>1.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14248,14 +14292,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 10320-2023</t>
+          <t>A 44735-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44986</v>
+        <v>44438</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14268,7 +14312,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14305,14 +14349,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 10797-2023</t>
+          <t>A 29482-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44989</v>
+        <v>45106.57938657407</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14325,7 +14369,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>9.5</v>
+        <v>0.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14362,14 +14406,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 11084-2023</t>
+          <t>A 59158-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44986</v>
+        <v>44904</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14381,8 +14425,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14419,14 +14468,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 50764-2024</t>
+          <t>A 18773-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45602.43876157407</v>
+        <v>45763</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14438,13 +14487,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>2.4</v>
+        <v>13</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14481,14 +14525,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 33658-2024</t>
+          <t>A 10320-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45520.46899305555</v>
+        <v>44986</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14501,7 +14545,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14538,14 +14582,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 14452-2025</t>
+          <t>A 10797-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45741.56143518518</v>
+        <v>44989</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14557,13 +14601,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14600,14 +14639,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 45861-2023</t>
+          <t>A 11084-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45195</v>
+        <v>44986</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14619,13 +14658,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14662,14 +14696,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 44841-2023</t>
+          <t>A 50764-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45190.55920138889</v>
+        <v>45602.43876157407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14687,7 +14721,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14724,14 +14758,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 13414-2025</t>
+          <t>A 33658-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45736.2803125</v>
+        <v>45520.46899305555</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14743,13 +14777,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14786,14 +14815,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 43768-2024</t>
+          <t>A 14452-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45569</v>
+        <v>45741.56143518518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14805,8 +14834,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14843,14 +14877,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 38738-2022</t>
+          <t>A 45861-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44816.34217592593</v>
+        <v>45195</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14868,7 +14902,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14905,14 +14939,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 14677-2025</t>
+          <t>A 44841-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45742.56465277778</v>
+        <v>45190.55920138889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14930,7 +14964,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14967,14 +15001,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 9510-2025</t>
+          <t>A 13414-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45715.53829861111</v>
+        <v>45736.2803125</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14992,7 +15026,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15029,14 +15063,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 14680-2025</t>
+          <t>A 43768-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45742.56774305556</v>
+        <v>45569</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15048,13 +15082,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15091,14 +15120,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 52131-2021</t>
+          <t>A 38738-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44463</v>
+        <v>44816.34217592593</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15110,8 +15139,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15148,14 +15182,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 52490-2024</t>
+          <t>A 14677-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45609.55875</v>
+        <v>45742.56465277778</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15173,7 +15207,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15210,14 +15244,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 58477-2024</t>
+          <t>A 9510-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45635.38418981482</v>
+        <v>45715.53829861111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15235,7 +15269,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15272,14 +15306,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 26182-2024</t>
+          <t>A 14680-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45468</v>
+        <v>45742.56774305556</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15297,7 +15331,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15334,14 +15368,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 61750-2021</t>
+          <t>A 52131-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44501.64055555555</v>
+        <v>44463</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15353,13 +15387,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15396,14 +15425,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 7472-2025</t>
+          <t>A 52490-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45705.46409722222</v>
+        <v>45609.55875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15421,7 +15450,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.6</v>
+        <v>6.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15458,14 +15487,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 14633-2025</t>
+          <t>A 58477-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45742</v>
+        <v>45635.38418981482</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15483,7 +15512,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15520,14 +15549,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 50207-2024</t>
+          <t>A 26182-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45600.49782407407</v>
+        <v>45468</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15539,8 +15568,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15577,14 +15611,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 50208-2024</t>
+          <t>A 61750-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45600.49924768518</v>
+        <v>44501.64055555555</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15596,8 +15630,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15634,14 +15673,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 22659-2024</t>
+          <t>A 7472-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45447</v>
+        <v>45705.46409722222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15653,8 +15692,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15691,14 +15735,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 12108-2024</t>
+          <t>A 14633-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45376</v>
+        <v>45742</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15710,8 +15754,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15748,14 +15797,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 18831-2025</t>
+          <t>A 50207-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45764.39109953704</v>
+        <v>45600.49782407407</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15767,13 +15816,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15810,14 +15854,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 32154-2023</t>
+          <t>A 50208-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45119</v>
+        <v>45600.49924768518</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15830,7 +15874,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15867,14 +15911,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 27438-2024</t>
+          <t>A 22659-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45474.40971064815</v>
+        <v>45447</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15887,7 +15931,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15924,14 +15968,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 46288-2024</t>
+          <t>A 12108-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45581.65881944444</v>
+        <v>45376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15943,13 +15987,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>3.7</v>
+        <v>7.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15986,14 +16025,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 51996-2023</t>
+          <t>A 18831-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45223</v>
+        <v>45764.39109953704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16011,7 +16050,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16048,14 +16087,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 58629-2024</t>
+          <t>A 32154-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45635.57008101852</v>
+        <v>45119</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16067,107 +16106,159 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="G244" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" s="2" t="inlineStr"/>
+    </row>
+    <row r="245" ht="15" customHeight="1">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>A 27438-2024</t>
+        </is>
+      </c>
+      <c r="B245" s="1" t="n">
+        <v>45474.40971064815</v>
+      </c>
+      <c r="C245" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" s="2" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>A 46288-2024</t>
+        </is>
+      </c>
+      <c r="B246" s="1" t="n">
+        <v>45581.65881944444</v>
+      </c>
+      <c r="C246" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G244" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="n">
-        <v>0</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0</v>
-      </c>
-      <c r="L244" t="n">
-        <v>0</v>
-      </c>
-      <c r="M244" t="n">
-        <v>0</v>
-      </c>
-      <c r="N244" t="n">
-        <v>0</v>
-      </c>
-      <c r="O244" t="n">
-        <v>0</v>
-      </c>
-      <c r="P244" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q244" t="n">
-        <v>0</v>
-      </c>
-      <c r="R244" s="2" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>A 50102-2023</t>
-        </is>
-      </c>
-      <c r="B245" s="1" t="n">
-        <v>45215</v>
-      </c>
-      <c r="C245" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G245" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="n">
-        <v>0</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0</v>
-      </c>
-      <c r="L245" t="n">
-        <v>0</v>
-      </c>
-      <c r="M245" t="n">
-        <v>0</v>
-      </c>
-      <c r="N245" t="n">
-        <v>0</v>
-      </c>
-      <c r="O245" t="n">
-        <v>0</v>
-      </c>
-      <c r="P245" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q245" t="n">
-        <v>0</v>
-      </c>
-      <c r="R245" s="2" t="inlineStr"/>
+      <c r="G246" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>45384</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45175</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>45932</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45205</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1352,14 +1352,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 47782-2025</t>
+          <t>A 25541-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45931</v>
+        <v>45089.56824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1371,17 +1371,22 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>13.4</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1396,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1405,134 +1410,129 @@
         <v>3</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Tretåig hackspett
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 25541-2023 artfynd.xlsx", "A 25541-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 25541-2023 karta.png", "A 25541-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 25541-2023 FSC-klagomål.docx", "A 25541-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 25541-2023 FSC-klagomål mail.docx", "A 25541-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 25541-2023 tillsynsbegäran.docx", "A 25541-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 25541-2023 tillsynsbegäran mail.docx", "A 25541-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 25541-2023 prioriterade fågelarter.docx", "A 25541-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 47782-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47782-2025 artfynd.xlsx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47782-2025 karta.png", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47782-2025 FSC-klagomål.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47782-2025 FSC-klagomål mail.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47782-2025 tillsynsbegäran.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47782-2025 tillsynsbegäran mail.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47782-2025 prioriterade fågelarter.docx", "A 47782-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 25541-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45089.56824074074</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Tretåig hackspett
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 25541-2023 artfynd.xlsx", "A 25541-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 25541-2023 karta.png", "A 25541-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 25541-2023 FSC-klagomål.docx", "A 25541-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 25541-2023 FSC-klagomål mail.docx", "A 25541-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 25541-2023 tillsynsbegäran.docx", "A 25541-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 25541-2023 tillsynsbegäran mail.docx", "A 25541-2023")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 25541-2023 prioriterade fågelarter.docx", "A 25541-2023")</f>
         <v/>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
         <v>45163</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44550</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45931</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45866</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45351</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>44853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,14 +2267,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 53838-2024</t>
+          <t>A 2357-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45614</v>
+        <v>44578</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2325,45 +2325,45 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 2357-2022</t>
+          <t>A 49306-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44578</v>
+        <v>45938</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2410,49 +2410,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 47787-2025</t>
+          <t>A 53838-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45931</v>
+        <v>45614</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2465,7 +2461,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2499,49 +2495,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 33297-2023</t>
+          <t>A 47787-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45116</v>
+        <v>45931</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,10 +2550,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2588,45 +2584,49 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27093-2023</t>
+          <t>A 47915-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45096</v>
+        <v>45589.34315972222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2678,49 +2678,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 49306-2025</t>
+          <t>A 38910-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45938</v>
+        <v>45163</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2732,14 +2728,19 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2767,45 +2768,49 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38910-2023 artfynd.xlsx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38910-2023 karta.png", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38910-2023 FSC-klagomål.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38910-2023 FSC-klagomål mail.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38910-2023 tillsynsbegäran.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38910-2023 tillsynsbegäran mail.docx", "A 38910-2023")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38910-2023 prioriterade fågelarter.docx", "A 38910-2023")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 38914-2023</t>
+          <t>A 40870-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45163</v>
+        <v>45558.59421296296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,7 +2828,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2857,49 +2862,49 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 40870-2024</t>
+          <t>A 38912-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45558.59421296296</v>
+        <v>45163</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2917,7 +2922,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2951,49 +2956,49 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 38910-2023</t>
+          <t>A 12720-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45163</v>
+        <v>45384</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3011,7 +3016,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -3020,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3035,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3045,49 +3050,49 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38910-2023 artfynd.xlsx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38910-2023 karta.png", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38910-2023 FSC-klagomål.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38910-2023 FSC-klagomål mail.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38910-2023 tillsynsbegäran.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38910-2023 tillsynsbegäran mail.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38910-2023 prioriterade fågelarter.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 38912-2023</t>
+          <t>A 27093-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45163</v>
+        <v>45096</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3105,7 +3110,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3114,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -3129,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3139,49 +3144,49 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 12720-2024</t>
+          <t>A 33297-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45384</v>
+        <v>45116</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3193,16 +3198,11 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3233,49 +3233,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 47915-2024</t>
+          <t>A 38914-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45589.34315972222</v>
+        <v>45163</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3293,7 +3289,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3302,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3317,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3327,31 +3323,35 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
+        <v/>
+      </c>
+      <c r="Z31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
         <v/>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44805</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44396.35755787037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44861</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44607.48398148148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44651</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44692</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44308</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44470</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44497.42795138889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44466.38188657408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>44643</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>44470</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44529.52201388889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44525.76128472222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44509.65762731482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44505.41567129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4766,14 +4766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14679-2025</t>
+          <t>A 9510-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45742.56643518519</v>
+        <v>45715.53829861111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4828,14 +4828,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 51996-2023</t>
+          <t>A 44806-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45223</v>
+        <v>45190.49174768518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4890,14 +4890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 7975-2025</t>
+          <t>A 45861-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45707.46203703704</v>
+        <v>45195</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4952,14 +4952,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18675-2025</t>
+          <t>A 6394-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45763.59862268518</v>
+        <v>45338.57230324074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4971,8 +4971,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5009,14 +5014,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 58629-2024</t>
+          <t>A 18831-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45635.57008101852</v>
+        <v>45764.39109953704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5034,7 +5039,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5071,14 +5076,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 29607-2022</t>
+          <t>A 18675-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44754.50530092593</v>
+        <v>45763.59862268518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5090,13 +5095,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5133,14 +5133,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 55341-2025</t>
+          <t>A 48625-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45971.34751157407</v>
+        <v>45936.50938657407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5152,13 +5152,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5195,14 +5190,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 50102-2023</t>
+          <t>A 38874-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45215</v>
+        <v>45887</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5220,7 +5215,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5257,14 +5252,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 37672-2024</t>
+          <t>A 38875-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45541.57966435186</v>
+        <v>45887</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5282,7 +5277,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5319,14 +5314,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38874-2025</t>
+          <t>A 38872-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45887</v>
+        <v>45887.5749074074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5344,7 +5339,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5381,14 +5376,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 62982-2023</t>
+          <t>A 38782-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45272</v>
+        <v>45887</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5401,7 +5396,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5438,14 +5433,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38782-2025</t>
+          <t>A 38743-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45887</v>
+        <v>44816.34265046296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5457,8 +5452,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5495,14 +5495,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 21935-2024</t>
+          <t>A 58629-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45443.47237268519</v>
+        <v>45635.57008101852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5557,14 +5557,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56478-2024</t>
+          <t>A 9525-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45624</v>
+        <v>45715.56616898148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5576,8 +5576,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5614,14 +5619,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 8062-2024</t>
+          <t>A 27438-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45351</v>
+        <v>45474.40971064815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5633,13 +5638,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5676,14 +5676,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 23460-2024</t>
+          <t>A 50102-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45453.65363425926</v>
+        <v>45215</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5695,8 +5695,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5733,14 +5738,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 53406-2024</t>
+          <t>A 51996-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45614.49704861111</v>
+        <v>45223</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5758,7 +5763,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5795,14 +5800,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 24707-2025</t>
+          <t>A 62982-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45798.81579861111</v>
+        <v>45272</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5815,7 +5820,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5852,14 +5857,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 5218-2024</t>
+          <t>A 26182-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45330.64273148148</v>
+        <v>45468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5877,7 +5882,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5914,14 +5919,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 59206-2024</t>
+          <t>A 46288-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45636</v>
+        <v>45581.65881944444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5933,8 +5938,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5971,14 +5981,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57086-2025</t>
+          <t>A 13405-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45979.42208333333</v>
+        <v>45387.44760416666</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5991,7 +6001,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6028,14 +6038,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 10321-2023</t>
+          <t>A 26176-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44986.99549768519</v>
+        <v>45468.55660879629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6047,8 +6057,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6085,14 +6100,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41369-2025</t>
+          <t>A 25177-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45900.56857638889</v>
+        <v>45462.546875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6104,8 +6119,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>6.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6142,14 +6162,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 41642-2025</t>
+          <t>A 21935-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45901</v>
+        <v>45443.47237268519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6161,8 +6181,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6199,14 +6224,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25744-2025</t>
+          <t>A 41766-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45804.18709490741</v>
+        <v>45902.54806712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6224,7 +6249,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6261,14 +6286,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26301-2025</t>
+          <t>A 41767-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45805.63861111111</v>
+        <v>45902.54892361111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6286,7 +6311,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6323,14 +6348,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 36437-2024</t>
+          <t>A 41369-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45535</v>
+        <v>45900.56857638889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6343,7 +6368,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6380,14 +6405,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 26147-2025</t>
+          <t>A 41642-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45805.4308912037</v>
+        <v>45901</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6399,13 +6424,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6442,14 +6462,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 26170-2025</t>
+          <t>A 23460-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45805.46351851852</v>
+        <v>45453.65363425926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6461,13 +6481,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6504,14 +6519,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 26153-2025</t>
+          <t>A 3177-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45805.43332175926</v>
+        <v>44582.61244212963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6523,13 +6538,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6566,14 +6576,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 25923-2025</t>
+          <t>A 50378-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45804</v>
+        <v>45601.2984375</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,11 +6597,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6628,14 +6638,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 38904-2023</t>
+          <t>A 51040-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45163</v>
+        <v>45947.41420138889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6653,7 +6663,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6690,14 +6700,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 38921-2023</t>
+          <t>A 52099-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45163</v>
+        <v>45952</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6709,13 +6719,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6752,14 +6757,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 41767-2025</t>
+          <t>A 5218-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45902.54892361111</v>
+        <v>45330.64273148148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6777,7 +6782,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6814,14 +6819,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41766-2025</t>
+          <t>A 10321-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45902.54806712963</v>
+        <v>44986.99549768519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6833,13 +6838,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6876,14 +6876,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26820-2025</t>
+          <t>A 24707-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45810.63664351852</v>
+        <v>45798.81579861111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6933,14 +6933,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26783-2025</t>
+          <t>A 57234-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45810.5834375</v>
+        <v>45629.54484953704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6952,8 +6952,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6990,14 +6995,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43690-2025</t>
+          <t>A 43691-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45912.38975694445</v>
+        <v>45912.39130787037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7015,7 +7020,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7052,14 +7057,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43694-2025</t>
+          <t>A 54235-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45912.39295138889</v>
+        <v>45964.62569444445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7077,7 +7082,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7114,14 +7119,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43691-2025</t>
+          <t>A 54232-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45912.39130787037</v>
+        <v>45964.62188657407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7139,7 +7144,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7176,14 +7181,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 28367-2025</t>
+          <t>A 54233-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45819</v>
+        <v>45964.62453703704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7201,7 +7206,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.1</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7238,14 +7243,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 28368-2025</t>
+          <t>A 43689-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45819.21581018518</v>
+        <v>45912.38899305555</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7263,7 +7268,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8.1</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7300,14 +7305,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 28370-2025</t>
+          <t>A 43692-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45819.22013888889</v>
+        <v>45912.39221064815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7325,7 +7330,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7362,14 +7367,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 43752-2025</t>
+          <t>A 43694-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45912</v>
+        <v>45912.39295138889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7381,8 +7386,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7419,14 +7429,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43692-2025</t>
+          <t>A 43690-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45912.39221064815</v>
+        <v>45912.38975694445</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7444,7 +7454,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7481,14 +7491,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 21562-2024</t>
+          <t>A 25744-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45441.65392361111</v>
+        <v>45804.18709490741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7506,7 +7516,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7543,14 +7553,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43689-2025</t>
+          <t>A 43752-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45912.38899305555</v>
+        <v>45912</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7562,13 +7572,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7605,14 +7610,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 16480-2025</t>
+          <t>A 25923-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45751.57702546296</v>
+        <v>45804</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7624,8 +7629,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7662,14 +7672,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 28369-2025</t>
+          <t>A 25175-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45819.21905092592</v>
+        <v>45462.545625</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7687,7 +7697,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7724,14 +7734,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 44642-2025</t>
+          <t>A 26301-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45917.52719907407</v>
+        <v>45805.63861111111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7743,8 +7753,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7781,14 +7796,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 10672-2024</t>
+          <t>A 26170-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45369.35207175926</v>
+        <v>45805.46351851852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7806,7 +7821,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7843,14 +7858,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 2565-2022</t>
+          <t>A 26153-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44579</v>
+        <v>45805.43332175926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7862,8 +7877,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7900,14 +7920,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 23066-2022</t>
+          <t>A 6387-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44719.45199074074</v>
+        <v>45338.56366898148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7919,8 +7939,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7957,14 +7982,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 31603-2025</t>
+          <t>A 26147-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45833.73876157407</v>
+        <v>45805.4308912037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7976,8 +8001,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8014,14 +8044,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 32300-2025</t>
+          <t>A 55341-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45835.71607638889</v>
+        <v>45971.34751157407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8033,8 +8063,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8071,14 +8106,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60907-2023</t>
+          <t>A 44642-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45261</v>
+        <v>45917.52719907407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8090,13 +8125,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8133,14 +8163,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 48625-2025</t>
+          <t>A 26783-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45936.50938657407</v>
+        <v>45810.5834375</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8153,7 +8183,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8190,14 +8220,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 32717-2025</t>
+          <t>A 26820-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45839.37686342592</v>
+        <v>45810.63664351852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8210,7 +8240,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8247,14 +8277,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 25175-2024</t>
+          <t>A 53406-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45462.545625</v>
+        <v>45614.49704861111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8272,7 +8302,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8309,14 +8339,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26176-2024</t>
+          <t>A 59158-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45468.55660879629</v>
+        <v>44904</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8334,7 +8364,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8371,14 +8401,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 3177-2022</t>
+          <t>A 5277-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44582.61244212963</v>
+        <v>45330</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8391,7 +8421,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8428,14 +8458,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 33404-2025</t>
+          <t>A 28369-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45841</v>
+        <v>45819.21905092592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8447,8 +8477,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8485,14 +8520,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50766-2024</t>
+          <t>A 28367-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45602.43986111111</v>
+        <v>45819</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8510,7 +8545,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>6.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8547,14 +8582,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 8184-2022</t>
+          <t>A 28368-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44609</v>
+        <v>45819.21581018518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8566,8 +8601,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>8.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8604,14 +8644,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46290-2024</t>
+          <t>A 28370-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45581.66018518519</v>
+        <v>45819.22013888889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8666,14 +8706,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 52506-2024</t>
+          <t>A 43768-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45609</v>
+        <v>45569</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8685,13 +8725,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8728,14 +8763,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 52523-2024</t>
+          <t>A 23066-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45609</v>
+        <v>44719.45199074074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8747,13 +8782,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8790,14 +8820,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 59863-2024</t>
+          <t>A 57086-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45639</v>
+        <v>45979.42208333333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8810,7 +8840,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8847,14 +8877,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 51040-2025</t>
+          <t>A 31603-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45947.41420138889</v>
+        <v>45833.73876157407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8866,13 +8896,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8909,14 +8934,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 14678-2025</t>
+          <t>A 46220-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45742.56563657407</v>
+        <v>45581.56866898148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8934,7 +8959,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8971,14 +8996,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 14681-2025</t>
+          <t>A 47935-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45742.56857638889</v>
+        <v>45589.34674768519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8996,7 +9021,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9033,14 +9058,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 58197-2024</t>
+          <t>A 46219-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45632.48092592593</v>
+        <v>45581.56686342593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9058,7 +9083,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9095,14 +9120,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35706-2025</t>
+          <t>A 32300-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45860.37125</v>
+        <v>45835.71607638889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9115,7 +9140,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9152,14 +9177,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 54515-2023</t>
+          <t>A 21952-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45233.57033564815</v>
+        <v>45443.48370370371</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9171,8 +9196,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9209,14 +9239,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 52099-2025</t>
+          <t>A 52566-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45952</v>
+        <v>45219</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9229,7 +9259,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9266,14 +9296,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 54994-2024</t>
+          <t>A 32717-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45621.27174768518</v>
+        <v>45839.37686342592</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9285,13 +9315,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9328,14 +9353,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 36768-2025</t>
+          <t>A 62972-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45873.58413194444</v>
+        <v>45272</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9347,13 +9372,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9390,14 +9410,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 36769-2025</t>
+          <t>A 33404-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45873.58680555555</v>
+        <v>45841</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9409,13 +9429,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>9.6</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9452,14 +9467,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 23683-2025</t>
+          <t>A 50377-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45793.34197916667</v>
+        <v>45601.29576388889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9471,8 +9486,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9509,14 +9529,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 56464-2024</t>
+          <t>A 14678-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45624</v>
+        <v>45742.56563657407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9528,8 +9548,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9566,14 +9591,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 13236-2025</t>
+          <t>A 14681-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45735.47133101852</v>
+        <v>45742.56857638889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9591,7 +9616,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>18.5</v>
+        <v>2.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9628,14 +9653,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 25177-2024</t>
+          <t>A 59863-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45462.546875</v>
+        <v>45639</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9647,13 +9672,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9690,14 +9710,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 54235-2025</t>
+          <t>A 52490-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45964.62569444445</v>
+        <v>45609.55875</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9715,7 +9735,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9752,14 +9772,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 13412-2025</t>
+          <t>A 35706-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45736.27773148148</v>
+        <v>45860.37125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9771,13 +9791,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9814,14 +9829,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 37333-2025</t>
+          <t>A 58120-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45876.66482638889</v>
+        <v>45632.39280092593</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9833,8 +9848,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9871,14 +9891,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 37265-2025</t>
+          <t>A 58125-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45876.46099537037</v>
+        <v>45632.39546296297</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9890,8 +9910,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>8.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9928,14 +9953,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 54232-2025</t>
+          <t>A 52508-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45964.62188657407</v>
+        <v>45609</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9953,7 +9978,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9990,14 +10015,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 54233-2025</t>
+          <t>A 52528-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45964.62453703704</v>
+        <v>45609</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10015,7 +10040,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10052,14 +10077,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 38233-2023</t>
+          <t>A 59206-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45160</v>
+        <v>45636</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10072,7 +10097,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10109,14 +10134,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 15594-2025</t>
+          <t>A 11085-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45747.88466435186</v>
+        <v>44986</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10129,7 +10154,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10166,14 +10191,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 10674-2024</t>
+          <t>A 23683-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45369.35297453704</v>
+        <v>45793.34197916667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10185,13 +10210,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10228,14 +10248,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 60933-2024</t>
+          <t>A 60524-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45645.36615740741</v>
+        <v>45995.64032407408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10247,13 +10267,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10290,14 +10305,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 73693-2021</t>
+          <t>A 36768-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44552.48893518518</v>
+        <v>45873.58413194444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10309,8 +10324,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10347,14 +10367,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 58120-2024</t>
+          <t>A 36769-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45632.39280092593</v>
+        <v>45873.58680555555</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10372,7 +10392,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.1</v>
+        <v>9.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10409,14 +10429,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 58125-2024</t>
+          <t>A 50764-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45632.39546296297</v>
+        <v>45602.43876157407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10434,7 +10454,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>8.9</v>
+        <v>2.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10471,14 +10491,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58164-2024</t>
+          <t>A 37333-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45632.45396990741</v>
+        <v>45876.66482638889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10490,13 +10510,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10533,14 +10548,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 60937-2024</t>
+          <t>A 37265-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45645.3683912037</v>
+        <v>45876.46099537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10552,13 +10567,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10595,14 +10605,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 60940-2024</t>
+          <t>A 60708-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45645.37079861111</v>
+        <v>45996.6211574074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10614,13 +10624,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10657,14 +10662,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 9511-2025</t>
+          <t>A 54082-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45715.53921296296</v>
+        <v>45616.4956712963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10676,13 +10681,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10719,14 +10719,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 52566-2023</t>
+          <t>A 15594-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45219</v>
+        <v>45747.88466435186</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10776,14 +10776,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 38875-2025</t>
+          <t>A 38904-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45887</v>
+        <v>45163</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10838,14 +10838,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9525-2025</t>
+          <t>A 38921-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45715.56616898148</v>
+        <v>45163</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10900,14 +10900,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 38872-2025</t>
+          <t>A 58479-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45887.5749074074</v>
+        <v>45635.38675925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10962,14 +10962,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 60524-2025</t>
+          <t>A 60736-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45995.64032407408</v>
+        <v>45996.78688657407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11019,14 +11019,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 57234-2024</t>
+          <t>A 48285-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45629.54484953704</v>
+        <v>45205.55755787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11081,14 +11081,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 48285-2023</t>
+          <t>A 38907-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45205.55755787037</v>
+        <v>45163</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11143,14 +11143,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 60736-2025</t>
+          <t>A 63905-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45996.78688657407</v>
+        <v>44509.65712962963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11162,8 +11162,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11200,14 +11205,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 60708-2025</t>
+          <t>A 48118-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45996.6211574074</v>
+        <v>45205</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11219,8 +11224,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11257,14 +11267,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 12148-2025</t>
+          <t>A 14677-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45729</v>
+        <v>45742.56465277778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11282,7 +11292,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11326,7 +11336,7 @@
         <v>45163</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11381,14 +11391,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 13413-2025</t>
+          <t>A 12148-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45736.27847222222</v>
+        <v>45729</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11406,7 +11416,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11443,14 +11453,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 38907-2023</t>
+          <t>A 14633-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45163</v>
+        <v>45742</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11468,7 +11478,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11505,14 +11515,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48118-2023</t>
+          <t>A 14634-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45205</v>
+        <v>45742</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11530,7 +11540,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11567,14 +11577,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 8074-2024</t>
+          <t>A 20577-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45351.42106481481</v>
+        <v>45057</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11592,7 +11602,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11629,14 +11639,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 21952-2024</t>
+          <t>A 10797-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45443.48370370371</v>
+        <v>44989</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11648,13 +11658,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>9.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11691,14 +11696,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62972-2023</t>
+          <t>A 16480-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45272</v>
+        <v>45751.57702546296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11711,7 +11716,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.3</v>
+        <v>5.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11748,14 +11753,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 52528-2024</t>
+          <t>A 44457-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45609</v>
+        <v>44839</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11767,13 +11772,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11810,14 +11810,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 12143-2025</t>
+          <t>A 29482-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45729</v>
+        <v>45106.57938657407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,13 +11829,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11872,14 +11867,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 14634-2025</t>
+          <t>A 58197-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45742</v>
+        <v>45632.48092592593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11897,7 +11892,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11934,14 +11929,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 51653-2023</t>
+          <t>A 13236-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45222</v>
+        <v>45735.47133101852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11959,7 +11954,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.9</v>
+        <v>18.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11996,14 +11991,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 12678-2025</t>
+          <t>A 11084-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45733.44137731481</v>
+        <v>44986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12015,13 +12010,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>9.699999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12058,14 +12048,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 20577-2023</t>
+          <t>A 56478-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45057</v>
+        <v>45624</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12077,13 +12067,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12120,14 +12105,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 45365-2023</t>
+          <t>A 46147-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45192.69640046296</v>
+        <v>45581.45158564814</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12139,8 +12124,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12177,14 +12167,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 6387-2024</t>
+          <t>A 60933-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45338.56366898148</v>
+        <v>45645.36615740741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12202,7 +12192,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12239,14 +12229,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 46147-2024</t>
+          <t>A 47941-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45581.45158564814</v>
+        <v>45589.34931712963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12264,7 +12254,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12301,14 +12291,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 54082-2024</t>
+          <t>A 61750-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45616.4956712963</v>
+        <v>44501.64055555555</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12320,8 +12310,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12358,14 +12353,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 6240-2024</t>
+          <t>A 29607-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45337</v>
+        <v>44754.50530092593</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12377,8 +12372,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12415,14 +12415,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 6394-2024</t>
+          <t>A 6240-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45338.57230324074</v>
+        <v>45337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,13 +12434,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12477,14 +12472,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 770-2026</t>
+          <t>A 46222-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46027</v>
+        <v>45581.56938657408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,8 +12491,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12534,14 +12534,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 11085-2023</t>
+          <t>A 770-2026</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44986</v>
+        <v>46027</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12591,14 +12591,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 56886-2024</t>
+          <t>A 9273-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45628.57332175926</v>
+        <v>46070.56344907408</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12610,13 +12610,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12653,14 +12648,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 4256-2026</t>
+          <t>A 33658-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46045.33489583333</v>
+        <v>45520.46899305555</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12673,7 +12668,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12710,14 +12705,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 9273-2026</t>
+          <t>A 38233-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46070.56344907408</v>
+        <v>45160</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12730,7 +12725,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12767,14 +12762,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 44806-2023</t>
+          <t>A 26185-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45190.49174768518</v>
+        <v>45468.56267361111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12792,7 +12787,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12829,14 +12824,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 5277-2024</t>
+          <t>A 14452-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45330</v>
+        <v>45741.56143518518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12848,8 +12843,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12886,14 +12886,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 50378-2024</t>
+          <t>A 4256-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45601.2984375</v>
+        <v>46045.33489583333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12905,13 +12905,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12948,14 +12943,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 33293-2023</t>
+          <t>A 50766-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45116</v>
+        <v>45602.43986111111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12967,8 +12962,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>17.2</v>
+        <v>2.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13005,14 +13005,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 47941-2024</t>
+          <t>A 58164-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45589.34931712963</v>
+        <v>45632.45396990741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13067,14 +13067,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 44807-2023</t>
+          <t>A 50207-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45190.49269675926</v>
+        <v>45600.49782407407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13086,13 +13086,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13129,14 +13124,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 51652-2023</t>
+          <t>A 50208-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45222</v>
+        <v>45600.49924768518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13148,13 +13143,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13191,14 +13181,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 36963-2021</t>
+          <t>A 12143-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44393</v>
+        <v>45729</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13216,7 +13206,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13253,14 +13243,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 46220-2024</t>
+          <t>A 52523-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45581.56866898148</v>
+        <v>45609</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13278,7 +13268,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13315,14 +13305,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 46222-2024</t>
+          <t>A 8184-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45581.56938657408</v>
+        <v>44609</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,13 +13324,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13377,14 +13362,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 44457-2022</t>
+          <t>A 60937-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44839</v>
+        <v>45645.3683912037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,8 +13381,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>6.8</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13434,14 +13424,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 32211-2022</t>
+          <t>A 60940-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44781.43078703704</v>
+        <v>45645.37079861111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13453,8 +13443,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13491,14 +13486,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 13405-2024</t>
+          <t>A 56886-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45387.44760416666</v>
+        <v>45628.57332175926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13510,8 +13505,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13548,14 +13548,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 12729-2024</t>
+          <t>A 44807-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45384.49421296296</v>
+        <v>45190.49269675926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.5</v>
+        <v>5.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13610,14 +13610,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 26185-2024</t>
+          <t>A 51652-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45468.56267361111</v>
+        <v>45222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>45442.3671412037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13734,14 +13734,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 58479-2024</t>
+          <t>A 33293-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45635.38675925926</v>
+        <v>45116</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,13 +13753,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>1.1</v>
+        <v>17.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13796,14 +13791,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 63905-2021</t>
+          <t>A 32154-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44509.65712962963</v>
+        <v>45119</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13815,13 +13810,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13858,14 +13848,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 38743-2022</t>
+          <t>A 8062-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44816.34265046296</v>
+        <v>45351</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13883,7 +13873,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13920,14 +13910,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 13415-2025</t>
+          <t>A 8074-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45736.28094907408</v>
+        <v>45351.42106481481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13945,7 +13935,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13982,14 +13972,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 47935-2024</t>
+          <t>A 10672-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45589.34674768519</v>
+        <v>45369.35207175926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14007,7 +13997,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14044,14 +14034,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 52508-2024</t>
+          <t>A 60907-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45609</v>
+        <v>45261</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14069,7 +14059,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14106,14 +14096,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 46219-2024</t>
+          <t>A 9511-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45581.56686342593</v>
+        <v>45715.53921296296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14131,7 +14121,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14168,14 +14158,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 50377-2024</t>
+          <t>A 14679-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45601.29576388889</v>
+        <v>45742.56643518519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14193,7 +14183,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14230,14 +14220,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 8059-2024</t>
+          <t>A 32211-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45351</v>
+        <v>44781.43078703704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14249,13 +14239,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14292,14 +14277,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 44735-2021</t>
+          <t>A 36963-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44438</v>
+        <v>44393</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14311,8 +14296,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14349,14 +14339,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 29482-2023</t>
+          <t>A 13412-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45106.57938657407</v>
+        <v>45736.27773148148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14368,8 +14358,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14406,14 +14401,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 59158-2022</t>
+          <t>A 13414-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44904</v>
+        <v>45736.2803125</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14431,7 +14426,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14468,14 +14463,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 18773-2025</t>
+          <t>A 46290-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45763</v>
+        <v>45581.66018518519</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14487,8 +14482,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14525,14 +14525,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 10320-2023</t>
+          <t>A 73693-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44986</v>
+        <v>44552.48893518518</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14582,14 +14582,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 10797-2023</t>
+          <t>A 13415-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44989</v>
+        <v>45736.28094907408</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14601,8 +14601,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>9.5</v>
+        <v>1.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14639,14 +14644,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 11084-2023</t>
+          <t>A 36437-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44986</v>
+        <v>45535</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14659,7 +14664,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14696,14 +14701,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 50764-2024</t>
+          <t>A 45365-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45602.43876157407</v>
+        <v>45192.69640046296</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14715,13 +14720,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14758,14 +14758,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 33658-2024</t>
+          <t>A 52131-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45520.46899305555</v>
+        <v>44463</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14815,14 +14815,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 14452-2025</t>
+          <t>A 37672-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45741.56143518518</v>
+        <v>45541.57966435186</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14877,14 +14877,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 45861-2023</t>
+          <t>A 44735-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45195</v>
+        <v>44438</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14896,13 +14896,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14939,14 +14934,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 44841-2023</t>
+          <t>A 56464-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45190.55920138889</v>
+        <v>45624</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14958,13 +14953,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -15001,14 +14991,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 13414-2025</t>
+          <t>A 2565-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45736.2803125</v>
+        <v>44579</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15020,13 +15010,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15063,14 +15048,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 43768-2024</t>
+          <t>A 12678-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45569</v>
+        <v>45733.44137731481</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15082,8 +15067,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15120,14 +15110,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 38738-2022</t>
+          <t>A 44841-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44816.34217592593</v>
+        <v>45190.55920138889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15145,7 +15135,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15182,14 +15172,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 14677-2025</t>
+          <t>A 10674-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45742.56465277778</v>
+        <v>45369.35297453704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15207,7 +15197,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15244,14 +15234,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 9510-2025</t>
+          <t>A 14680-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45715.53829861111</v>
+        <v>45742.56774305556</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15269,7 +15259,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15306,14 +15296,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 14680-2025</t>
+          <t>A 18773-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45742.56774305556</v>
+        <v>45763</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15325,13 +15315,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15368,14 +15353,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 52131-2021</t>
+          <t>A 51653-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44463</v>
+        <v>45222</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15387,8 +15372,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15425,14 +15415,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 52490-2024</t>
+          <t>A 12108-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45609.55875</v>
+        <v>45376</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15444,13 +15434,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>6.4</v>
+        <v>7.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15487,14 +15472,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 58477-2024</t>
+          <t>A 54994-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45635.38418981482</v>
+        <v>45621.27174768518</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15512,7 +15497,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15549,14 +15534,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 26182-2024</t>
+          <t>A 22659-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45468</v>
+        <v>45447</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15568,13 +15553,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15611,14 +15591,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 61750-2021</t>
+          <t>A 52506-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44501.64055555555</v>
+        <v>45609</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15636,7 +15616,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15673,14 +15653,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 7472-2025</t>
+          <t>A 21562-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45705.46409722222</v>
+        <v>45441.65392361111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15698,7 +15678,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15735,14 +15715,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 14633-2025</t>
+          <t>A 8059-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45742</v>
+        <v>45351</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15760,7 +15740,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15797,14 +15777,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 50207-2024</t>
+          <t>A 54515-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45600.49782407407</v>
+        <v>45233.57033564815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15817,7 +15797,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15854,14 +15834,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 50208-2024</t>
+          <t>A 13413-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45600.49924768518</v>
+        <v>45736.27847222222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15873,8 +15853,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15911,14 +15896,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 22659-2024</t>
+          <t>A 38738-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45447</v>
+        <v>44816.34217592593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15930,8 +15915,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15968,14 +15958,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 12108-2024</t>
+          <t>A 12729-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45376</v>
+        <v>45384.49421296296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15987,8 +15977,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>7.7</v>
+        <v>2.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -16025,14 +16020,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 18831-2025</t>
+          <t>A 10320-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45764.39109953704</v>
+        <v>44986</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16044,13 +16039,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16087,14 +16077,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 32154-2023</t>
+          <t>A 7472-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45119</v>
+        <v>45705.46409722222</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16106,8 +16096,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16144,14 +16139,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 27438-2024</t>
+          <t>A 58477-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45474.40971064815</v>
+        <v>45635.38418981482</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16163,8 +16158,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16201,14 +16201,14 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 46288-2024</t>
+          <t>A 7975-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45581.65881944444</v>
+        <v>45707.46203703704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>45384</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45175</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>45932</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45205</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>45089.56824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>45931</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45163</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44550</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1730,14 +1730,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 47785-2025</t>
+          <t>A 36081-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45931</v>
+        <v>45866</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1749,32 +1749,37 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1784,196 +1789,191 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Skogsklocka
+Svinrot</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 36081-2025 artfynd.xlsx", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 36081-2025 karta.png", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 36081-2025 FSC-klagomål.docx", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 36081-2025 FSC-klagomål mail.docx", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 36081-2025 tillsynsbegäran.docx", "A 36081-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 36081-2025 tillsynsbegäran mail.docx", "A 36081-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 47785-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47785-2025 artfynd.xlsx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47785-2025 karta.png", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47785-2025 FSC-klagomål.docx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47785-2025 FSC-klagomål mail.docx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47785-2025 tillsynsbegäran.docx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47785-2025 tillsynsbegäran mail.docx", "A 47785-2025")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47785-2025 prioriterade fågelarter.docx", "A 47785-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 36081-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45866</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 8063-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>1.5</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>2</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>2</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka
 Svinrot</t>
         </is>
       </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 36081-2025 artfynd.xlsx", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 36081-2025 karta.png", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 36081-2025 FSC-klagomål.docx", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 36081-2025 FSC-klagomål mail.docx", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 36081-2025 tillsynsbegäran.docx", "A 36081-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 36081-2025 tillsynsbegäran mail.docx", "A 36081-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 8063-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45351</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka
-Svinrot</t>
-        </is>
-      </c>
       <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 8063-2024 artfynd.xlsx", "A 8063-2024")</f>
         <v/>
@@ -2009,7 +2009,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>44853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,14 +2267,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 2357-2022</t>
+          <t>A 33297-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44578</v>
+        <v>45116</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2321,49 +2321,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 49306-2025</t>
+          <t>A 27093-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45938</v>
+        <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2375,14 +2371,19 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2410,45 +2411,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 53838-2024</t>
+          <t>A 38914-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45614</v>
+        <v>45163</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2460,8 +2465,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2495,49 +2505,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47787-2025</t>
+          <t>A 49306-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45931</v>
+        <v>45938</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2550,16 +2560,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2574,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2584,49 +2594,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 47915-2024</t>
+          <t>A 47787-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45589.34315972222</v>
+        <v>45931</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2638,13 +2644,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2653,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2668,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2678,45 +2679,49 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 38910-2023</t>
+          <t>A 40870-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45163</v>
+        <v>45558.59421296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2734,7 +2739,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2743,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2758,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2768,49 +2773,49 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38910-2023 artfynd.xlsx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38910-2023 karta.png", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38910-2023 FSC-klagomål.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38910-2023 FSC-klagomål mail.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38910-2023 tillsynsbegäran.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38910-2023 tillsynsbegäran mail.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38910-2023 prioriterade fågelarter.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 40870-2024</t>
+          <t>A 38910-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45558.59421296296</v>
+        <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2833,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2837,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2852,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2862,35 +2867,35 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38910-2023 artfynd.xlsx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38910-2023 karta.png", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38910-2023 FSC-klagomål.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38910-2023 FSC-klagomål mail.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38910-2023 tillsynsbegäran.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38910-2023 tillsynsbegäran mail.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38910-2023 prioriterade fågelarter.docx", "A 38910-2023")</f>
         <v/>
       </c>
     </row>
@@ -2904,7 +2909,7 @@
         <v>45163</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2998,7 +3003,7 @@
         <v>45384</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3085,14 +3090,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 27093-2023</t>
+          <t>A 47915-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45096</v>
+        <v>45589.34315972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3110,7 +3115,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3144,49 +3149,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 27093-2023 artfynd.xlsx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 27093-2023 karta.png", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 27093-2023 FSC-klagomål.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 27093-2023 FSC-klagomål mail.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 27093-2023 tillsynsbegäran.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 27093-2023 tillsynsbegäran mail.docx", "A 27093-2023")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 27093-2023 prioriterade fågelarter.docx", "A 27093-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 33297-2023</t>
+          <t>A 53838-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45116</v>
+        <v>45614</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3199,10 +3200,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3233,45 +3234,49 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 38914-2023</t>
+          <t>A 2357-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45163</v>
+        <v>44578</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3283,13 +3288,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3323,35 +3323,35 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
         <v/>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44805</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44396.35755787037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44861</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44607.48398148148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44651</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44692</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44308</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44470</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44497.42795138889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44466.38188657408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>44643</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>44470</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44529.52201388889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44525.76128472222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44509.65762731482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44505.41567129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4766,14 +4766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9510-2025</t>
+          <t>A 14679-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45715.53829861111</v>
+        <v>45742.56643518519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4828,14 +4828,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 44806-2023</t>
+          <t>A 7975-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45190.49174768518</v>
+        <v>45707.46203703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4890,14 +4890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 45861-2023</t>
+          <t>A 18675-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45195</v>
+        <v>45763.59862268518</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4909,13 +4909,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4952,14 +4947,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 6394-2024</t>
+          <t>A 29607-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45338.57230324074</v>
+        <v>44754.50530092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4977,7 +4972,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5014,14 +5009,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 18831-2025</t>
+          <t>A 37672-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45764.39109953704</v>
+        <v>45541.57966435186</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5039,7 +5034,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5076,14 +5071,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18675-2025</t>
+          <t>A 56478-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45763.59862268518</v>
+        <v>45624</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5096,7 +5091,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5133,14 +5128,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 48625-2025</t>
+          <t>A 8062-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45936.50938657407</v>
+        <v>45351</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5152,8 +5147,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5190,14 +5190,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38874-2025</t>
+          <t>A 53406-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45887</v>
+        <v>45614.49704861111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8.300000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5252,14 +5252,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38875-2025</t>
+          <t>A 59206-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45887</v>
+        <v>45636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5271,13 +5271,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5314,14 +5309,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38872-2025</t>
+          <t>A 10321-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45887.5749074074</v>
+        <v>44986.99549768519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5333,13 +5328,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5376,14 +5366,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38782-2025</t>
+          <t>A 36437-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45887</v>
+        <v>45535</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5396,7 +5386,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5433,14 +5423,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38743-2022</t>
+          <t>A 38904-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44816.34265046296</v>
+        <v>45163</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5458,7 +5448,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5495,14 +5485,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 58629-2024</t>
+          <t>A 38921-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45635.57008101852</v>
+        <v>45163</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5520,7 +5510,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5557,14 +5547,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9525-2025</t>
+          <t>A 21562-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45715.56616898148</v>
+        <v>45441.65392361111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5582,7 +5572,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5619,14 +5609,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27438-2024</t>
+          <t>A 16480-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45474.40971064815</v>
+        <v>45751.57702546296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5639,7 +5629,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5676,14 +5666,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 50102-2023</t>
+          <t>A 10672-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45215</v>
+        <v>45369.35207175926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5701,7 +5691,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5738,14 +5728,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 51996-2023</t>
+          <t>A 2565-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45223</v>
+        <v>44579</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5757,13 +5747,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5800,14 +5785,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 62982-2023</t>
+          <t>A 28367-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45272</v>
+        <v>45819</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5819,8 +5804,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5857,14 +5847,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26182-2024</t>
+          <t>A 28368-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45468</v>
+        <v>45819.21581018518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5882,7 +5872,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5919,14 +5909,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 46288-2024</t>
+          <t>A 28370-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45581.65881944444</v>
+        <v>45819.22013888889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5944,7 +5934,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5981,14 +5971,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 13405-2024</t>
+          <t>A 38874-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45387.44760416666</v>
+        <v>45887</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6000,8 +5990,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6038,14 +6033,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 26176-2024</t>
+          <t>A 38782-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45468.55660879629</v>
+        <v>45887</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6057,13 +6052,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6100,14 +6090,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25177-2024</t>
+          <t>A 28369-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45462.546875</v>
+        <v>45819.21905092592</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6125,7 +6115,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6162,14 +6152,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 21935-2024</t>
+          <t>A 60907-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45443.47237268519</v>
+        <v>45261</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6187,7 +6177,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6224,14 +6214,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41766-2025</t>
+          <t>A 23066-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45902.54806712963</v>
+        <v>44719.45199074074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6243,13 +6233,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6286,14 +6271,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 41767-2025</t>
+          <t>A 25175-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45902.54892361111</v>
+        <v>45462.545625</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6311,7 +6296,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6348,14 +6333,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 41369-2025</t>
+          <t>A 26176-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45900.56857638889</v>
+        <v>45468.55660879629</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6367,8 +6352,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6405,14 +6395,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41642-2025</t>
+          <t>A 3177-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45901</v>
+        <v>44582.61244212963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6425,7 +6415,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6462,14 +6452,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23460-2024</t>
+          <t>A 41369-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45453.65363425926</v>
+        <v>45900.56857638889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6482,7 +6472,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6519,14 +6509,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 3177-2022</t>
+          <t>A 31603-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44582.61244212963</v>
+        <v>45833.73876157407</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6539,7 +6529,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6576,14 +6566,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 50378-2024</t>
+          <t>A 41642-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45601.2984375</v>
+        <v>45901</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6595,13 +6585,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6638,14 +6623,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 51040-2025</t>
+          <t>A 50766-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45947.41420138889</v>
+        <v>45602.43986111111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6663,7 +6648,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6700,14 +6685,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 52099-2025</t>
+          <t>A 32300-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45952</v>
+        <v>45835.71607638889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6720,7 +6705,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6757,14 +6742,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5218-2024</t>
+          <t>A 8184-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45330.64273148148</v>
+        <v>44609</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6776,13 +6761,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6819,14 +6799,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10321-2023</t>
+          <t>A 46290-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44986.99549768519</v>
+        <v>45581.66018518519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6838,8 +6818,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6876,14 +6861,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 24707-2025</t>
+          <t>A 52506-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45798.81579861111</v>
+        <v>45609</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6895,8 +6880,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6933,14 +6923,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 57234-2024</t>
+          <t>A 52523-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45629.54484953704</v>
+        <v>45609</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6958,7 +6948,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6995,14 +6985,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43691-2025</t>
+          <t>A 41767-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45912.39130787037</v>
+        <v>45902.54892361111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7020,7 +7010,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7057,14 +7047,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 54235-2025</t>
+          <t>A 41766-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45964.62569444445</v>
+        <v>45902.54806712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7082,7 +7072,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7119,14 +7109,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 54232-2025</t>
+          <t>A 32717-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45964.62188657407</v>
+        <v>45839.37686342592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7138,13 +7128,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7181,14 +7166,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 54233-2025</t>
+          <t>A 58197-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45964.62453703704</v>
+        <v>45632.48092592593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7206,7 +7191,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7243,14 +7228,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 43689-2025</t>
+          <t>A 33404-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45912.38899305555</v>
+        <v>45841</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7262,13 +7247,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7305,14 +7285,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 43692-2025</t>
+          <t>A 54515-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45912.39221064815</v>
+        <v>45233.57033564815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7324,13 +7304,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7367,14 +7342,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 43694-2025</t>
+          <t>A 43690-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45912.39295138889</v>
+        <v>45912.38975694445</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7392,7 +7367,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.6</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7429,14 +7404,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43690-2025</t>
+          <t>A 43694-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45912.38975694445</v>
+        <v>45912.39295138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7454,7 +7429,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7491,14 +7466,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 25744-2025</t>
+          <t>A 43691-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45804.18709490741</v>
+        <v>45912.39130787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7516,7 +7491,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7560,7 +7535,7 @@
         <v>45912</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7610,14 +7585,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 25923-2025</t>
+          <t>A 43692-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45804</v>
+        <v>45912.39221064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7631,11 +7606,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7672,14 +7647,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25175-2024</t>
+          <t>A 43689-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45462.545625</v>
+        <v>45912.38899305555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7697,7 +7672,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7734,14 +7709,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26301-2025</t>
+          <t>A 54994-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45805.63861111111</v>
+        <v>45621.27174768518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7759,7 +7734,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7796,14 +7771,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 26170-2025</t>
+          <t>A 59863-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45805.46351851852</v>
+        <v>45639</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7815,13 +7790,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7858,14 +7828,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 26153-2025</t>
+          <t>A 44642-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45805.43332175926</v>
+        <v>45917.52719907407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7877,13 +7847,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7920,14 +7885,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 6387-2024</t>
+          <t>A 14678-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45338.56366898148</v>
+        <v>45742.56563657407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7945,7 +7910,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7982,14 +7947,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26147-2025</t>
+          <t>A 14681-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45805.4308912037</v>
+        <v>45742.56857638889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8007,7 +7972,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8044,14 +8009,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 55341-2025</t>
+          <t>A 56464-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45971.34751157407</v>
+        <v>45624</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8063,13 +8028,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8106,14 +8066,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 44642-2025</t>
+          <t>A 13236-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45917.52719907407</v>
+        <v>45735.47133101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8125,8 +8085,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>4.2</v>
+        <v>18.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8163,14 +8128,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 26783-2025</t>
+          <t>A 35706-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45810.5834375</v>
+        <v>45860.37125</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8183,7 +8148,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8220,14 +8185,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26820-2025</t>
+          <t>A 25177-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45810.63664351852</v>
+        <v>45462.546875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8239,8 +8204,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8277,14 +8247,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 53406-2024</t>
+          <t>A 13412-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45614.49704861111</v>
+        <v>45736.27773148148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8302,7 +8272,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8339,14 +8309,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 59158-2022</t>
+          <t>A 38233-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44904</v>
+        <v>45160</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8358,13 +8328,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8401,14 +8366,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 5277-2024</t>
+          <t>A 36768-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45330</v>
+        <v>45873.58413194444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8420,8 +8385,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8458,14 +8428,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28369-2025</t>
+          <t>A 36769-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45819.21905092592</v>
+        <v>45873.58680555555</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8483,7 +8453,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.6</v>
+        <v>9.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8520,14 +8490,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 28367-2025</t>
+          <t>A 23683-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45819</v>
+        <v>45793.34197916667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8539,13 +8509,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>6.1</v>
+        <v>3.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8582,14 +8547,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28368-2025</t>
+          <t>A 10674-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45819.21581018518</v>
+        <v>45369.35297453704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8607,7 +8572,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>8.1</v>
+        <v>0.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8644,14 +8609,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28370-2025</t>
+          <t>A 60933-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45819.22013888889</v>
+        <v>45645.36615740741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8669,7 +8634,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>8.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8706,14 +8671,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 43768-2024</t>
+          <t>A 37333-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45569</v>
+        <v>45876.66482638889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8726,7 +8691,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8763,14 +8728,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 23066-2022</t>
+          <t>A 37265-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44719.45199074074</v>
+        <v>45876.46099537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8783,7 +8748,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8820,14 +8785,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 57086-2025</t>
+          <t>A 73693-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45979.42208333333</v>
+        <v>44552.48893518518</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8840,7 +8805,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8877,14 +8842,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 31603-2025</t>
+          <t>A 58120-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45833.73876157407</v>
+        <v>45632.39280092593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8896,8 +8861,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8934,14 +8904,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46220-2024</t>
+          <t>A 58125-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45581.56866898148</v>
+        <v>45632.39546296297</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8959,7 +8929,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>8.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8996,14 +8966,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 47935-2024</t>
+          <t>A 58164-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45589.34674768519</v>
+        <v>45632.45396990741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9021,7 +8991,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9058,14 +9028,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 46219-2024</t>
+          <t>A 60937-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45581.56686342593</v>
+        <v>45645.3683912037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9083,7 +9053,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9120,14 +9090,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 32300-2025</t>
+          <t>A 60940-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45835.71607638889</v>
+        <v>45645.37079861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9139,8 +9109,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9177,14 +9152,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 21952-2024</t>
+          <t>A 48625-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45443.48370370371</v>
+        <v>45936.50938657407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9196,13 +9171,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9239,14 +9209,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 52566-2023</t>
+          <t>A 9511-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45219</v>
+        <v>45715.53921296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9258,8 +9228,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9296,14 +9271,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 32717-2025</t>
+          <t>A 15594-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45839.37686342592</v>
+        <v>45747.88466435186</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9316,7 +9291,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9353,14 +9328,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 62972-2023</t>
+          <t>A 52566-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45272</v>
+        <v>45219</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9373,7 +9348,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9410,14 +9385,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 33404-2025</t>
+          <t>A 38875-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45841</v>
+        <v>45887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9429,8 +9404,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9467,14 +9447,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 50377-2024</t>
+          <t>A 9525-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45601.29576388889</v>
+        <v>45715.56616898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9492,7 +9472,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9529,14 +9509,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 14678-2025</t>
+          <t>A 38872-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45742.56563657407</v>
+        <v>45887.5749074074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9554,7 +9534,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9591,14 +9571,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 14681-2025</t>
+          <t>A 57234-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45742.56857638889</v>
+        <v>45629.54484953704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9616,7 +9596,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9653,14 +9633,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 59863-2024</t>
+          <t>A 48285-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45639</v>
+        <v>45205.55755787037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9672,8 +9652,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9710,14 +9695,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 52490-2024</t>
+          <t>A 51040-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45609.55875</v>
+        <v>45947.41420138889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9735,7 +9720,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9772,14 +9757,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 35706-2025</t>
+          <t>A 12148-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45860.37125</v>
+        <v>45729</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9789,6 +9774,11 @@
       <c r="E139" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -9829,14 +9819,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58120-2024</t>
+          <t>A 52099-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45632.39280092593</v>
+        <v>45952</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9848,13 +9838,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9891,14 +9876,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58125-2024</t>
+          <t>A 13413-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45632.39546296297</v>
+        <v>45736.27847222222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9916,7 +9901,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>8.9</v>
+        <v>1.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9953,14 +9938,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52508-2024</t>
+          <t>A 8074-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45609</v>
+        <v>45351.42106481481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9978,7 +9963,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10015,14 +10000,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52528-2024</t>
+          <t>A 54235-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45609</v>
+        <v>45964.62569444445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10040,7 +10025,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10077,14 +10062,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 59206-2024</t>
+          <t>A 21952-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45636</v>
+        <v>45443.48370370371</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10096,8 +10081,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10134,14 +10124,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11085-2023</t>
+          <t>A 54232-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44986</v>
+        <v>45964.62188657407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,8 +10143,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10191,14 +10186,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 23683-2025</t>
+          <t>A 54233-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45793.34197916667</v>
+        <v>45964.62453703704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10210,8 +10205,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10248,14 +10248,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 60524-2025</t>
+          <t>A 62972-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45995.64032407408</v>
+        <v>45272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10305,14 +10305,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 36768-2025</t>
+          <t>A 52528-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45873.58413194444</v>
+        <v>45609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10367,14 +10367,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 36769-2025</t>
+          <t>A 55341-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45873.58680555555</v>
+        <v>45971.34751157407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>9.6</v>
+        <v>3.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10429,14 +10429,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 50764-2024</t>
+          <t>A 12143-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45602.43876157407</v>
+        <v>45729</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10491,14 +10491,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 37333-2025</t>
+          <t>A 14634-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45876.66482638889</v>
+        <v>45742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10510,8 +10510,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10548,14 +10553,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 37265-2025</t>
+          <t>A 51653-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45876.46099537037</v>
+        <v>45222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10567,8 +10572,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10605,14 +10615,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 60708-2025</t>
+          <t>A 57086-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45996.6211574074</v>
+        <v>45979.42208333333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10625,7 +10635,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10662,14 +10672,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 54082-2024</t>
+          <t>A 12678-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45616.4956712963</v>
+        <v>45733.44137731481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10681,8 +10691,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>6.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10719,14 +10734,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 15594-2025</t>
+          <t>A 20577-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45747.88466435186</v>
+        <v>45057</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10738,8 +10753,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10776,14 +10796,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 38904-2023</t>
+          <t>A 45365-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45163</v>
+        <v>45192.69640046296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10795,13 +10815,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10838,14 +10853,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 38921-2023</t>
+          <t>A 6387-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45163</v>
+        <v>45338.56366898148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10863,7 +10878,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10900,14 +10915,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 58479-2024</t>
+          <t>A 46147-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45635.38675925926</v>
+        <v>45581.45158564814</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10925,7 +10940,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10962,14 +10977,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 60736-2025</t>
+          <t>A 54082-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45996.78688657407</v>
+        <v>45616.4956712963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10982,7 +10997,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11019,14 +11034,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48285-2023</t>
+          <t>A 6240-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45205.55755787037</v>
+        <v>45337</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11038,13 +11053,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11081,14 +11091,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 38907-2023</t>
+          <t>A 6394-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45163</v>
+        <v>45338.57230324074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11106,7 +11116,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11143,14 +11153,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 63905-2021</t>
+          <t>A 60524-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44509.65712962963</v>
+        <v>45995.64032407408</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11162,13 +11172,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11205,14 +11210,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48118-2023</t>
+          <t>A 11085-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45205</v>
+        <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,13 +11229,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11267,14 +11267,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 14677-2025</t>
+          <t>A 60736-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45742.56465277778</v>
+        <v>45996.78688657407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,13 +11286,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11329,14 +11324,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 38917-2023</t>
+          <t>A 56886-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45163</v>
+        <v>45628.57332175926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11354,7 +11349,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11391,14 +11386,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 12148-2025</t>
+          <t>A 60708-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45729</v>
+        <v>45996.6211574074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,13 +11405,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11453,14 +11443,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 14633-2025</t>
+          <t>A 38917-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45742</v>
+        <v>45163</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11478,7 +11468,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11515,14 +11505,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 14634-2025</t>
+          <t>A 44806-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45742</v>
+        <v>45190.49174768518</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11540,7 +11530,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11577,14 +11567,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 20577-2023</t>
+          <t>A 5277-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45057</v>
+        <v>45330</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11596,13 +11586,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11639,14 +11624,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 10797-2023</t>
+          <t>A 38907-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44989</v>
+        <v>45163</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11658,8 +11643,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>9.5</v>
+        <v>2.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11696,14 +11686,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 16480-2025</t>
+          <t>A 50378-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45751.57702546296</v>
+        <v>45601.2984375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11715,8 +11705,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11753,14 +11748,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 44457-2022</t>
+          <t>A 33293-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44839</v>
+        <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11773,7 +11768,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>6.8</v>
+        <v>17.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11810,14 +11805,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 29482-2023</t>
+          <t>A 47941-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45106.57938657407</v>
+        <v>45589.34931712963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,8 +11824,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11867,14 +11867,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 58197-2024</t>
+          <t>A 48118-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45632.48092592593</v>
+        <v>45205</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11929,14 +11929,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 13236-2025</t>
+          <t>A 44807-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45735.47133101852</v>
+        <v>45190.49269675926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>18.5</v>
+        <v>5.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11991,14 +11991,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11084-2023</t>
+          <t>A 51652-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44986</v>
+        <v>45222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,8 +12010,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12048,14 +12053,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 56478-2024</t>
+          <t>A 36963-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45624</v>
+        <v>44393</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12067,8 +12072,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12105,14 +12115,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 46147-2024</t>
+          <t>A 46220-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45581.45158564814</v>
+        <v>45581.56866898148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12130,7 +12140,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -12167,14 +12177,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 60933-2024</t>
+          <t>A 46222-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45645.36615740741</v>
+        <v>45581.56938657408</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12192,7 +12202,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12229,14 +12239,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 47941-2024</t>
+          <t>A 44457-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45589.34931712963</v>
+        <v>44839</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12248,13 +12258,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>1.4</v>
+        <v>6.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12291,14 +12296,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 61750-2021</t>
+          <t>A 32211-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44501.64055555555</v>
+        <v>44781.43078703704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,13 +12315,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12353,14 +12353,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 29607-2022</t>
+          <t>A 13405-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44754.50530092593</v>
+        <v>45387.44760416666</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,13 +12372,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12415,14 +12410,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 6240-2024</t>
+          <t>A 12729-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45337</v>
+        <v>45384.49421296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,8 +12429,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12472,14 +12472,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 46222-2024</t>
+          <t>A 26185-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45581.56938657408</v>
+        <v>45468.56267361111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12497,7 +12497,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12534,14 +12534,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 770-2026</t>
+          <t>A 21649-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46027</v>
+        <v>45442.3671412037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12553,8 +12553,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12591,14 +12596,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 9273-2026</t>
+          <t>A 58479-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46070.56344907408</v>
+        <v>45635.38675925926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12610,8 +12615,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12648,14 +12658,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 33658-2024</t>
+          <t>A 770-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45520.46899305555</v>
+        <v>46027</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12705,14 +12715,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 38233-2023</t>
+          <t>A 4256-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45160</v>
+        <v>46045.33489583333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12725,7 +12735,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12762,14 +12772,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 26185-2024</t>
+          <t>A 9273-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45468.56267361111</v>
+        <v>46070.56344907408</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12781,13 +12791,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12824,14 +12829,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 14452-2025</t>
+          <t>A 63905-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45741.56143518518</v>
+        <v>44509.65712962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12849,7 +12854,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12886,14 +12891,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 4256-2026</t>
+          <t>A 38743-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46045.33489583333</v>
+        <v>44816.34265046296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12905,8 +12910,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12943,14 +12953,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 50766-2024</t>
+          <t>A 13415-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45602.43986111111</v>
+        <v>45736.28094907408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12968,7 +12978,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13005,14 +13015,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 58164-2024</t>
+          <t>A 47935-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45632.45396990741</v>
+        <v>45589.34674768519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13030,7 +13040,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -13067,14 +13077,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 50207-2024</t>
+          <t>A 52508-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45600.49782407407</v>
+        <v>45609</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13086,8 +13096,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13124,14 +13139,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 50208-2024</t>
+          <t>A 46219-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45600.49924768518</v>
+        <v>45581.56686342593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13143,8 +13158,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13181,14 +13201,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 12143-2025</t>
+          <t>A 50377-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45729</v>
+        <v>45601.29576388889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13206,7 +13226,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13243,14 +13263,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 52523-2024</t>
+          <t>A 8059-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45609</v>
+        <v>45351</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13268,7 +13288,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13305,14 +13325,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 8184-2022</t>
+          <t>A 44735-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44609</v>
+        <v>44438</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13325,7 +13345,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13362,14 +13382,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 60937-2024</t>
+          <t>A 29482-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45645.3683912037</v>
+        <v>45106.57938657407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13381,13 +13401,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13424,14 +13439,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 60940-2024</t>
+          <t>A 59158-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45645.37079861111</v>
+        <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13449,7 +13464,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13486,14 +13501,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 56886-2024</t>
+          <t>A 18773-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45628.57332175926</v>
+        <v>45763</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13505,13 +13520,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>1.7</v>
+        <v>13</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13548,14 +13558,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 44807-2023</t>
+          <t>A 10320-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45190.49269675926</v>
+        <v>44986</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13567,13 +13577,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13610,14 +13615,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 51652-2023</t>
+          <t>A 10797-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45222</v>
+        <v>44989</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13629,13 +13634,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1.7</v>
+        <v>9.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13672,14 +13672,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 21649-2024</t>
+          <t>A 11084-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45442.3671412037</v>
+        <v>44986</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13691,13 +13691,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13734,14 +13729,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 33293-2023</t>
+          <t>A 50764-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45116</v>
+        <v>45602.43876157407</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,8 +13748,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>17.2</v>
+        <v>2.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13791,14 +13791,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 32154-2023</t>
+          <t>A 33658-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45119</v>
+        <v>45520.46899305555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13848,14 +13848,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 8062-2024</t>
+          <t>A 14452-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45351</v>
+        <v>45741.56143518518</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13910,14 +13910,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 8074-2024</t>
+          <t>A 45861-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45351.42106481481</v>
+        <v>45195</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13972,14 +13972,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 10672-2024</t>
+          <t>A 44841-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45369.35207175926</v>
+        <v>45190.55920138889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -14034,14 +14034,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 60907-2023</t>
+          <t>A 13414-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45261</v>
+        <v>45736.2803125</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -14096,14 +14096,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 9511-2025</t>
+          <t>A 43768-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45715.53921296296</v>
+        <v>45569</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14115,13 +14115,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14158,14 +14153,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 14679-2025</t>
+          <t>A 38738-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45742.56643518519</v>
+        <v>44816.34217592593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14183,7 +14178,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14220,14 +14215,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 32211-2022</t>
+          <t>A 14677-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44781.43078703704</v>
+        <v>45742.56465277778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14239,8 +14234,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14277,14 +14277,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 36963-2021</t>
+          <t>A 9510-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44393</v>
+        <v>45715.53829861111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14339,14 +14339,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 13412-2025</t>
+          <t>A 14680-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45736.27773148148</v>
+        <v>45742.56774305556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14401,14 +14401,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 13414-2025</t>
+          <t>A 52131-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45736.2803125</v>
+        <v>44463</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14420,13 +14420,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14463,14 +14458,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 46290-2024</t>
+          <t>A 52490-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45581.66018518519</v>
+        <v>45609.55875</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14488,7 +14483,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14525,14 +14520,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 73693-2021</t>
+          <t>A 58477-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44552.48893518518</v>
+        <v>45635.38418981482</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14544,8 +14539,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14582,14 +14582,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 13415-2025</t>
+          <t>A 26182-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45736.28094907408</v>
+        <v>45468</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14644,14 +14644,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 36437-2024</t>
+          <t>A 61750-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45535</v>
+        <v>44501.64055555555</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14663,8 +14663,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14701,14 +14706,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 45365-2023</t>
+          <t>A 7472-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45192.69640046296</v>
+        <v>45705.46409722222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14720,8 +14725,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14758,14 +14768,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 52131-2021</t>
+          <t>A 14633-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44463</v>
+        <v>45742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14777,8 +14787,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14815,14 +14830,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 37672-2024</t>
+          <t>A 50207-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45541.57966435186</v>
+        <v>45600.49782407407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14834,13 +14849,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14877,14 +14887,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 44735-2021</t>
+          <t>A 50208-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44438</v>
+        <v>45600.49924768518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14897,7 +14907,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14934,14 +14944,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 56464-2024</t>
+          <t>A 22659-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45624</v>
+        <v>45447</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14954,7 +14964,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14991,14 +15001,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 2565-2022</t>
+          <t>A 12108-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44579</v>
+        <v>45376</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15011,7 +15021,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.4</v>
+        <v>7.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -15048,14 +15058,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 12678-2025</t>
+          <t>A 18831-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45733.44137731481</v>
+        <v>45764.39109953704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15073,7 +15083,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>9.699999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -15110,14 +15120,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 44841-2023</t>
+          <t>A 32154-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45190.55920138889</v>
+        <v>45119</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15129,13 +15139,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -15172,14 +15177,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 10674-2024</t>
+          <t>A 27438-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45369.35297453704</v>
+        <v>45474.40971064815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15191,13 +15196,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15234,14 +15234,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 14680-2025</t>
+          <t>A 46288-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45742.56774305556</v>
+        <v>45581.65881944444</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15296,14 +15296,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 18773-2025</t>
+          <t>A 51996-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45763</v>
+        <v>45223</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15315,8 +15315,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15353,14 +15358,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 51653-2023</t>
+          <t>A 58629-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45222</v>
+        <v>45635.57008101852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15378,7 +15383,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15415,14 +15420,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 12108-2024</t>
+          <t>A 50102-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45376</v>
+        <v>45215</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15434,8 +15439,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>7.7</v>
+        <v>3.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15472,14 +15482,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 54994-2024</t>
+          <t>A 62982-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45621.27174768518</v>
+        <v>45272</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15491,13 +15501,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15534,14 +15539,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 22659-2024</t>
+          <t>A 21935-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45447</v>
+        <v>45443.47237268519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15553,8 +15558,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15591,14 +15601,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 52506-2024</t>
+          <t>A 23460-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45609</v>
+        <v>45453.65363425926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15610,13 +15620,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15653,14 +15658,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 21562-2024</t>
+          <t>A 24707-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45441.65392361111</v>
+        <v>45798.81579861111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15672,13 +15677,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15715,14 +15715,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 8059-2024</t>
+          <t>A 5218-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45351</v>
+        <v>45330.64273148148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15777,14 +15777,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 54515-2023</t>
+          <t>A 25744-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45233.57033564815</v>
+        <v>45804.18709490741</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15796,8 +15796,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15834,14 +15839,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 13413-2025</t>
+          <t>A 26301-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45736.27847222222</v>
+        <v>45805.63861111111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15859,7 +15864,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15896,14 +15901,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 38738-2022</t>
+          <t>A 26147-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44816.34217592593</v>
+        <v>45805.4308912037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15921,7 +15926,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15958,14 +15963,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 12729-2024</t>
+          <t>A 26170-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45384.49421296296</v>
+        <v>45805.46351851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16020,14 +16025,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 10320-2023</t>
+          <t>A 26153-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44986</v>
+        <v>45805.43332175926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16039,8 +16044,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -16077,14 +16087,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 7472-2025</t>
+          <t>A 25923-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45705.46409722222</v>
+        <v>45804</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16098,11 +16108,11 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -16139,14 +16149,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 58477-2024</t>
+          <t>A 26820-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45635.38418981482</v>
+        <v>45810.63664351852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16158,13 +16168,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16201,14 +16206,14 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 7975-2025</t>
+          <t>A 26783-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45707.46203703704</v>
+        <v>45810.5834375</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16220,13 +16225,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>45384</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45175</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>45932</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45205</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>45089.56824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>45931</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45163</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44550</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45866</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45931</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45351</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>44853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>45116</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45163</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45938</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>45931</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>45558.59421296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>45163</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>45384</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>45589.34315972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>45614</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>44578</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44805</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44396.35755787037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44861</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44607.48398148148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44651</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44692</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44308</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44470</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44497.42795138889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44466.38188657408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>44643</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>44470</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44529.52201388889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44525.76128472222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44509.65762731482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44505.41567129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>45742.56643518519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45707.46203703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45763.59862268518</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>44754.50530092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45541.57966435186</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>45624</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45351</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45614.49704861111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44986.99549768519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>45535</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45163</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>45163</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>45441.65392361111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>45751.57702546296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>45369.35207175926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>44579</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>45819</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>45819.21581018518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>45819.22013888889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>45887</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>45887</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45819.21905092592</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>45261</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>44719.45199074074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>45462.545625</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45468.55660879629</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>44582.61244212963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>45900.56857638889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>45833.73876157407</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>45901</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>45602.43986111111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>45835.71607638889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>44609</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>45581.66018518519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>45609</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45609</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>45902.54892361111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>45902.54806712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45839.37686342592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>45632.48092592593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>45841</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>45233.57033564815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>45912.38975694445</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45912.39295138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>45912.39130787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>45912</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>45912.39221064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45912.38899305555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>45621.27174768518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45639</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45917.52719907407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45742.56563657407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>45742.56857638889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>45624</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45735.47133101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>45860.37125</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>45462.546875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>45736.27773148148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>45160</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>45873.58413194444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>45873.58680555555</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>45793.34197916667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>45369.35297453704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>45645.36615740741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>45876.66482638889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>45876.46099537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44552.48893518518</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>45632.39280092593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>45632.39546296297</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>45632.45396990741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>45645.3683912037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>45645.37079861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>45936.50938657407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>45715.53921296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>45747.88466435186</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>45219</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>45887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>45715.56616898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>45887.5749074074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45629.54484953704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45205.55755787037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>45947.41420138889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>45729</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>45952</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>45736.27847222222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>45351.42106481481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45964.62569444445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45443.48370370371</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>45964.62188657407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>45964.62453703704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>45272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>45609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>45971.34751157407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45729</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>45742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>45222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>45979.42208333333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>45733.44137731481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>45057</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>45192.69640046296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>45338.56366898148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>45581.45158564814</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>45616.4956712963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>45337</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>45338.57230324074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>45995.64032407408</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>45996.78688657407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>45628.57332175926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45996.6211574074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45163</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>45190.49174768518</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45330</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45163</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>45601.2984375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45589.34931712963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>45205</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>45190.49269675926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44393</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45581.56866898148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>45581.56938657408</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44839</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>44781.43078703704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>45387.44760416666</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>45384.49421296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>45468.56267361111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>45442.3671412037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>45635.38675925926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>46027</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>46045.33489583333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>46070.56344907408</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44509.65712962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>44816.34265046296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45736.28094907408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45589.34674768519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45609</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>45581.56686342593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>45601.29576388889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>45351</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44438</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>45106.57938657407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>45763</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44986</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44989</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44986</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>45602.43876157407</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>45520.46899305555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>45741.56143518518</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>45195</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45190.55920138889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>45736.2803125</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>45569</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44816.34217592593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>45742.56465277778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>45715.53829861111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>45742.56774305556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44463</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>45609.55875</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>45635.38418981482</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>45468</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44501.64055555555</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>45705.46409722222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>45742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>45600.49782407407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>45600.49924768518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>45447</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>45376</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>45764.39109953704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45119</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45474.40971064815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45581.65881944444</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>45223</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45635.57008101852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>45215</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>45272</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45443.47237268519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>45453.65363425926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>45798.81579861111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>45330.64273148148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45804.18709490741</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>45805.63861111111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>45805.4308912037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>45805.46351851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45805.43332175926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45804</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45810.63664351852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>45810.5834375</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>45384</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45175</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>45932</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45205</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>45089.56824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>45931</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45163</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44550</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45866</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45931</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45351</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>44853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>45116</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45163</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45938</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v>45931</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>45558.59421296296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>45163</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>45163</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>45384</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>45589.34315972222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>45614</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>44578</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44805</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44396.35755787037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44861</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44861</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44607.48398148148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44651</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44692</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44609</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44308</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44470</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44497.42795138889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>44594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44466.38188657408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>44643</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>44470</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44529.52201388889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44525.76128472222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44509.65762731482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44505.41567129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>45742.56643518519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>45707.46203703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45763.59862268518</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>44754.50530092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>45541.57966435186</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>45624</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>45351</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>45614.49704861111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>45636</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>44986.99549768519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>45535</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45163</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>45163</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>45441.65392361111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>45751.57702546296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>45369.35207175926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>44579</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>45819</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>45819.21581018518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>45819.22013888889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>45887</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>45887</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45819.21905092592</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>45261</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>44719.45199074074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>45462.545625</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45468.55660879629</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>44582.61244212963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>45900.56857638889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>45833.73876157407</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>45901</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>45602.43986111111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>45835.71607638889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>44609</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>45581.66018518519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>45609</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45609</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>45902.54892361111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>45902.54806712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45839.37686342592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>45632.48092592593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>45841</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>45233.57033564815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>45912.38975694445</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45912.39295138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>45912.39130787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>45912</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>45912.39221064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45912.38899305555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>45621.27174768518</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45639</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45917.52719907407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45742.56563657407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>45742.56857638889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8016,7 +8016,7 @@
         <v>45624</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         <v>45735.47133101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>45860.37125</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>45462.546875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>45736.27773148148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>45160</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>45873.58413194444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>45873.58680555555</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>45793.34197916667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>45369.35297453704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>45645.36615740741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>45876.66482638889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>45876.46099537037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44552.48893518518</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>45632.39280092593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>45632.39546296297</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>45632.45396990741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>45645.3683912037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>45645.37079861111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>45936.50938657407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>45715.53921296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>45747.88466435186</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>45219</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>45887</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>45715.56616898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>45887.5749074074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45629.54484953704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45205.55755787037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>45947.41420138889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>45729</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>45952</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>45736.27847222222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>45351.42106481481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45964.62569444445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45443.48370370371</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>45964.62188657407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>45964.62453703704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>45272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>45609</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>45971.34751157407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>45729</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>45742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>45222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>45979.42208333333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>45733.44137731481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>45057</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         <v>45192.69640046296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         <v>45338.56366898148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>45581.45158564814</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>45616.4956712963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>45337</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>45338.57230324074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>45995.64032407408</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44986</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>45996.78688657407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>45628.57332175926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45996.6211574074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45163</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>45190.49174768518</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45330</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45163</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>45601.2984375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>45116</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45589.34931712963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>45205</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>45190.49269675926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44393</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45581.56866898148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>45581.56938657408</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44839</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>44781.43078703704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>45387.44760416666</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>45384.49421296296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>45468.56267361111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>45442.3671412037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>45635.38675925926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>46027</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>46045.33489583333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>46070.56344907408</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>44509.65712962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>44816.34265046296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>45736.28094907408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>45589.34674768519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>45609</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>45581.56686342593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>45601.29576388889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>45351</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>44438</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>45106.57938657407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44904</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>45763</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44986</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>44989</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>44986</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>45602.43876157407</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>45520.46899305555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>45741.56143518518</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>45195</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45190.55920138889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>45736.2803125</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>45569</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>44816.34217592593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>45742.56465277778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>45715.53829861111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>45742.56774305556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44463</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>45609.55875</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>45635.38418981482</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>45468</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44501.64055555555</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>45705.46409722222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>45742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>45600.49782407407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>45600.49924768518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>45447</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>45376</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>45764.39109953704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45119</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45474.40971064815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45581.65881944444</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>45223</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45635.57008101852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>45215</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>45272</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45443.47237268519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>45453.65363425926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>45798.81579861111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>45330.64273148148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45804.18709490741</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>45805.63861111111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>45805.4308912037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>45805.46351851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45805.43332175926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45804</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45810.63664351852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>45810.5834375</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>

--- a/Översikt DEGERFORS.xlsx
+++ b/Översikt DEGERFORS.xlsx
@@ -575,7 +575,7 @@
         <v>46051.7274537037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>45384.48111111111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>45384</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>45175</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>45932</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45205</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         <v>45089.56824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,14 +1448,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 47782-2025</t>
+          <t>A 73321-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45931</v>
+        <v>44550</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,19 +1468,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>13.4</v>
+        <v>17</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1495,249 +1495,249 @@
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Grynig filtlav
+Gulsparv</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 73321-2021 artfynd.xlsx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 73321-2021 karta.png", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/knärot/A 73321-2021 karta knärot.png", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 73321-2021 FSC-klagomål.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 73321-2021 FSC-klagomål mail.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 73321-2021 tillsynsbegäran.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 73321-2021 tillsynsbegäran mail.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 73321-2021 prioriterade fågelarter.docx", "A 73321-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 47782-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47782-2025 artfynd.xlsx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47782-2025 karta.png", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47782-2025 FSC-klagomål.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47782-2025 FSC-klagomål mail.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47782-2025 tillsynsbegäran.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47782-2025 tillsynsbegäran mail.docx", "A 47782-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47782-2025 prioriterade fågelarter.docx", "A 47782-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 38915-2023</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45163</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>4.5</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tretåig hackspett
 Mattlummer</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38915-2023 artfynd.xlsx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38915-2023 karta.png", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38915-2023 FSC-klagomål.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38915-2023 FSC-klagomål mail.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38915-2023 tillsynsbegäran.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38915-2023 tillsynsbegäran mail.docx", "A 38915-2023")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38915-2023 prioriterade fågelarter.docx", "A 38915-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 73321-2021</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44550</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>DEGERFORS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>17</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Grynig filtlav
-Gulsparv</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 73321-2021 artfynd.xlsx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 73321-2021 karta.png", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/knärot/A 73321-2021 karta knärot.png", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 73321-2021 FSC-klagomål.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 73321-2021 FSC-klagomål mail.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 73321-2021 tillsynsbegäran.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 73321-2021 tillsynsbegäran mail.docx", "A 73321-2021")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 73321-2021 prioriterade fågelarter.docx", "A 73321-2021")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 36081-2025</t>
+          <t>A 8063-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45866</v>
+        <v>45351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,27 +1794,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 36081-2025 artfynd.xlsx", "A 36081-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 8063-2024 artfynd.xlsx", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 36081-2025 karta.png", "A 36081-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 8063-2024 karta.png", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 36081-2025 FSC-klagomål.docx", "A 36081-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 8063-2024 FSC-klagomål.docx", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 36081-2025 FSC-klagomål mail.docx", "A 36081-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 8063-2024 FSC-klagomål mail.docx", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 36081-2025 tillsynsbegäran.docx", "A 36081-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 8063-2024 tillsynsbegäran.docx", "A 8063-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 36081-2025 tillsynsbegäran mail.docx", "A 36081-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 8063-2024 tillsynsbegäran mail.docx", "A 8063-2024")</f>
         <v/>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
         <v>45931</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1911,14 +1911,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 8063-2024</t>
+          <t>A 36081-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45351</v>
+        <v>45866</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,27 +1975,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 8063-2024 artfynd.xlsx", "A 8063-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 36081-2025 artfynd.xlsx", "A 36081-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 8063-2024 karta.png", "A 8063-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 36081-2025 karta.png", "A 36081-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 8063-2024 FSC-klagomål.docx", "A 8063-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 36081-2025 FSC-klagomål.docx", "A 36081-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 8063-2024 FSC-klagomål mail.docx", "A 8063-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 36081-2025 FSC-klagomål mail.docx", "A 36081-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 8063-2024 tillsynsbegäran.docx", "A 8063-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 36081-2025 tillsynsbegäran.docx", "A 36081-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 8063-2024 tillsynsbegäran mail.docx", "A 8063-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 36081-2025 tillsynsbegäran mail.docx", "A 36081-2025")</f>
         <v/>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
         <v>44470</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>44853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,14 +2267,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33297-2023</t>
+          <t>A 47915-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45116</v>
+        <v>45589.34315972222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2286,17 +2286,22 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2311,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2321,31 +2326,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
         <v/>
       </c>
     </row>
@@ -2359,7 +2364,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2446,14 +2451,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 38914-2023</t>
+          <t>A 33297-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45163</v>
+        <v>45116</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2465,16 +2470,11 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2505,49 +2505,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 33297-2023 artfynd.xlsx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 33297-2023 karta.png", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 33297-2023 FSC-klagomål.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 33297-2023 FSC-klagomål mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 33297-2023 tillsynsbegäran.docx", "A 33297-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 33297-2023 tillsynsbegäran mail.docx", "A 33297-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 49306-2025</t>
+          <t>A 38914-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45938</v>
+        <v>45163</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2559,18 +2555,23 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2594,45 +2595,49 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38914-2023 artfynd.xlsx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38914-2023 karta.png", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38914-2023 FSC-klagomål.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38914-2023 FSC-klagomål mail.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38914-2023 tillsynsbegäran.docx", "A 38914-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38914-2023 tillsynsbegäran mail.docx", "A 38914-2023")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38914-2023 prioriterade fågelarter.docx", "A 38914-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 47787-2025</t>
+          <t>A 49306-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45931</v>
+        <v>45938</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2645,16 +2650,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2669,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2679,49 +2684,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 49306-2025 artfynd.xlsx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 49306-2025 karta.png", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 49306-2025 FSC-klagomål.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 49306-2025 FSC-klagomål mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 49306-2025 tillsynsbegäran.docx", "A 49306-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 49306-2025 tillsynsbegäran mail.docx", "A 49306-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 40870-2024</t>
+          <t>A 47787-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45558.59421296296</v>
+        <v>45931</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,13 +2734,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2773,49 +2769,49 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47787-2025 artfynd.xlsx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47787-2025 karta.png", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47787-2025 FSC-klagomål.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47787-2025 FSC-klagomål mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47787-2025 tillsynsbegäran.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47787-2025 tillsynsbegäran mail.docx", "A 47787-2025")</f>
         <v/>
       </c>
       <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 47787-2025 prioriterade fågelarter.docx", "A 47787-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 38910-2023</t>
+          <t>A 2357-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45163</v>
+        <v>44578</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2827,13 +2823,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2842,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2857,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2867,49 +2858,49 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38910-2023 artfynd.xlsx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38910-2023 karta.png", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38910-2023 FSC-klagomål.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38910-2023 FSC-klagomål mail.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38910-2023 tillsynsbegäran.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38910-2023 tillsynsbegäran mail.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
         <v/>
       </c>
       <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38910-2023 prioriterade fågelarter.docx", "A 38910-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 38912-2023</t>
+          <t>A 53838-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45163</v>
+        <v>45614</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2921,13 +2912,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2961,49 +2947,49 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
         <v/>
       </c>
       <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12720-2024</t>
+          <t>A 38910-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45384</v>
+        <v>45163</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3021,7 +3007,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -3030,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3045,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3055,49 +3041,49 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38910-2023 artfynd.xlsx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38910-2023 karta.png", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38910-2023 FSC-klagomål.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38910-2023 FSC-klagomål mail.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38910-2023 tillsynsbegäran.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38910-2023 tillsynsbegäran mail.docx", "A 38910-2023")</f>
         <v/>
       </c>
       <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38910-2023 prioriterade fågelarter.docx", "A 38910-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 47915-2024</t>
+          <t>A 40870-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45589.34315972222</v>
+        <v>45558.59421296296</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3101,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -3124,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -3139,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3149,45 +3135,49 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 47915-2024 artfynd.xlsx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 40870-2024 artfynd.xlsx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 47915-2024 karta.png", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 40870-2024 karta.png", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 47915-2024 FSC-klagomål.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 40870-2024 FSC-klagomål.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 47915-2024 FSC-klagomål mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 40870-2024 FSC-klagomål mail.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 47915-2024 tillsynsbegäran.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 40870-2024 tillsynsbegäran.docx", "A 40870-2024")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 47915-2024 tillsynsbegäran mail.docx", "A 47915-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 40870-2024 tillsynsbegäran mail.docx", "A 40870-2024")</f>
+        <v/>
+      </c>
+      <c r="Z29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 40870-2024 prioriterade fågelarter.docx", "A 40870-2024")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 53838-2024</t>
+          <t>A 38912-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45614</v>
+        <v>45163</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3199,8 +3189,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3234,49 +3229,49 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 53838-2024 artfynd.xlsx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 38912-2023 artfynd.xlsx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 53838-2024 karta.png", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 38912-2023 karta.png", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 53838-2024 FSC-klagomål.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 38912-2023 FSC-klagomål.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 53838-2024 FSC-klagomål mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 38912-2023 FSC-klagomål mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 53838-2024 tillsynsbegäran.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 38912-2023 tillsynsbegäran.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 53838-2024 tillsynsbegäran mail.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 38912-2023 tillsynsbegäran mail.docx", "A 38912-2023")</f>
         <v/>
       </c>
       <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 53838-2024 prioriterade fågelarter.docx", "A 53838-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 38912-2023 prioriterade fågelarter.docx", "A 38912-2023")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2357-2022</t>
+          <t>A 12720-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44578</v>
+        <v>45384</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3288,8 +3283,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3323,35 +3323,35 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 2357-2022 artfynd.xlsx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/artfynd/A 12720-2024 artfynd.xlsx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 2357-2022 karta.png", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/kartor/A 12720-2024 karta.png", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 2357-2022 FSC-klagomål.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomål/A 12720-2024 FSC-klagomål.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 2357-2022 FSC-klagomål mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/klagomålsmail/A 12720-2024 FSC-klagomål mail.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 2357-2022 tillsynsbegäran.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsyn/A 12720-2024 tillsynsbegäran.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 2357-2022 tillsynsbegäran mail.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/tillsynsmail/A 12720-2024 tillsynsbegäran mail.docx", "A 12720-2024")</f>
         <v/>
       </c>
       <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 2357-2022 prioriterade fågelarter.docx", "A 2357-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1862/fåglar/A 12720-2024 prioriterade fågelarter.docx", "A 12720-2024")</f>
         <v/>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
         <v>44805</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44805</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3472,14 +3472,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 37122-2021</t>
+          <t>A 50599-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44396.35755787037</v>
+        <v>44861</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50599-2022</t>
+          <t>A 37122-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44861</v>
+        <v>44396.35755787037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>44861</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3643,14 +3643,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 7510-2022</t>
+          <t>A 37302-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44607.48398148148</v>
+        <v>44397</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3662,13 +3662,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3705,14 +3700,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 37302-2021</t>
+          <t>A 14121-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44397</v>
+        <v>44651</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3725,7 +3720,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3762,14 +3757,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14121-2022</t>
+          <t>A 8186-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44651</v>
+        <v>44609</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3782,7 +3777,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3819,14 +3814,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 19371-2022</t>
+          <t>A 19084-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44692</v>
+        <v>44308</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3839,7 +3834,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3876,14 +3871,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 54137-2021</t>
+          <t>A 19371-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44470</v>
+        <v>44692</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3895,13 +3890,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3938,14 +3928,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8186-2022</t>
+          <t>A 54137-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44609</v>
+        <v>44470</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3957,8 +3947,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3995,14 +3990,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19084-2021</t>
+          <t>A 54130-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44308</v>
+        <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4014,8 +4009,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4052,14 +4052,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 54130-2021</t>
+          <t>A 60889-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44470</v>
+        <v>44497.42795138889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4071,13 +4071,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4114,14 +4109,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 60889-2021</t>
+          <t>A 7510-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44497.42795138889</v>
+        <v>44607.48398148148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4133,8 +4128,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4178,7 +4178,7 @@
         <v>44594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44375</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4342,14 +4342,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 52457-2021</t>
+          <t>A 12977-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44466.38188657408</v>
+        <v>44643</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4361,13 +4361,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4404,14 +4399,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 12977-2022</t>
+          <t>A 52457-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44643</v>
+        <v>44466.38188657408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4423,8 +4418,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4461,14 +4461,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 54139-2021</t>
+          <t>A 67998-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44470</v>
+        <v>44525.76128472222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4480,13 +4480,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4523,14 +4518,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 68578-2021</t>
+          <t>A 63906-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44529.52201388889</v>
+        <v>44509.65762731482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4548,7 +4543,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4585,14 +4580,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 67998-2021</t>
+          <t>A 54139-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44525.76128472222</v>
+        <v>44470</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4604,8 +4599,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4642,14 +4642,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 63906-2021</t>
+          <t>A 68578-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44509.65762731482</v>
+        <v>44529.52201388889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4704,14 +4704,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 63008-2021</t>
+          <t>A 59158-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44505.41567129629</v>
+        <v>44904</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4766,14 +4766,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14679-2025</t>
+          <t>A 44806-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45742.56643518519</v>
+        <v>45190.49174768518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4828,14 +4828,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 7975-2025</t>
+          <t>A 63008-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45707.46203703704</v>
+        <v>44505.41567129629</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4890,14 +4890,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 18675-2025</t>
+          <t>A 9510-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45763.59862268518</v>
+        <v>45715.53829861111</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4909,8 +4909,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4947,14 +4952,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 29607-2022</t>
+          <t>A 59206-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44754.50530092593</v>
+        <v>45636</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4966,13 +4971,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5009,14 +5009,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 37672-2024</t>
+          <t>A 11085-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45541.57966435186</v>
+        <v>44986</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5028,13 +5028,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5071,14 +5066,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 56478-2024</t>
+          <t>A 5277-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45624</v>
+        <v>45330</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5091,7 +5086,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5128,14 +5123,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 8062-2024</t>
+          <t>A 45861-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45351</v>
+        <v>45195</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5153,7 +5148,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5190,14 +5185,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 53406-2024</t>
+          <t>A 6394-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45614.49704861111</v>
+        <v>45338.57230324074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5215,7 +5210,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5252,14 +5247,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59206-2024</t>
+          <t>A 50764-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45636</v>
+        <v>45602.43876157407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5271,8 +5266,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5309,14 +5309,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10321-2023</t>
+          <t>A 43768-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44986.99549768519</v>
+        <v>45569</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5366,14 +5366,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 36437-2024</t>
+          <t>A 26182-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45535</v>
+        <v>45468</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5383,6 +5383,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>DEGERFORS</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -5423,14 +5428,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38904-2023</t>
+          <t>A 13405-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45163</v>
+        <v>45387.44760416666</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5442,13 +5447,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5485,14 +5485,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38921-2023</t>
+          <t>A 18675-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45163</v>
+        <v>45763.59862268518</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5504,13 +5504,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5547,14 +5542,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 21562-2024</t>
+          <t>A 54082-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45441.65392361111</v>
+        <v>45616.4956712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5566,13 +5561,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5609,14 +5599,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16480-2025</t>
+          <t>A 38743-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45751.57702546296</v>
+        <v>44816.34265046296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5628,8 +5618,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5666,14 +5661,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 10672-2024</t>
+          <t>A 38904-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45369.35207175926</v>
+        <v>45163</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5691,7 +5686,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5728,14 +5723,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 2565-2022</t>
+          <t>A 38921-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44579</v>
+        <v>45163</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5747,8 +5742,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5785,14 +5785,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28367-2025</t>
+          <t>A 58479-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45819</v>
+        <v>45635.38675925926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5847,14 +5847,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 28368-2025</t>
+          <t>A 14633-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45819.21581018518</v>
+        <v>45742</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5909,14 +5909,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28370-2025</t>
+          <t>A 14634-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45819.22013888889</v>
+        <v>45742</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>8.199999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5971,14 +5971,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38874-2025</t>
+          <t>A 20577-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45887</v>
+        <v>45057</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6033,14 +6033,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 38782-2025</t>
+          <t>A 10797-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45887</v>
+        <v>44989</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>9.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6090,14 +6090,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28369-2025</t>
+          <t>A 48285-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45819.21905092592</v>
+        <v>45205.55755787037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6152,14 +6152,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60907-2023</t>
+          <t>A 16480-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45261</v>
+        <v>45751.57702546296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6171,13 +6171,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6214,14 +6209,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23066-2022</t>
+          <t>A 44457-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44719.45199074074</v>
+        <v>44839</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6234,7 +6229,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6271,14 +6266,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25175-2024</t>
+          <t>A 46220-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45462.545625</v>
+        <v>45581.56866898148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6296,7 +6291,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6333,14 +6328,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 26176-2024</t>
+          <t>A 47935-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45468.55660879629</v>
+        <v>45589.34674768519</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6358,7 +6353,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6395,14 +6390,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 3177-2022</t>
+          <t>A 46219-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44582.61244212963</v>
+        <v>45581.56686342593</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6414,8 +6409,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6452,14 +6452,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 41369-2025</t>
+          <t>A 21952-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45900.56857638889</v>
+        <v>45443.48370370371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6471,8 +6471,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6509,14 +6514,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31603-2025</t>
+          <t>A 29482-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45833.73876157407</v>
+        <v>45106.57938657407</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6529,7 +6534,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6566,14 +6571,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 41642-2025</t>
+          <t>A 52566-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45901</v>
+        <v>45219</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6586,7 +6591,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6623,14 +6628,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 50766-2024</t>
+          <t>A 63905-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45602.43986111111</v>
+        <v>44509.65712962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6648,7 +6653,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6685,14 +6690,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 32300-2025</t>
+          <t>A 26176-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45835.71607638889</v>
+        <v>45468.55660879629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6704,8 +6709,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6742,14 +6752,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8184-2022</t>
+          <t>A 14677-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44609</v>
+        <v>45742.56465277778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6761,8 +6771,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6799,14 +6814,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46290-2024</t>
+          <t>A 62972-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45581.66018518519</v>
+        <v>45272</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6818,13 +6833,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>8.199999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6861,14 +6871,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 52506-2024</t>
+          <t>A 12148-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45609</v>
+        <v>45729</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6886,7 +6896,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6923,14 +6933,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 52523-2024</t>
+          <t>A 58197-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45609</v>
+        <v>45632.48092592593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6948,7 +6958,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6985,14 +6995,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41767-2025</t>
+          <t>A 50377-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45902.54892361111</v>
+        <v>45601.29576388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7010,7 +7020,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7047,14 +7057,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41766-2025</t>
+          <t>A 33658-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45902.54806712963</v>
+        <v>45520.46899305555</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7066,13 +7076,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7109,14 +7114,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32717-2025</t>
+          <t>A 13236-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45839.37686342592</v>
+        <v>45735.47133101852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7128,8 +7133,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>3.1</v>
+        <v>18.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7166,14 +7176,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 58197-2024</t>
+          <t>A 38233-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45632.48092592593</v>
+        <v>45160</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7185,13 +7195,8 @@
           <t>DEGERFORS</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7228,14 +7233,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33404-2025</t>
+          <t>A 26185-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45841</v>
+        <v>45468.56267361111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7247,8 +7252,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7285,14 +7295,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 54515-2023</t>
+          <t>A 14452-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45233.57033564815</v>
+        <v>45741.56143518518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7304,8 +7314,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7342,14 +7357,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 43690-2025</t>
+          <t>A 52490-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45912.38975694445</v>
+        <v>45609.55875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7367,7 +7382,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7404,14 +7419,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43694-2025</t>
+          <t>A 25177-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45912.39295138889</v>
+        <v>45462.546875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7429,7 +7444,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7466,14 +7481,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43691-2025</t>
+          <t>A 58120-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45912.39130787037</v>
+        <v>45632.39280092593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7491,7 +7506,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7528,14 +7543,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43752-2025</t>
+          <t>A 58125-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45912</v>
+        <v>45632.39546296297</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7547,8 +7562,13 @@
           <t>DEGERFORS</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>3.1</v>
+        <v>8.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7585,14 +7605,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43692-2025</t>
+          <t>A 52508-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45912.39221064815</v>
+        <v>45609</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7610,7 +7630,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
     